--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>Unemployment Rate: January 1976 -- November 2015</t>
+  </si>
   <si>
     <t>Source: Bureau of Labor Statistics</t>
   </si>
@@ -176,9 +179,6 @@
   </si>
   <si>
     <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Unemployment Rate: January 1976 -- October 2015</t>
   </si>
 </sst>
 </file>
@@ -1635,9 +1635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BI483" sqref="BI483"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P484" sqref="P484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1699,176 +1699,176 @@
   <sheetData>
     <row r="1" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL5" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM5" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AR5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AS5" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AT5" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AU5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AW5" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AX5" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AY5" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AZ5" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
@@ -78703,7 +78703,7 @@
         <v>6.6</v>
       </c>
       <c r="L483" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="M483" s="2">
         <v>5.7</v>
@@ -78830,7 +78830,165 @@
       </c>
     </row>
     <row r="484" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A484" s="6"/>
+      <c r="A484" s="6">
+        <v>42309</v>
+      </c>
+      <c r="B484" s="2">
+        <v>5</v>
+      </c>
+      <c r="C484" s="2">
+        <v>6</v>
+      </c>
+      <c r="D484" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="E484" s="2">
+        <v>6</v>
+      </c>
+      <c r="F484" s="2">
+        <v>5</v>
+      </c>
+      <c r="G484" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="H484" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="I484" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J484" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K484" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="L484" s="2">
+        <v>5</v>
+      </c>
+      <c r="M484" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="N484" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="O484" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="P484" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="Q484" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R484" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="S484" s="2">
+        <v>4</v>
+      </c>
+      <c r="T484" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U484" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="V484" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W484" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="X484" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="Y484" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z484" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AA484" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB484" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AC484" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD484" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AE484" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AF484" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AG484" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AH484" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="AI484" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AJ484" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AK484" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AL484" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AM484" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AN484" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AO484" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP484" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AQ484" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AR484" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS484" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AT484" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AU484" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AV484" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AW484" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AX484" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AY484" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AZ484" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="BA484" s="2">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="485" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A485" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -15,9 +15,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t>Unemployment Rate: January 1976 -- November 2015</t>
-  </si>
   <si>
     <t>Source: Bureau of Labor Statistics</t>
   </si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Unemployment Rate: January 1976 -- December 2015</t>
   </si>
 </sst>
 </file>
@@ -1636,8 +1636,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P484" sqref="P484"/>
+      <pane ySplit="5" topLeftCell="A450" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L485" sqref="L485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1699,176 +1699,176 @@
   <sheetData>
     <row r="1" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AG5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AI5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AJ5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AK5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AL5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AM5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AN5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AO5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AP5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AP5" s="5" t="s">
+      <c r="AQ5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AR5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AS5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AT5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AU5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AV5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AW5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="AY5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AY5" s="5" t="s">
+      <c r="AZ5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AZ5" s="5" t="s">
+      <c r="BA5" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="BA5" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
@@ -69496,7 +69496,7 @@
         <v>40544</v>
       </c>
       <c r="B426" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="C426" s="2">
         <v>10.199999999999999</v>
@@ -72555,7 +72555,7 @@
         <v>41122</v>
       </c>
       <c r="B445" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="C445" s="2">
         <v>8.1</v>
@@ -74487,7 +74487,7 @@
         <v>41487</v>
       </c>
       <c r="B457" s="2">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="C457" s="2">
         <v>7</v>
@@ -74648,7 +74648,7 @@
         <v>41518</v>
       </c>
       <c r="B458" s="2">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="C458" s="2">
         <v>7</v>
@@ -74970,7 +74970,7 @@
         <v>41579</v>
       </c>
       <c r="B460" s="2">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="C460" s="2">
         <v>7.1</v>
@@ -75614,7 +75614,7 @@
         <v>41699</v>
       </c>
       <c r="B464" s="2">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="C464" s="2">
         <v>7.2</v>
@@ -75936,7 +75936,7 @@
         <v>41760</v>
       </c>
       <c r="B466" s="2">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="C466" s="2">
         <v>6.9</v>
@@ -76419,7 +76419,7 @@
         <v>41852</v>
       </c>
       <c r="B469" s="2">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="C469" s="2">
         <v>6.5</v>
@@ -76580,7 +76580,7 @@
         <v>41883</v>
       </c>
       <c r="B470" s="2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C470" s="2">
         <v>6.3</v>
@@ -78864,13 +78864,13 @@
         <v>6.6</v>
       </c>
       <c r="L484" s="2">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M484" s="2">
         <v>5.6</v>
       </c>
       <c r="N484" s="2">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O484" s="2">
         <v>3.9</v>
@@ -78885,10 +78885,10 @@
         <v>3.4</v>
       </c>
       <c r="S484" s="2">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T484" s="2">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="U484" s="2">
         <v>6.3</v>
@@ -78906,7 +78906,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="Z484" s="2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AA484" s="2">
         <v>6</v>
@@ -78915,7 +78915,7 @@
         <v>4.7</v>
       </c>
       <c r="AC484" s="2">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AD484" s="2">
         <v>2.9</v>
@@ -78927,7 +78927,7 @@
         <v>3.2</v>
       </c>
       <c r="AG484" s="2">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AH484" s="2">
         <v>6.8</v>
@@ -78963,7 +78963,7 @@
         <v>3</v>
       </c>
       <c r="AS484" s="2">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AT484" s="2">
         <v>4.5999999999999996</v>
@@ -78975,7 +78975,7 @@
         <v>3.7</v>
       </c>
       <c r="AW484" s="2">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AX484" s="2">
         <v>5.3</v>
@@ -78991,7 +78991,165 @@
       </c>
     </row>
     <row r="485" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A485" s="6"/>
+      <c r="A485" s="6">
+        <v>42339</v>
+      </c>
+      <c r="B485" s="2">
+        <v>5</v>
+      </c>
+      <c r="C485" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D485" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E485" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="F485" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G485" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="H485" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="I485" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="J485" s="2">
+        <v>5</v>
+      </c>
+      <c r="K485" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="L485" s="2">
+        <v>5</v>
+      </c>
+      <c r="M485" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="N485" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="O485" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="P485" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="Q485" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R485" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="S485" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="T485" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="U485" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="V485" s="2">
+        <v>4</v>
+      </c>
+      <c r="W485" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X485" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="Y485" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z485" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AA485" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="AB485" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC485" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD485" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AE485" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="AF485" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AG485" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AH485" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="AI485" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AJ485" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AK485" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AL485" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AM485" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AN485" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="AO485" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AP485" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AQ485" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AR485" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AS485" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AT485" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AU485" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AV485" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AW485" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AX485" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AY485" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="AZ485" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="BA485" s="2">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="486" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A486" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- December 2015</t>
+    <t>Unemployment Rate: January 1976 -- January 2016</t>
   </si>
 </sst>
 </file>
@@ -1636,8 +1636,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A450" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L485" sqref="L485"/>
+      <pane ySplit="5" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H457" sqref="H457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -69505,7 +69505,7 @@
         <v>7.8</v>
       </c>
       <c r="E426" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F426" s="2">
         <v>8.4</v>
@@ -69514,7 +69514,7 @@
         <v>12</v>
       </c>
       <c r="H426" s="2">
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I426" s="2">
         <v>9.1999999999999993</v>
@@ -69547,7 +69547,7 @@
         <v>5.7</v>
       </c>
       <c r="S426" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="T426" s="2">
         <v>9.8000000000000007</v>
@@ -69556,7 +69556,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="V426" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="W426" s="2">
         <v>7.3</v>
@@ -69568,7 +69568,7 @@
         <v>10.9</v>
       </c>
       <c r="Z426" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA426" s="2">
         <v>10</v>
@@ -69583,7 +69583,7 @@
         <v>4.5</v>
       </c>
       <c r="AE426" s="2">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="AF426" s="2">
         <v>5.4</v>
@@ -69598,7 +69598,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AJ426" s="2">
-        <v>10.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="AK426" s="2">
         <v>3.5</v>
@@ -69616,10 +69616,10 @@
         <v>7.9</v>
       </c>
       <c r="AP426" s="2">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="AQ426" s="2">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="AR426" s="2">
         <v>5</v>
@@ -69628,7 +69628,7 @@
         <v>9.4</v>
       </c>
       <c r="AT426" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AU426" s="2">
         <v>7.4</v>
@@ -69640,7 +69640,7 @@
         <v>6.6</v>
       </c>
       <c r="AX426" s="2">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="AY426" s="2">
         <v>8.6</v>
@@ -69675,7 +69675,7 @@
         <v>11.9</v>
       </c>
       <c r="H427" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="I427" s="2">
         <v>9.1999999999999993</v>
@@ -69696,10 +69696,10 @@
         <v>6.7</v>
       </c>
       <c r="O427" s="2">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P427" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="Q427" s="2">
         <v>8.9</v>
@@ -69708,16 +69708,16 @@
         <v>5.6</v>
       </c>
       <c r="S427" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="T427" s="2">
-        <v>9.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="U427" s="2">
         <v>8.1</v>
       </c>
       <c r="V427" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="W427" s="2">
         <v>7.2</v>
@@ -69777,7 +69777,7 @@
         <v>7.8</v>
       </c>
       <c r="AP427" s="2">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="AQ427" s="2">
         <v>10.6</v>
@@ -69786,7 +69786,7 @@
         <v>5</v>
       </c>
       <c r="AS427" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AT427" s="2">
         <v>7.9</v>
@@ -69795,16 +69795,16 @@
         <v>7.3</v>
       </c>
       <c r="AV427" s="2">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AW427" s="2">
         <v>6.5</v>
       </c>
       <c r="AX427" s="2">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="AY427" s="2">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AZ427" s="2">
         <v>7.9</v>
@@ -69836,7 +69836,7 @@
         <v>11.8</v>
       </c>
       <c r="H428" s="2">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="I428" s="2">
         <v>9.1</v>
@@ -69845,7 +69845,7 @@
         <v>7.7</v>
       </c>
       <c r="K428" s="2">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="L428" s="2">
         <v>10.199999999999999</v>
@@ -69869,10 +69869,10 @@
         <v>5.5</v>
       </c>
       <c r="S428" s="2">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="T428" s="2">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="U428" s="2">
         <v>8</v>
@@ -69896,7 +69896,7 @@
         <v>10</v>
       </c>
       <c r="AB428" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AC428" s="2">
         <v>7.2</v>
@@ -69920,7 +69920,7 @@
         <v>8.1</v>
       </c>
       <c r="AJ428" s="2">
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AK428" s="2">
         <v>3.5</v>
@@ -69938,13 +69938,13 @@
         <v>7.8</v>
       </c>
       <c r="AP428" s="2">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="AQ428" s="2">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="AR428" s="2">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="AS428" s="2">
         <v>9.1999999999999993</v>
@@ -69956,7 +69956,7 @@
         <v>7.2</v>
       </c>
       <c r="AV428" s="2">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AW428" s="2">
         <v>6.4</v>
@@ -69997,7 +69997,7 @@
         <v>11.7</v>
       </c>
       <c r="H429" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="I429" s="2">
         <v>9.1</v>
@@ -70006,7 +70006,7 @@
         <v>7.6</v>
       </c>
       <c r="K429" s="2">
-        <v>10.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L429" s="2">
         <v>10.1</v>
@@ -70018,10 +70018,10 @@
         <v>6.7</v>
       </c>
       <c r="O429" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="P429" s="2">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="Q429" s="2">
         <v>8.8000000000000007</v>
@@ -70033,7 +70033,7 @@
         <v>6.5</v>
       </c>
       <c r="T429" s="2">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="U429" s="2">
         <v>7.9</v>
@@ -70042,7 +70042,7 @@
         <v>8</v>
       </c>
       <c r="W429" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X429" s="2">
         <v>7.4</v>
@@ -70066,13 +70066,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AE429" s="2">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="AF429" s="2">
         <v>5.3</v>
       </c>
       <c r="AG429" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AH429" s="2">
         <v>7.3</v>
@@ -70099,7 +70099,7 @@
         <v>7.8</v>
       </c>
       <c r="AP429" s="2">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="AQ429" s="2">
         <v>10.5</v>
@@ -70114,22 +70114,22 @@
         <v>7.8</v>
       </c>
       <c r="AU429" s="2">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV429" s="2">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AW429" s="2">
         <v>6.4</v>
       </c>
       <c r="AX429" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AY429" s="2">
         <v>8.1</v>
       </c>
       <c r="AZ429" s="2">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="BA429" s="2">
         <v>5.9</v>
@@ -70158,7 +70158,7 @@
         <v>11.7</v>
       </c>
       <c r="H430" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I430" s="2">
         <v>9</v>
@@ -70176,10 +70176,10 @@
         <v>10.1</v>
       </c>
       <c r="N430" s="2">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O430" s="2">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="P430" s="2">
         <v>9.6</v>
@@ -70197,10 +70197,10 @@
         <v>9.4</v>
       </c>
       <c r="U430" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="V430" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W430" s="2">
         <v>7.2</v>
@@ -70233,7 +70233,7 @@
         <v>5.3</v>
       </c>
       <c r="AG430" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AH430" s="2">
         <v>7.3</v>
@@ -70242,7 +70242,7 @@
         <v>8.1</v>
       </c>
       <c r="AJ430" s="2">
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AK430" s="2">
         <v>3.5</v>
@@ -70260,7 +70260,7 @@
         <v>7.9</v>
       </c>
       <c r="AP430" s="2">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="AQ430" s="2">
         <v>10.5</v>
@@ -70269,10 +70269,10 @@
         <v>4.8</v>
       </c>
       <c r="AS430" s="2">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="AT430" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AU430" s="2">
         <v>6.9</v>
@@ -70322,7 +70322,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="I431" s="2">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="J431" s="2">
         <v>7.5</v>
@@ -70331,7 +70331,7 @@
         <v>10.5</v>
       </c>
       <c r="L431" s="2">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M431" s="2">
         <v>10.1</v>
@@ -70340,10 +70340,10 @@
         <v>6.8</v>
       </c>
       <c r="O431" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="P431" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Q431" s="2">
         <v>9.1</v>
@@ -70352,7 +70352,7 @@
         <v>5.5</v>
       </c>
       <c r="S431" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="T431" s="2">
         <v>9.4</v>
@@ -70367,13 +70367,13 @@
         <v>7.2</v>
       </c>
       <c r="X431" s="2">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y431" s="2">
         <v>10.5</v>
       </c>
       <c r="Z431" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA431" s="2">
         <v>10</v>
@@ -70385,16 +70385,16 @@
         <v>7</v>
       </c>
       <c r="AD431" s="2">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AE431" s="2">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="AF431" s="2">
         <v>5.4</v>
       </c>
       <c r="AG431" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AH431" s="2">
         <v>7.4</v>
@@ -70403,7 +70403,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AJ431" s="2">
-        <v>10.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="AK431" s="2">
         <v>3.5</v>
@@ -70415,16 +70415,16 @@
         <v>5.8</v>
       </c>
       <c r="AN431" s="2">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="AO431" s="2">
         <v>7.9</v>
       </c>
       <c r="AP431" s="2">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="AQ431" s="2">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="AR431" s="2">
         <v>4.7</v>
@@ -70433,19 +70433,19 @@
         <v>9</v>
       </c>
       <c r="AT431" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AU431" s="2">
         <v>6.8</v>
       </c>
       <c r="AV431" s="2">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AW431" s="2">
         <v>6.5</v>
       </c>
       <c r="AX431" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AY431" s="2">
         <v>7.9</v>
@@ -70474,13 +70474,13 @@
         <v>9.6</v>
       </c>
       <c r="F432" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G432" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="H432" s="2">
         <v>8.1999999999999993</v>
-      </c>
-      <c r="G432" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="H432" s="2">
-        <v>8.1</v>
       </c>
       <c r="I432" s="2">
         <v>8.6999999999999993</v>
@@ -70489,7 +70489,7 @@
         <v>7.5</v>
       </c>
       <c r="K432" s="2">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="L432" s="2">
         <v>9.8000000000000007</v>
@@ -70498,13 +70498,13 @@
         <v>10.1</v>
       </c>
       <c r="N432" s="2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="O432" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="P432" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="Q432" s="2">
         <v>9.1999999999999993</v>
@@ -70516,7 +70516,7 @@
         <v>6.3</v>
       </c>
       <c r="T432" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="U432" s="2">
         <v>7.6</v>
@@ -70528,7 +70528,7 @@
         <v>7.2</v>
       </c>
       <c r="X432" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y432" s="2">
         <v>10.4</v>
@@ -70555,16 +70555,16 @@
         <v>5.4</v>
       </c>
       <c r="AG432" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AH432" s="2">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI432" s="2">
         <v>8.1999999999999993</v>
       </c>
       <c r="AJ432" s="2">
-        <v>10.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="AK432" s="2">
         <v>3.5</v>
@@ -70582,19 +70582,19 @@
         <v>8</v>
       </c>
       <c r="AP432" s="2">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="AQ432" s="2">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="AR432" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="AS432" s="2">
         <v>8.9</v>
       </c>
       <c r="AT432" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AU432" s="2">
         <v>6.6</v>
@@ -70615,7 +70615,7 @@
         <v>7.8</v>
       </c>
       <c r="BA432" s="2">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="433" spans="1:53" x14ac:dyDescent="0.2">
@@ -70641,7 +70641,7 @@
         <v>11.6</v>
       </c>
       <c r="H433" s="2">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I433" s="2">
         <v>8.6</v>
@@ -70653,7 +70653,7 @@
         <v>10.4</v>
       </c>
       <c r="L433" s="2">
-        <v>9.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="M433" s="2">
         <v>10.1</v>
@@ -70662,10 +70662,10 @@
         <v>6.9</v>
       </c>
       <c r="O433" s="2">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="P433" s="2">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="Q433" s="2">
         <v>9.3000000000000007</v>
@@ -70725,7 +70725,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AJ433" s="2">
-        <v>10.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="AK433" s="2">
         <v>3.5</v>
@@ -70743,7 +70743,7 @@
         <v>8</v>
       </c>
       <c r="AP433" s="2">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="AQ433" s="2">
         <v>10.5</v>
@@ -70764,7 +70764,7 @@
         <v>5.4</v>
       </c>
       <c r="AW433" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AX433" s="2">
         <v>9.1</v>
@@ -70802,7 +70802,7 @@
         <v>11.5</v>
       </c>
       <c r="H434" s="2">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I434" s="2">
         <v>8.5</v>
@@ -70823,7 +70823,7 @@
         <v>6.9</v>
       </c>
       <c r="O434" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="P434" s="2">
         <v>9.9</v>
@@ -70835,7 +70835,7 @@
         <v>5.5</v>
       </c>
       <c r="S434" s="2">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="T434" s="2">
         <v>9.1999999999999993</v>
@@ -70847,7 +70847,7 @@
         <v>7.8</v>
       </c>
       <c r="W434" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X434" s="2">
         <v>7</v>
@@ -70862,7 +70862,7 @@
         <v>9.9</v>
       </c>
       <c r="AB434" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AC434" s="2">
         <v>6.8</v>
@@ -70886,7 +70886,7 @@
         <v>8.4</v>
       </c>
       <c r="AJ434" s="2">
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AK434" s="2">
         <v>3.5</v>
@@ -70910,7 +70910,7 @@
         <v>10.4</v>
       </c>
       <c r="AR434" s="2">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AS434" s="2">
         <v>8.6999999999999993</v>
@@ -70925,7 +70925,7 @@
         <v>5.4</v>
       </c>
       <c r="AW434" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AX434" s="2">
         <v>9</v>
@@ -70963,7 +70963,7 @@
         <v>11.3</v>
       </c>
       <c r="H435" s="2">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I435" s="2">
         <v>8.4</v>
@@ -70984,13 +70984,13 @@
         <v>6.9</v>
       </c>
       <c r="O435" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="P435" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Q435" s="2">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="R435" s="2">
         <v>5.4</v>
@@ -71017,13 +71017,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="Z435" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA435" s="2">
         <v>9.8000000000000007</v>
       </c>
       <c r="AB435" s="2">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AC435" s="2">
         <v>6.6</v>
@@ -71038,7 +71038,7 @@
         <v>5.5</v>
       </c>
       <c r="AG435" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AH435" s="2">
         <v>7.6</v>
@@ -71047,7 +71047,7 @@
         <v>8.4</v>
       </c>
       <c r="AJ435" s="2">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="AK435" s="2">
         <v>3.4</v>
@@ -71056,7 +71056,7 @@
         <v>8.5</v>
       </c>
       <c r="AM435" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AN435" s="2">
         <v>9.3000000000000007</v>
@@ -71065,7 +71065,7 @@
         <v>7.9</v>
       </c>
       <c r="AP435" s="2">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="AQ435" s="2">
         <v>10.3</v>
@@ -71083,7 +71083,7 @@
         <v>6.2</v>
       </c>
       <c r="AV435" s="2">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AW435" s="2">
         <v>6.5</v>
@@ -71092,7 +71092,7 @@
         <v>8.9</v>
       </c>
       <c r="AY435" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AZ435" s="2">
         <v>7.5</v>
@@ -71124,10 +71124,10 @@
         <v>11.2</v>
       </c>
       <c r="H436" s="2">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I436" s="2">
-        <v>8.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J436" s="2">
         <v>7.2</v>
@@ -71139,16 +71139,16 @@
         <v>9.1</v>
       </c>
       <c r="M436" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="N436" s="2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="O436" s="2">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="P436" s="2">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="Q436" s="2">
         <v>9</v>
@@ -71157,13 +71157,13 @@
         <v>5.3</v>
       </c>
       <c r="S436" s="2">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="T436" s="2">
         <v>8.9</v>
       </c>
       <c r="U436" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="V436" s="2">
         <v>7.7</v>
@@ -71172,7 +71172,7 @@
         <v>7</v>
       </c>
       <c r="X436" s="2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y436" s="2">
         <v>9.6</v>
@@ -71184,7 +71184,7 @@
         <v>9.6</v>
       </c>
       <c r="AB436" s="2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AC436" s="2">
         <v>6.5</v>
@@ -71196,7 +71196,7 @@
         <v>12.5</v>
       </c>
       <c r="AF436" s="2">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AG436" s="2">
         <v>9.1999999999999993</v>
@@ -71208,7 +71208,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ436" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="AK436" s="2">
         <v>3.3</v>
@@ -71226,7 +71226,7 @@
         <v>7.8</v>
       </c>
       <c r="AP436" s="2">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="AQ436" s="2">
         <v>10.1</v>
@@ -71276,16 +71276,16 @@
         <v>7.4</v>
       </c>
       <c r="E437" s="2">
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F437" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="G437" s="2">
         <v>11</v>
       </c>
       <c r="H437" s="2">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I437" s="2">
         <v>8.3000000000000007</v>
@@ -71297,7 +71297,7 @@
         <v>9.9</v>
       </c>
       <c r="L437" s="2">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M437" s="2">
         <v>9.6</v>
@@ -71306,7 +71306,7 @@
         <v>6.8</v>
       </c>
       <c r="O437" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="P437" s="2">
         <v>9.3000000000000007</v>
@@ -71315,10 +71315,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="R437" s="2">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="S437" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="T437" s="2">
         <v>8.6999999999999993</v>
@@ -71330,7 +71330,7 @@
         <v>7.7</v>
       </c>
       <c r="W437" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X437" s="2">
         <v>6.8</v>
@@ -71345,13 +71345,13 @@
         <v>9.4</v>
       </c>
       <c r="AB437" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AC437" s="2">
         <v>6.4</v>
       </c>
       <c r="AD437" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="AE437" s="2">
         <v>12.3</v>
@@ -71360,7 +71360,7 @@
         <v>5.4</v>
       </c>
       <c r="AG437" s="2">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AH437" s="2">
         <v>7.6</v>
@@ -71369,16 +71369,16 @@
         <v>8.5</v>
       </c>
       <c r="AJ437" s="2">
-        <v>9.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AK437" s="2">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AL437" s="2">
         <v>8</v>
       </c>
       <c r="AM437" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AN437" s="2">
         <v>9.1</v>
@@ -71387,7 +71387,7 @@
         <v>7.7</v>
       </c>
       <c r="AP437" s="2">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="AQ437" s="2">
         <v>9.9</v>
@@ -71402,7 +71402,7 @@
         <v>7.2</v>
       </c>
       <c r="AU437" s="2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AV437" s="2">
         <v>5.2</v>
@@ -71411,7 +71411,7 @@
         <v>6.3</v>
       </c>
       <c r="AX437" s="2">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AY437" s="2">
         <v>7.4</v>
@@ -71420,7 +71420,7 @@
         <v>7.2</v>
       </c>
       <c r="BA437" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="438" spans="1:53" x14ac:dyDescent="0.2">
@@ -71437,19 +71437,19 @@
         <v>7.4</v>
       </c>
       <c r="E438" s="2">
-        <v>8.8000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F438" s="2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="G438" s="2">
         <v>10.9</v>
       </c>
       <c r="H438" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="I438" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J438" s="2">
         <v>7.1</v>
@@ -71467,28 +71467,28 @@
         <v>6.7</v>
       </c>
       <c r="O438" s="2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="P438" s="2">
         <v>9.1</v>
       </c>
       <c r="Q438" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="R438" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="S438" s="2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="T438" s="2">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="U438" s="2">
         <v>7.4</v>
       </c>
       <c r="V438" s="2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="W438" s="2">
         <v>6.9</v>
@@ -71506,7 +71506,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="AB438" s="2">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AC438" s="2">
         <v>6.3</v>
@@ -71521,7 +71521,7 @@
         <v>5.4</v>
       </c>
       <c r="AG438" s="2">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AH438" s="2">
         <v>7.5</v>
@@ -71530,13 +71530,13 @@
         <v>8.6</v>
       </c>
       <c r="AJ438" s="2">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="AK438" s="2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AL438" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AM438" s="2">
         <v>5.4</v>
@@ -71548,7 +71548,7 @@
         <v>7.6</v>
       </c>
       <c r="AP438" s="2">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="AQ438" s="2">
         <v>9.6999999999999993</v>
@@ -71557,13 +71557,13 @@
         <v>4.3</v>
       </c>
       <c r="AS438" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AT438" s="2">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AU438" s="2">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AV438" s="2">
         <v>5.0999999999999996</v>
@@ -71572,7 +71572,7 @@
         <v>6.2</v>
       </c>
       <c r="AX438" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="AY438" s="2">
         <v>7.3</v>
@@ -71581,7 +71581,7 @@
         <v>7.1</v>
       </c>
       <c r="BA438" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="439" spans="1:53" x14ac:dyDescent="0.2">
@@ -71607,10 +71607,10 @@
         <v>10.8</v>
       </c>
       <c r="H439" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="I439" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J439" s="2">
         <v>7.1</v>
@@ -71625,10 +71625,10 @@
         <v>9.4</v>
       </c>
       <c r="N439" s="2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="O439" s="2">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="P439" s="2">
         <v>9</v>
@@ -71646,7 +71646,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="U439" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="V439" s="2">
         <v>7.6</v>
@@ -71703,16 +71703,16 @@
         <v>5.3</v>
       </c>
       <c r="AN439" s="2">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="AO439" s="2">
         <v>7.6</v>
       </c>
       <c r="AP439" s="2">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="AQ439" s="2">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="AR439" s="2">
         <v>4.3</v>
@@ -71724,7 +71724,7 @@
         <v>6.9</v>
       </c>
       <c r="AU439" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AV439" s="2">
         <v>5.0999999999999996</v>
@@ -71733,7 +71733,7 @@
         <v>6.1</v>
       </c>
       <c r="AX439" s="2">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="AY439" s="2">
         <v>7.2</v>
@@ -71768,7 +71768,7 @@
         <v>10.7</v>
       </c>
       <c r="H440" s="2">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="I440" s="2">
         <v>8.3000000000000007</v>
@@ -71783,10 +71783,10 @@
         <v>8.6</v>
       </c>
       <c r="M440" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="N440" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="O440" s="2">
         <v>7.5</v>
@@ -71798,16 +71798,16 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="R440" s="2">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="S440" s="2">
         <v>5.8</v>
       </c>
       <c r="T440" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="U440" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="V440" s="2">
         <v>7.6</v>
@@ -71816,7 +71816,7 @@
         <v>6.9</v>
       </c>
       <c r="X440" s="2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y440" s="2">
         <v>9.1</v>
@@ -71843,7 +71843,7 @@
         <v>5.4</v>
       </c>
       <c r="AG440" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AH440" s="2">
         <v>7.2</v>
@@ -71852,10 +71852,10 @@
         <v>8.6</v>
       </c>
       <c r="AJ440" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AK440" s="2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AL440" s="2">
         <v>7.5</v>
@@ -71870,10 +71870,10 @@
         <v>7.6</v>
       </c>
       <c r="AP440" s="2">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="AQ440" s="2">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="AR440" s="2">
         <v>4.3</v>
@@ -71882,10 +71882,10 @@
         <v>7.8</v>
       </c>
       <c r="AT440" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AU440" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AV440" s="2">
         <v>5</v>
@@ -71897,10 +71897,10 @@
         <v>8.4</v>
       </c>
       <c r="AY440" s="2">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AZ440" s="2">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="BA440" s="2">
         <v>5.3</v>
@@ -71920,7 +71920,7 @@
         <v>7.2</v>
       </c>
       <c r="E441" s="2">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="F441" s="2">
         <v>7.5</v>
@@ -71929,7 +71929,7 @@
         <v>10.6</v>
       </c>
       <c r="H441" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="I441" s="2">
         <v>8.3000000000000007</v>
@@ -71941,7 +71941,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="L441" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M441" s="2">
         <v>9.3000000000000007</v>
@@ -71950,13 +71950,13 @@
         <v>6.4</v>
       </c>
       <c r="O441" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="P441" s="2">
         <v>8.9</v>
       </c>
       <c r="Q441" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R441" s="2">
         <v>5</v>
@@ -71968,7 +71968,7 @@
         <v>8.1</v>
       </c>
       <c r="U441" s="2">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="V441" s="2">
         <v>7.6</v>
@@ -71983,10 +71983,10 @@
         <v>9.1</v>
       </c>
       <c r="Z441" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA441" s="2">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="AB441" s="2">
         <v>6.9</v>
@@ -71995,7 +71995,7 @@
         <v>6.1</v>
       </c>
       <c r="AD441" s="2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AE441" s="2">
         <v>11.5</v>
@@ -72025,13 +72025,13 @@
         <v>5.2</v>
       </c>
       <c r="AN441" s="2">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="AO441" s="2">
         <v>7.6</v>
       </c>
       <c r="AP441" s="2">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="AQ441" s="2">
         <v>9.4</v>
@@ -72052,13 +72052,13 @@
         <v>5</v>
       </c>
       <c r="AW441" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AX441" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="AY441" s="2">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AZ441" s="2">
         <v>7.1</v>
@@ -72090,7 +72090,7 @@
         <v>10.5</v>
       </c>
       <c r="H442" s="2">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I442" s="2">
         <v>8.4</v>
@@ -72111,13 +72111,13 @@
         <v>6.3</v>
       </c>
       <c r="O442" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="P442" s="2">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="Q442" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R442" s="2">
         <v>5</v>
@@ -72132,7 +72132,7 @@
         <v>7.2</v>
       </c>
       <c r="V442" s="2">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="W442" s="2">
         <v>6.9</v>
@@ -72144,7 +72144,7 @@
         <v>9.1</v>
       </c>
       <c r="Z442" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA442" s="2">
         <v>9</v>
@@ -72165,7 +72165,7 @@
         <v>5.5</v>
       </c>
       <c r="AG442" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AH442" s="2">
         <v>7.1</v>
@@ -72180,10 +72180,10 @@
         <v>3</v>
       </c>
       <c r="AL442" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AM442" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AN442" s="2">
         <v>8.8000000000000007</v>
@@ -72192,10 +72192,10 @@
         <v>7.7</v>
       </c>
       <c r="AP442" s="2">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="AQ442" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AR442" s="2">
         <v>4.3</v>
@@ -72204,7 +72204,7 @@
         <v>7.9</v>
       </c>
       <c r="AT442" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AU442" s="2">
         <v>5.5</v>
@@ -72219,7 +72219,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AY442" s="2">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AZ442" s="2">
         <v>7.1</v>
@@ -72251,7 +72251,7 @@
         <v>10.4</v>
       </c>
       <c r="H443" s="2">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="I443" s="2">
         <v>8.5</v>
@@ -72263,7 +72263,7 @@
         <v>8.9</v>
       </c>
       <c r="L443" s="2">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M443" s="2">
         <v>9.1</v>
@@ -72272,13 +72272,13 @@
         <v>6.1</v>
       </c>
       <c r="O443" s="2">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="P443" s="2">
         <v>9</v>
       </c>
       <c r="Q443" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R443" s="2">
         <v>5</v>
@@ -72287,7 +72287,7 @@
         <v>5.7</v>
       </c>
       <c r="T443" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="U443" s="2">
         <v>7.1</v>
@@ -72305,13 +72305,13 @@
         <v>9.1</v>
       </c>
       <c r="Z443" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA443" s="2">
         <v>9</v>
       </c>
       <c r="AB443" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AC443" s="2">
         <v>6.1</v>
@@ -72326,7 +72326,7 @@
         <v>5.5</v>
       </c>
       <c r="AG443" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AH443" s="2">
         <v>7</v>
@@ -72335,7 +72335,7 @@
         <v>8.6</v>
       </c>
       <c r="AJ443" s="2">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AK443" s="2">
         <v>3</v>
@@ -72344,19 +72344,19 @@
         <v>7.3</v>
       </c>
       <c r="AM443" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AN443" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="AO443" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AP443" s="2">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="AQ443" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AR443" s="2">
         <v>4.3</v>
@@ -72380,7 +72380,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AY443" s="2">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AZ443" s="2">
         <v>7.1</v>
@@ -72412,7 +72412,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H444" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="I444" s="2">
         <v>8.5</v>
@@ -72424,22 +72424,22 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="L444" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="M444" s="2">
         <v>8.9</v>
       </c>
       <c r="N444" s="2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O444" s="2">
         <v>7.1</v>
       </c>
       <c r="P444" s="2">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="Q444" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R444" s="2">
         <v>5</v>
@@ -72460,7 +72460,7 @@
         <v>6.9</v>
       </c>
       <c r="X444" s="2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y444" s="2">
         <v>9.1</v>
@@ -72487,7 +72487,7 @@
         <v>5.6</v>
       </c>
       <c r="AG444" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AH444" s="2">
         <v>7</v>
@@ -72496,7 +72496,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ444" s="2">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AK444" s="2">
         <v>3</v>
@@ -72514,13 +72514,13 @@
         <v>7.8</v>
       </c>
       <c r="AP444" s="2">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="AQ444" s="2">
         <v>9.1</v>
       </c>
       <c r="AR444" s="2">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AS444" s="2">
         <v>7.8</v>
@@ -72535,7 +72535,7 @@
         <v>5</v>
       </c>
       <c r="AW444" s="2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AX444" s="2">
         <v>8.1</v>
@@ -72547,7 +72547,7 @@
         <v>7.1</v>
       </c>
       <c r="BA444" s="2">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="445" spans="1:53" x14ac:dyDescent="0.2">
@@ -72561,7 +72561,7 @@
         <v>8.1</v>
       </c>
       <c r="D445" s="2">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="E445" s="2">
         <v>8.1</v>
@@ -72570,22 +72570,22 @@
         <v>7.5</v>
       </c>
       <c r="G445" s="2">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="H445" s="2">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I445" s="2">
         <v>8.5</v>
       </c>
       <c r="J445" s="2">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="K445" s="2">
         <v>8.6999999999999993</v>
       </c>
       <c r="L445" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M445" s="2">
         <v>8.8000000000000007</v>
@@ -72600,7 +72600,7 @@
         <v>8.9</v>
       </c>
       <c r="Q445" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R445" s="2">
         <v>5</v>
@@ -72621,7 +72621,7 @@
         <v>6.9</v>
       </c>
       <c r="X445" s="2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y445" s="2">
         <v>9</v>
@@ -72633,7 +72633,7 @@
         <v>9</v>
       </c>
       <c r="AB445" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AC445" s="2">
         <v>5.9</v>
@@ -72651,7 +72651,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="AH445" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI445" s="2">
         <v>8.4</v>
@@ -72660,7 +72660,7 @@
         <v>9.1</v>
       </c>
       <c r="AK445" s="2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AL445" s="2">
         <v>7.2</v>
@@ -72708,7 +72708,7 @@
         <v>7</v>
       </c>
       <c r="BA445" s="2">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="446" spans="1:53" x14ac:dyDescent="0.2">
@@ -72734,7 +72734,7 @@
         <v>9.9</v>
       </c>
       <c r="H446" s="2">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="I446" s="2">
         <v>8.4</v>
@@ -72761,13 +72761,13 @@
         <v>8.9</v>
       </c>
       <c r="Q446" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R446" s="2">
         <v>5</v>
       </c>
       <c r="S446" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T446" s="2">
         <v>8.1</v>
@@ -72779,10 +72779,10 @@
         <v>7.4</v>
       </c>
       <c r="W446" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X446" s="2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y446" s="2">
         <v>9</v>
@@ -72794,34 +72794,34 @@
         <v>9</v>
       </c>
       <c r="AB446" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AC446" s="2">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD446" s="2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AE446" s="2">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="AF446" s="2">
         <v>5.6</v>
       </c>
       <c r="AG446" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AH446" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI446" s="2">
         <v>8.3000000000000007</v>
       </c>
       <c r="AJ446" s="2">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="AK446" s="2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AL446" s="2">
         <v>7.2</v>
@@ -72848,7 +72848,7 @@
         <v>7.7</v>
       </c>
       <c r="AT446" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AU446" s="2">
         <v>5.0999999999999996</v>
@@ -72889,13 +72889,13 @@
         <v>7.9</v>
       </c>
       <c r="F447" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="G447" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H447" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="I447" s="2">
         <v>8.3000000000000007</v>
@@ -72910,7 +72910,7 @@
         <v>8</v>
       </c>
       <c r="M447" s="2">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N447" s="2">
         <v>5.4</v>
@@ -72925,16 +72925,16 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="R447" s="2">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="S447" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T447" s="2">
         <v>8.1</v>
       </c>
       <c r="U447" s="2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="V447" s="2">
         <v>7.3</v>
@@ -72955,25 +72955,25 @@
         <v>8.9</v>
       </c>
       <c r="AB447" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AC447" s="2">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD447" s="2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AE447" s="2">
         <v>10.6</v>
       </c>
       <c r="AF447" s="2">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AG447" s="2">
         <v>9.1999999999999993</v>
       </c>
       <c r="AH447" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI447" s="2">
         <v>8.1999999999999993</v>
@@ -72994,10 +72994,10 @@
         <v>8.6</v>
       </c>
       <c r="AO447" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AP447" s="2">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="AQ447" s="2">
         <v>8.6</v>
@@ -73024,13 +73024,13 @@
         <v>7.6</v>
       </c>
       <c r="AY447" s="2">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AZ447" s="2">
         <v>6.9</v>
       </c>
       <c r="BA447" s="2">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="448" spans="1:53" x14ac:dyDescent="0.2">
@@ -73050,13 +73050,13 @@
         <v>7.8</v>
       </c>
       <c r="F448" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G448" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H448" s="2">
         <v>7.4</v>
-      </c>
-      <c r="G448" s="2">
-        <v>9.6</v>
-      </c>
-      <c r="H448" s="2">
-        <v>7.3</v>
       </c>
       <c r="I448" s="2">
         <v>8.1999999999999993</v>
@@ -73110,13 +73110,13 @@
         <v>9</v>
       </c>
       <c r="Z448" s="2">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AA448" s="2">
         <v>8.9</v>
       </c>
       <c r="AB448" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AC448" s="2">
         <v>5.7</v>
@@ -73134,13 +73134,13 @@
         <v>9.1</v>
       </c>
       <c r="AH448" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI448" s="2">
         <v>8.1</v>
       </c>
       <c r="AJ448" s="2">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="AK448" s="2">
         <v>3.1</v>
@@ -73155,10 +73155,10 @@
         <v>8.6</v>
       </c>
       <c r="AO448" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AP448" s="2">
-        <v>9.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AQ448" s="2">
         <v>8.5</v>
@@ -73170,7 +73170,7 @@
         <v>7.7</v>
       </c>
       <c r="AT448" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AU448" s="2">
         <v>5</v>
@@ -73185,7 +73185,7 @@
         <v>7.5</v>
       </c>
       <c r="AY448" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AZ448" s="2">
         <v>6.9</v>
@@ -73208,22 +73208,22 @@
         <v>6.9</v>
       </c>
       <c r="E449" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="F449" s="2">
         <v>7.4</v>
       </c>
       <c r="G449" s="2">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="H449" s="2">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="I449" s="2">
         <v>8.1</v>
       </c>
       <c r="J449" s="2">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="K449" s="2">
         <v>8.6999999999999993</v>
@@ -73232,7 +73232,7 @@
         <v>7.8</v>
       </c>
       <c r="M449" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="N449" s="2">
         <v>5.2</v>
@@ -73286,7 +73286,7 @@
         <v>3.9</v>
       </c>
       <c r="AE449" s="2">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="AF449" s="2">
         <v>5.5</v>
@@ -73295,13 +73295,13 @@
         <v>9</v>
       </c>
       <c r="AH449" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI449" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AJ449" s="2">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="AK449" s="2">
         <v>3.1</v>
@@ -73310,16 +73310,16 @@
         <v>7.4</v>
       </c>
       <c r="AM449" s="2">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AN449" s="2">
         <v>8.5</v>
       </c>
       <c r="AO449" s="2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AP449" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="AQ449" s="2">
         <v>8.4</v>
@@ -73331,7 +73331,7 @@
         <v>7.8</v>
       </c>
       <c r="AT449" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AU449" s="2">
         <v>4.9000000000000004</v>
@@ -73346,7 +73346,7 @@
         <v>7.4</v>
       </c>
       <c r="AY449" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AZ449" s="2">
         <v>6.9</v>
@@ -73369,7 +73369,7 @@
         <v>6.9</v>
       </c>
       <c r="E450" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="F450" s="2">
         <v>7.4</v>
@@ -73378,7 +73378,7 @@
         <v>9.4</v>
       </c>
       <c r="H450" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="I450" s="2">
         <v>8.1</v>
@@ -73399,10 +73399,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="O450" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="P450" s="2">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Q450" s="2">
         <v>8.4</v>
@@ -73417,7 +73417,7 @@
         <v>8.1</v>
       </c>
       <c r="U450" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="V450" s="2">
         <v>7.1</v>
@@ -73438,7 +73438,7 @@
         <v>8.9</v>
       </c>
       <c r="AB450" s="2">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AC450" s="2">
         <v>5.5</v>
@@ -73453,22 +73453,22 @@
         <v>5.4</v>
       </c>
       <c r="AG450" s="2">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="AH450" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI450" s="2">
         <v>8</v>
       </c>
       <c r="AJ450" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AK450" s="2">
         <v>3.1</v>
       </c>
       <c r="AL450" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AM450" s="2">
         <v>5.3</v>
@@ -73477,13 +73477,13 @@
         <v>8.4</v>
       </c>
       <c r="AO450" s="2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AP450" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="AQ450" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="AR450" s="2">
         <v>3.9</v>
@@ -73492,10 +73492,10 @@
         <v>7.9</v>
       </c>
       <c r="AT450" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AU450" s="2">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AV450" s="2">
         <v>4.5999999999999996</v>
@@ -73527,19 +73527,19 @@
         <v>7.4</v>
       </c>
       <c r="D451" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E451" s="2">
         <v>7.7</v>
       </c>
       <c r="F451" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="G451" s="2">
         <v>9.3000000000000007</v>
       </c>
       <c r="H451" s="2">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="I451" s="2">
         <v>8</v>
@@ -73551,16 +73551,16 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="L451" s="2">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M451" s="2">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="N451" s="2">
         <v>5</v>
       </c>
       <c r="O451" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="P451" s="2">
         <v>9.1999999999999993</v>
@@ -73572,13 +73572,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="S451" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T451" s="2">
         <v>8.1</v>
       </c>
       <c r="U451" s="2">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="V451" s="2">
         <v>7</v>
@@ -73587,7 +73587,7 @@
         <v>6.8</v>
       </c>
       <c r="X451" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y451" s="2">
         <v>8.9</v>
@@ -73599,7 +73599,7 @@
         <v>8.9</v>
       </c>
       <c r="AB451" s="2">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AC451" s="2">
         <v>5.5</v>
@@ -73617,13 +73617,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="AH451" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI451" s="2">
         <v>7.9</v>
       </c>
       <c r="AJ451" s="2">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AK451" s="2">
         <v>3.1</v>
@@ -73635,34 +73635,34 @@
         <v>5.3</v>
       </c>
       <c r="AN451" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AO451" s="2">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AP451" s="2">
-        <v>9.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AQ451" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AR451" s="2">
         <v>3.9</v>
       </c>
       <c r="AS451" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AT451" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AU451" s="2">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AV451" s="2">
         <v>4.5</v>
       </c>
       <c r="AW451" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AX451" s="2">
         <v>7.2</v>
@@ -73674,7 +73674,7 @@
         <v>6.9</v>
       </c>
       <c r="BA451" s="2">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:53" x14ac:dyDescent="0.2">
@@ -73688,19 +73688,19 @@
         <v>7.2</v>
       </c>
       <c r="D452" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E452" s="2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="F452" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="G452" s="2">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H452" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="I452" s="2">
         <v>7.9</v>
@@ -73712,7 +73712,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="L452" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M452" s="2">
         <v>8.4</v>
@@ -73721,16 +73721,16 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="O452" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="P452" s="2">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Q452" s="2">
         <v>8.1999999999999993</v>
       </c>
       <c r="R452" s="2">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="S452" s="2">
         <v>5.4</v>
@@ -73739,7 +73739,7 @@
         <v>8.1</v>
       </c>
       <c r="U452" s="2">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="V452" s="2">
         <v>6.9</v>
@@ -73748,7 +73748,7 @@
         <v>6.7</v>
       </c>
       <c r="X452" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y452" s="2">
         <v>8.8000000000000007</v>
@@ -73763,28 +73763,28 @@
         <v>6.6</v>
       </c>
       <c r="AC452" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AD452" s="2">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AE452" s="2">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="AF452" s="2">
         <v>5.3</v>
       </c>
       <c r="AG452" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="AH452" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI452" s="2">
         <v>7.8</v>
       </c>
       <c r="AJ452" s="2">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="AK452" s="2">
         <v>3</v>
@@ -73796,13 +73796,13 @@
         <v>5.3</v>
       </c>
       <c r="AN452" s="2">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AO452" s="2">
         <v>7.4</v>
       </c>
       <c r="AP452" s="2">
-        <v>9.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AQ452" s="2">
         <v>8.1</v>
@@ -73811,10 +73811,10 @@
         <v>3.8</v>
       </c>
       <c r="AS452" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AT452" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AU452" s="2">
         <v>4.7</v>
@@ -73823,16 +73823,16 @@
         <v>4.5</v>
       </c>
       <c r="AW452" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AX452" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AY452" s="2">
         <v>6.8</v>
       </c>
       <c r="AZ452" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="BA452" s="2">
         <v>4.9000000000000004</v>
@@ -73849,28 +73849,28 @@
         <v>7.1</v>
       </c>
       <c r="D453" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="E453" s="2">
         <v>7.6</v>
       </c>
       <c r="F453" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="G453" s="2">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="H453" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I453" s="2">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="J453" s="2">
         <v>7</v>
       </c>
       <c r="K453" s="2">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L453" s="2">
         <v>7.3</v>
@@ -73879,10 +73879,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="N453" s="2">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O453" s="2">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="P453" s="2">
         <v>9.1</v>
@@ -73891,7 +73891,7 @@
         <v>8</v>
       </c>
       <c r="R453" s="2">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="S453" s="2">
         <v>5.4</v>
@@ -73900,7 +73900,7 @@
         <v>8.1</v>
       </c>
       <c r="U453" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="V453" s="2">
         <v>6.8</v>
@@ -73909,13 +73909,13 @@
         <v>6.7</v>
       </c>
       <c r="X453" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y453" s="2">
         <v>8.6999999999999993</v>
       </c>
       <c r="Z453" s="2">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="AA453" s="2">
         <v>8.6999999999999993</v>
@@ -73930,7 +73930,7 @@
         <v>3.8</v>
       </c>
       <c r="AE453" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="AF453" s="2">
         <v>5.2</v>
@@ -73939,31 +73939,31 @@
         <v>8.4</v>
       </c>
       <c r="AH453" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI453" s="2">
         <v>7.7</v>
       </c>
       <c r="AJ453" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AK453" s="2">
         <v>3</v>
       </c>
       <c r="AL453" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AM453" s="2">
         <v>5.3</v>
       </c>
       <c r="AN453" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AO453" s="2">
         <v>7.3</v>
       </c>
       <c r="AP453" s="2">
-        <v>9.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AQ453" s="2">
         <v>8</v>
@@ -73972,16 +73972,16 @@
         <v>3.8</v>
       </c>
       <c r="AS453" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AT453" s="2">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AU453" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="AV453" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="AW453" s="2">
         <v>5.6</v>
@@ -73990,7 +73990,7 @@
         <v>7.1</v>
       </c>
       <c r="AY453" s="2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AZ453" s="2">
         <v>6.8</v>
@@ -74013,16 +74013,16 @@
         <v>6.9</v>
       </c>
       <c r="E454" s="2">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="F454" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="G454" s="2">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="H454" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="I454" s="2">
         <v>7.8</v>
@@ -74043,10 +74043,10 @@
         <v>4.8</v>
       </c>
       <c r="O454" s="2">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="P454" s="2">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="Q454" s="2">
         <v>7.8</v>
@@ -74055,13 +74055,13 @@
         <v>4.8</v>
       </c>
       <c r="S454" s="2">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T454" s="2">
         <v>8.1</v>
       </c>
       <c r="U454" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="V454" s="2">
         <v>6.7</v>
@@ -74097,10 +74097,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AG454" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AH454" s="2">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI454" s="2">
         <v>7.6</v>
@@ -74109,7 +74109,7 @@
         <v>8.1</v>
       </c>
       <c r="AK454" s="2">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AL454" s="2">
         <v>7.4</v>
@@ -74118,13 +74118,13 @@
         <v>5.3</v>
       </c>
       <c r="AN454" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AO454" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AP454" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AQ454" s="2">
         <v>7.8</v>
@@ -74139,7 +74139,7 @@
         <v>6.2</v>
       </c>
       <c r="AU454" s="2">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AV454" s="2">
         <v>4.4000000000000004</v>
@@ -74151,7 +74151,7 @@
         <v>7</v>
       </c>
       <c r="AY454" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AZ454" s="2">
         <v>6.7</v>
@@ -74168,22 +74168,22 @@
         <v>7.5</v>
       </c>
       <c r="C455" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D455" s="2">
         <v>6.9</v>
       </c>
       <c r="E455" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="F455" s="2">
         <v>7.3</v>
       </c>
       <c r="G455" s="2">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="H455" s="2">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I455" s="2">
         <v>7.7</v>
@@ -74204,10 +74204,10 @@
         <v>4.8</v>
       </c>
       <c r="O455" s="2">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="P455" s="2">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="Q455" s="2">
         <v>7.6</v>
@@ -74222,7 +74222,7 @@
         <v>8.1</v>
       </c>
       <c r="U455" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="V455" s="2">
         <v>6.6</v>
@@ -74231,7 +74231,7 @@
         <v>6.6</v>
       </c>
       <c r="X455" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y455" s="2">
         <v>8.6</v>
@@ -74252,13 +74252,13 @@
         <v>3.8</v>
       </c>
       <c r="AE455" s="2">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="AF455" s="2">
         <v>5</v>
       </c>
       <c r="AG455" s="2">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AH455" s="2">
         <v>6.7</v>
@@ -74279,7 +74279,7 @@
         <v>5.3</v>
       </c>
       <c r="AN455" s="2">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AO455" s="2">
         <v>7.1</v>
@@ -74288,7 +74288,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="AQ455" s="2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AR455" s="2">
         <v>3.8</v>
@@ -74315,10 +74315,10 @@
         <v>6.5</v>
       </c>
       <c r="AZ455" s="2">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="BA455" s="2">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="456" spans="1:53" x14ac:dyDescent="0.2">
@@ -74335,7 +74335,7 @@
         <v>6.9</v>
       </c>
       <c r="E456" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="F456" s="2">
         <v>7.3</v>
@@ -74344,10 +74344,10 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H456" s="2">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I456" s="2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="J456" s="2">
         <v>6.6</v>
@@ -74362,28 +74362,28 @@
         <v>8</v>
       </c>
       <c r="N456" s="2">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O456" s="2">
         <v>6.1</v>
       </c>
       <c r="P456" s="2">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="Q456" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="R456" s="2">
         <v>4.7</v>
       </c>
       <c r="S456" s="2">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T456" s="2">
         <v>8.1</v>
       </c>
       <c r="U456" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="V456" s="2">
         <v>6.6</v>
@@ -74395,16 +74395,16 @@
         <v>6.7</v>
       </c>
       <c r="Y456" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z456" s="2">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AA456" s="2">
         <v>8.4</v>
       </c>
       <c r="AB456" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC456" s="2">
         <v>5.4</v>
@@ -74419,19 +74419,19 @@
         <v>5</v>
       </c>
       <c r="AG456" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AH456" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI456" s="2">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AJ456" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AK456" s="2">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AL456" s="2">
         <v>7.4</v>
@@ -74443,22 +74443,22 @@
         <v>7.8</v>
       </c>
       <c r="AO456" s="2">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AP456" s="2">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AQ456" s="2">
         <v>7.5</v>
       </c>
       <c r="AR456" s="2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AS456" s="2">
         <v>7.8</v>
       </c>
       <c r="AT456" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AU456" s="2">
         <v>4.4000000000000004</v>
@@ -74479,7 +74479,7 @@
         <v>6.6</v>
       </c>
       <c r="BA456" s="2">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="457" spans="1:53" x14ac:dyDescent="0.2">
@@ -74496,7 +74496,7 @@
         <v>6.9</v>
       </c>
       <c r="E457" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="F457" s="2">
         <v>7.2</v>
@@ -74505,10 +74505,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="H457" s="2">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I457" s="2">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="J457" s="2">
         <v>6.5</v>
@@ -74517,7 +74517,7 @@
         <v>8.5</v>
       </c>
       <c r="L457" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M457" s="2">
         <v>7.9</v>
@@ -74529,19 +74529,19 @@
         <v>6</v>
       </c>
       <c r="P457" s="2">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="Q457" s="2">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="R457" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="S457" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="T457" s="2">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="U457" s="2">
         <v>6.4</v>
@@ -74565,7 +74565,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AB457" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC457" s="2">
         <v>5.3</v>
@@ -74574,7 +74574,7 @@
         <v>3.7</v>
       </c>
       <c r="AE457" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AF457" s="2">
         <v>5</v>
@@ -74583,19 +74583,19 @@
         <v>7.9</v>
       </c>
       <c r="AH457" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI457" s="2">
         <v>7.5</v>
       </c>
       <c r="AJ457" s="2">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AK457" s="2">
         <v>2.8</v>
       </c>
       <c r="AL457" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AM457" s="2">
         <v>5.2</v>
@@ -74604,10 +74604,10 @@
         <v>7.7</v>
       </c>
       <c r="AO457" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AP457" s="2">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AQ457" s="2">
         <v>7.3</v>
@@ -74619,7 +74619,7 @@
         <v>7.7</v>
       </c>
       <c r="AT457" s="2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AU457" s="2">
         <v>4.4000000000000004</v>
@@ -74628,7 +74628,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AW457" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AX457" s="2">
         <v>6.9</v>
@@ -74651,7 +74651,7 @@
         <v>7.3</v>
       </c>
       <c r="C458" s="2">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D458" s="2">
         <v>6.9</v>
@@ -74663,13 +74663,13 @@
         <v>7.1</v>
       </c>
       <c r="G458" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="H458" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="I458" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J458" s="2">
         <v>6.4</v>
@@ -74678,10 +74678,10 @@
         <v>8.4</v>
       </c>
       <c r="L458" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M458" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="N458" s="2">
         <v>4.8</v>
@@ -74690,7 +74690,7 @@
         <v>5.9</v>
       </c>
       <c r="P458" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Q458" s="2">
         <v>7</v>
@@ -74699,10 +74699,10 @@
         <v>4.5</v>
       </c>
       <c r="S458" s="2">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="T458" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U458" s="2">
         <v>6.2</v>
@@ -74720,13 +74720,13 @@
         <v>8.4</v>
       </c>
       <c r="Z458" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="AA458" s="2">
         <v>8.1999999999999993</v>
       </c>
       <c r="AB458" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AC458" s="2">
         <v>5.3</v>
@@ -74744,31 +74744,31 @@
         <v>7.7</v>
       </c>
       <c r="AH458" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI458" s="2">
         <v>7.4</v>
       </c>
       <c r="AJ458" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AK458" s="2">
         <v>2.8</v>
       </c>
       <c r="AL458" s="2">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AM458" s="2">
         <v>5.2</v>
       </c>
       <c r="AN458" s="2">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AO458" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AP458" s="2">
-        <v>9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AQ458" s="2">
         <v>7.1</v>
@@ -74786,7 +74786,7 @@
         <v>4.3</v>
       </c>
       <c r="AV458" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AW458" s="2">
         <v>5.5</v>
@@ -74795,13 +74795,13 @@
         <v>6.8</v>
       </c>
       <c r="AY458" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AZ458" s="2">
         <v>6.5</v>
       </c>
       <c r="BA458" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="459" spans="1:53" x14ac:dyDescent="0.2">
@@ -74818,7 +74818,7 @@
         <v>6.9</v>
       </c>
       <c r="E459" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="F459" s="2">
         <v>7</v>
@@ -74827,7 +74827,7 @@
         <v>8.4</v>
       </c>
       <c r="H459" s="2">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I459" s="2">
         <v>7.4</v>
@@ -74839,7 +74839,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="L459" s="2">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M459" s="2">
         <v>7.6</v>
@@ -74851,7 +74851,7 @@
         <v>5.7</v>
       </c>
       <c r="P459" s="2">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Q459" s="2">
         <v>6.8</v>
@@ -74860,10 +74860,10 @@
         <v>4.5</v>
       </c>
       <c r="S459" s="2">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="T459" s="2">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U459" s="2">
         <v>6</v>
@@ -74887,10 +74887,10 @@
         <v>8.1</v>
       </c>
       <c r="AB459" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AC459" s="2">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD459" s="2">
         <v>3.6</v>
@@ -74902,37 +74902,37 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AG459" s="2">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AH459" s="2">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AI459" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="AJ459" s="2">
         <v>7.2</v>
       </c>
-      <c r="AJ459" s="2">
-        <v>7.1</v>
-      </c>
       <c r="AK459" s="2">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AL459" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AM459" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="AN459" s="2">
         <v>7.4</v>
       </c>
       <c r="AO459" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AP459" s="2">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="AQ459" s="2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AR459" s="2">
         <v>3.7</v>
@@ -74941,7 +74941,7 @@
         <v>7.3</v>
       </c>
       <c r="AT459" s="2">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AU459" s="2">
         <v>4.2</v>
@@ -74950,13 +74950,13 @@
         <v>4.3</v>
       </c>
       <c r="AW459" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX459" s="2">
         <v>6.7</v>
       </c>
       <c r="AY459" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AZ459" s="2">
         <v>6.4</v>
@@ -74973,7 +74973,7 @@
         <v>6.9</v>
       </c>
       <c r="C460" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="D460" s="2">
         <v>6.9</v>
@@ -74988,7 +74988,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="H460" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="I460" s="2">
         <v>7.3</v>
@@ -75012,19 +75012,19 @@
         <v>5.5</v>
       </c>
       <c r="P460" s="2">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="Q460" s="2">
         <v>6.5</v>
       </c>
       <c r="R460" s="2">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S460" s="2">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="T460" s="2">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U460" s="2">
         <v>5.8</v>
@@ -75048,7 +75048,7 @@
         <v>8</v>
       </c>
       <c r="AB460" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AC460" s="2">
         <v>5.2</v>
@@ -75057,40 +75057,40 @@
         <v>3.5</v>
       </c>
       <c r="AE460" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AF460" s="2">
         <v>4.8</v>
       </c>
       <c r="AG460" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AH460" s="2">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AI460" s="2">
         <v>7.1</v>
       </c>
       <c r="AJ460" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AK460" s="2">
         <v>2.7</v>
       </c>
       <c r="AL460" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AM460" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="AN460" s="2">
         <v>7.3</v>
       </c>
       <c r="AO460" s="2">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AP460" s="2">
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="AQ460" s="2">
         <v>6.6</v>
@@ -75102,7 +75102,7 @@
         <v>7.1</v>
       </c>
       <c r="AT460" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AU460" s="2">
         <v>4.0999999999999996</v>
@@ -75114,16 +75114,16 @@
         <v>5.4</v>
       </c>
       <c r="AX460" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="AY460" s="2">
         <v>6.7</v>
-      </c>
-      <c r="AY460" s="2">
-        <v>6.6</v>
       </c>
       <c r="AZ460" s="2">
         <v>6.3</v>
       </c>
       <c r="BA460" s="2">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="461" spans="1:53" x14ac:dyDescent="0.2">
@@ -75143,13 +75143,13 @@
         <v>7.2</v>
       </c>
       <c r="F461" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G461" s="2">
         <v>8.1999999999999993</v>
       </c>
       <c r="H461" s="2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I461" s="2">
         <v>7.2</v>
@@ -75161,19 +75161,19 @@
         <v>8</v>
       </c>
       <c r="L461" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M461" s="2">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="N461" s="2">
         <v>4.8</v>
       </c>
       <c r="O461" s="2">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="P461" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="Q461" s="2">
         <v>6.3</v>
@@ -75182,10 +75182,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="S461" s="2">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T461" s="2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U461" s="2">
         <v>5.6</v>
@@ -75209,7 +75209,7 @@
         <v>8</v>
       </c>
       <c r="AB461" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AC461" s="2">
         <v>5.0999999999999996</v>
@@ -75218,7 +75218,7 @@
         <v>3.5</v>
       </c>
       <c r="AE461" s="2">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AF461" s="2">
         <v>4.7</v>
@@ -75227,22 +75227,22 @@
         <v>7.2</v>
       </c>
       <c r="AH461" s="2">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AI461" s="2">
         <v>7</v>
       </c>
       <c r="AJ461" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AK461" s="2">
         <v>2.7</v>
       </c>
       <c r="AL461" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AM461" s="2">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AN461" s="2">
         <v>7.3</v>
@@ -75251,7 +75251,7 @@
         <v>6.5</v>
       </c>
       <c r="AP461" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="AQ461" s="2">
         <v>6.4</v>
@@ -75263,19 +75263,19 @@
         <v>6.9</v>
       </c>
       <c r="AT461" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AU461" s="2">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AV461" s="2">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AW461" s="2">
         <v>5.4</v>
       </c>
       <c r="AX461" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AY461" s="2">
         <v>6.7</v>
@@ -75304,7 +75304,7 @@
         <v>7.1</v>
       </c>
       <c r="F462" s="2">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="G462" s="2">
         <v>8.1</v>
@@ -75322,16 +75322,16 @@
         <v>7.9</v>
       </c>
       <c r="L462" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M462" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="N462" s="2">
         <v>4.7</v>
       </c>
       <c r="O462" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="P462" s="2">
         <v>8.1999999999999993</v>
@@ -75340,7 +75340,7 @@
         <v>6.2</v>
       </c>
       <c r="R462" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="S462" s="2">
         <v>4.7</v>
@@ -75370,7 +75370,7 @@
         <v>7.9</v>
       </c>
       <c r="AB462" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC462" s="2">
         <v>5</v>
@@ -75382,19 +75382,19 @@
         <v>8.5</v>
       </c>
       <c r="AF462" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="AG462" s="2">
         <v>7.1</v>
       </c>
       <c r="AH462" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="AI462" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="AJ462" s="2">
         <v>6.7</v>
-      </c>
-      <c r="AI462" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="AJ462" s="2">
-        <v>6.6</v>
       </c>
       <c r="AK462" s="2">
         <v>2.7</v>
@@ -75409,13 +75409,13 @@
         <v>7.2</v>
       </c>
       <c r="AO462" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AP462" s="2">
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AQ462" s="2">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AR462" s="2">
         <v>3.5</v>
@@ -75424,19 +75424,19 @@
         <v>6.7</v>
       </c>
       <c r="AT462" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AU462" s="2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AV462" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="AW462" s="2">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AX462" s="2">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AY462" s="2">
         <v>6.8</v>
@@ -75462,7 +75462,7 @@
         <v>6.9</v>
       </c>
       <c r="E463" s="2">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="F463" s="2">
         <v>6.5</v>
@@ -75471,7 +75471,7 @@
         <v>8</v>
       </c>
       <c r="H463" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I463" s="2">
         <v>7</v>
@@ -75483,34 +75483,34 @@
         <v>7.8</v>
       </c>
       <c r="L463" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M463" s="2">
         <v>7.3</v>
       </c>
       <c r="N463" s="2">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O463" s="2">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P463" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Q463" s="2">
         <v>6.1</v>
       </c>
       <c r="R463" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="S463" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="T463" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U463" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="V463" s="2">
         <v>5.9</v>
@@ -75525,7 +75525,7 @@
         <v>7.8</v>
       </c>
       <c r="Z463" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="AA463" s="2">
         <v>7.9</v>
@@ -75549,31 +75549,31 @@
         <v>7</v>
       </c>
       <c r="AH463" s="2">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AI463" s="2">
         <v>6.7</v>
       </c>
       <c r="AJ463" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AK463" s="2">
         <v>2.7</v>
       </c>
       <c r="AL463" s="2">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AM463" s="2">
         <v>4.9000000000000004</v>
       </c>
       <c r="AN463" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AO463" s="2">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AP463" s="2">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AQ463" s="2">
         <v>6.1</v>
@@ -75582,13 +75582,13 @@
         <v>3.5</v>
       </c>
       <c r="AS463" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AT463" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AU463" s="2">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AV463" s="2">
         <v>4</v>
@@ -75597,7 +75597,7 @@
         <v>5.3</v>
       </c>
       <c r="AX463" s="2">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AY463" s="2">
         <v>6.8</v>
@@ -75620,7 +75620,7 @@
         <v>7.2</v>
       </c>
       <c r="D464" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E464" s="2">
         <v>7</v>
@@ -75653,7 +75653,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="O464" s="2">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="P464" s="2">
         <v>7.7</v>
@@ -75662,7 +75662,7 @@
         <v>6</v>
       </c>
       <c r="R464" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="S464" s="2">
         <v>4.5999999999999996</v>
@@ -75671,10 +75671,10 @@
         <v>7.2</v>
       </c>
       <c r="U464" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="V464" s="2">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="W464" s="2">
         <v>5.9</v>
@@ -75683,7 +75683,7 @@
         <v>5.9</v>
       </c>
       <c r="Y464" s="2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Z464" s="2">
         <v>4.4000000000000004</v>
@@ -75701,28 +75701,28 @@
         <v>3.4</v>
       </c>
       <c r="AE464" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AF464" s="2">
         <v>4.5</v>
       </c>
       <c r="AG464" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AH464" s="2">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI464" s="2">
         <v>6.6</v>
       </c>
       <c r="AJ464" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AK464" s="2">
         <v>2.7</v>
       </c>
       <c r="AL464" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AM464" s="2">
         <v>4.8</v>
@@ -75731,10 +75731,10 @@
         <v>7.1</v>
       </c>
       <c r="AO464" s="2">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AP464" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="AQ464" s="2">
         <v>6.1</v>
@@ -75743,10 +75743,10 @@
         <v>3.5</v>
       </c>
       <c r="AS464" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AT464" s="2">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AU464" s="2">
         <v>3.8</v>
@@ -75758,13 +75758,13 @@
         <v>5.3</v>
       </c>
       <c r="AX464" s="2">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AY464" s="2">
         <v>6.8</v>
       </c>
       <c r="AZ464" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BA464" s="2">
         <v>4.2</v>
@@ -75781,19 +75781,19 @@
         <v>7.1</v>
       </c>
       <c r="D465" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E465" s="2">
         <v>6.9</v>
       </c>
       <c r="F465" s="2">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="G465" s="2">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="H465" s="2">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I465" s="2">
         <v>6.8</v>
@@ -75814,7 +75814,7 @@
         <v>4.5</v>
       </c>
       <c r="O465" s="2">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="P465" s="2">
         <v>7.4</v>
@@ -75823,10 +75823,10 @@
         <v>6</v>
       </c>
       <c r="R465" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="S465" s="2">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="T465" s="2">
         <v>7</v>
@@ -75847,7 +75847,7 @@
         <v>7.5</v>
       </c>
       <c r="Z465" s="2">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AA465" s="2">
         <v>7.8</v>
@@ -75856,22 +75856,22 @@
         <v>6.3</v>
       </c>
       <c r="AC465" s="2">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AD465" s="2">
         <v>3.4</v>
       </c>
       <c r="AE465" s="2">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AF465" s="2">
         <v>4.5</v>
       </c>
       <c r="AG465" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AH465" s="2">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AI465" s="2">
         <v>6.5</v>
@@ -75892,22 +75892,22 @@
         <v>7</v>
       </c>
       <c r="AO465" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AP465" s="2">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AQ465" s="2">
         <v>6.1</v>
       </c>
       <c r="AR465" s="2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AS465" s="2">
         <v>6.5</v>
       </c>
       <c r="AT465" s="2">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AU465" s="2">
         <v>3.8</v>
@@ -75922,13 +75922,13 @@
         <v>6.2</v>
       </c>
       <c r="AY465" s="2">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AZ465" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BA465" s="2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="466" spans="1:53" x14ac:dyDescent="0.2">
@@ -75942,19 +75942,19 @@
         <v>6.9</v>
       </c>
       <c r="D466" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E466" s="2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F466" s="2">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="G466" s="2">
         <v>7.6</v>
       </c>
       <c r="H466" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I466" s="2">
         <v>6.6</v>
@@ -75969,7 +75969,7 @@
         <v>6.3</v>
       </c>
       <c r="M466" s="2">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="N466" s="2">
         <v>4.5</v>
@@ -75978,22 +75978,22 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="P466" s="2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Q466" s="2">
         <v>6</v>
       </c>
       <c r="R466" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="S466" s="2">
         <v>4.5</v>
       </c>
       <c r="T466" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U466" s="2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="V466" s="2">
         <v>5.7</v>
@@ -76014,37 +76014,37 @@
         <v>7.7</v>
       </c>
       <c r="AB466" s="2">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AC466" s="2">
         <v>4.7</v>
       </c>
       <c r="AD466" s="2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AE466" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF466" s="2">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG466" s="2">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AH466" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI466" s="2">
         <v>6.4</v>
       </c>
       <c r="AJ466" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AK466" s="2">
         <v>2.7</v>
       </c>
       <c r="AL466" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AM466" s="2">
         <v>4.5999999999999996</v>
@@ -76053,10 +76053,10 @@
         <v>7</v>
       </c>
       <c r="AO466" s="2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AP466" s="2">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AQ466" s="2">
         <v>6.2</v>
@@ -76068,19 +76068,19 @@
         <v>6.5</v>
       </c>
       <c r="AT466" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="AU466" s="2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AV466" s="2">
         <v>4</v>
       </c>
       <c r="AW466" s="2">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX466" s="2">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AY466" s="2">
         <v>6.7</v>
@@ -76089,7 +76089,7 @@
         <v>5.5</v>
       </c>
       <c r="BA466" s="2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="467" spans="1:53" x14ac:dyDescent="0.2">
@@ -76106,31 +76106,31 @@
         <v>7</v>
       </c>
       <c r="E467" s="2">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F467" s="2">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="G467" s="2">
         <v>7.5</v>
       </c>
       <c r="H467" s="2">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I467" s="2">
         <v>6.5</v>
       </c>
       <c r="J467" s="2">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K467" s="2">
         <v>7.8</v>
       </c>
       <c r="L467" s="2">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M467" s="2">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="N467" s="2">
         <v>4.4000000000000004</v>
@@ -76145,7 +76145,7 @@
         <v>5.9</v>
       </c>
       <c r="R467" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="S467" s="2">
         <v>4.5</v>
@@ -76169,7 +76169,7 @@
         <v>7.1</v>
       </c>
       <c r="Z467" s="2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AA467" s="2">
         <v>7.6</v>
@@ -76178,43 +76178,43 @@
         <v>6</v>
       </c>
       <c r="AC467" s="2">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AD467" s="2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AE467" s="2">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF467" s="2">
         <v>4.3</v>
       </c>
       <c r="AG467" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AH467" s="2">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI467" s="2">
         <v>6.3</v>
       </c>
       <c r="AJ467" s="2">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AK467" s="2">
         <v>2.7</v>
       </c>
       <c r="AL467" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AM467" s="2">
         <v>4.5</v>
       </c>
       <c r="AN467" s="2">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AO467" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AP467" s="2">
         <v>7.7</v>
@@ -76226,16 +76226,16 @@
         <v>3.4</v>
       </c>
       <c r="AS467" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AT467" s="2">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AU467" s="2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AV467" s="2">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="AW467" s="2">
         <v>5.2</v>
@@ -76250,7 +76250,7 @@
         <v>5.4</v>
       </c>
       <c r="BA467" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="468" spans="1:53" x14ac:dyDescent="0.2">
@@ -76261,16 +76261,16 @@
         <v>6.2</v>
       </c>
       <c r="C468" s="2">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D468" s="2">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E468" s="2">
         <v>6.7</v>
       </c>
       <c r="F468" s="2">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G468" s="2">
         <v>7.4</v>
@@ -76288,16 +76288,16 @@
         <v>7.8</v>
       </c>
       <c r="L468" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M468" s="2">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="N468" s="2">
         <v>4.3</v>
       </c>
       <c r="O468" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="P468" s="2">
         <v>6.7</v>
@@ -76306,7 +76306,7 @@
         <v>5.8</v>
       </c>
       <c r="R468" s="2">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S468" s="2">
         <v>4.4000000000000004</v>
@@ -76315,10 +76315,10 @@
         <v>6.2</v>
       </c>
       <c r="U468" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="V468" s="2">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="W468" s="2">
         <v>5.8</v>
@@ -76330,64 +76330,64 @@
         <v>7</v>
       </c>
       <c r="Z468" s="2">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AA468" s="2">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB468" s="2">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AC468" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="AD468" s="2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AE468" s="2">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AF468" s="2">
         <v>4.3</v>
       </c>
       <c r="AG468" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AH468" s="2">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AI468" s="2">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AJ468" s="2">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AK468" s="2">
         <v>2.7</v>
       </c>
       <c r="AL468" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AM468" s="2">
         <v>4.4000000000000004</v>
       </c>
       <c r="AN468" s="2">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO468" s="2">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AP468" s="2">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AQ468" s="2">
         <v>6.4</v>
       </c>
       <c r="AR468" s="2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AS468" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AT468" s="2">
         <v>5</v>
@@ -76396,22 +76396,22 @@
         <v>3.7</v>
       </c>
       <c r="AV468" s="2">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="AW468" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="AX468" s="2">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AY468" s="2">
         <v>6.5</v>
       </c>
       <c r="AZ468" s="2">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="BA468" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="469" spans="1:53" x14ac:dyDescent="0.2">
@@ -76422,19 +76422,19 @@
         <v>6.2</v>
       </c>
       <c r="C469" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="D469" s="2">
         <v>6.9</v>
       </c>
       <c r="E469" s="2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F469" s="2">
         <v>5.9</v>
       </c>
       <c r="G469" s="2">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="H469" s="2">
         <v>4.5999999999999996</v>
@@ -76449,10 +76449,10 @@
         <v>7.8</v>
       </c>
       <c r="L469" s="2">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="M469" s="2">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="N469" s="2">
         <v>4.3</v>
@@ -76461,16 +76461,16 @@
         <v>4.8</v>
       </c>
       <c r="P469" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Q469" s="2">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="R469" s="2">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S469" s="2">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T469" s="2">
         <v>6</v>
@@ -76479,7 +76479,7 @@
         <v>6.7</v>
       </c>
       <c r="V469" s="2">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="W469" s="2">
         <v>5.7</v>
@@ -76491,55 +76491,55 @@
         <v>6.8</v>
       </c>
       <c r="Z469" s="2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AA469" s="2">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB469" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AC469" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="AD469" s="2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AE469" s="2">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AF469" s="2">
         <v>4.2</v>
       </c>
       <c r="AG469" s="2">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AH469" s="2">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AI469" s="2">
         <v>6</v>
       </c>
       <c r="AJ469" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AK469" s="2">
         <v>2.7</v>
       </c>
       <c r="AL469" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AM469" s="2">
         <v>4.3</v>
       </c>
       <c r="AN469" s="2">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AO469" s="2">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AP469" s="2">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AQ469" s="2">
         <v>6.5</v>
@@ -76548,7 +76548,7 @@
         <v>3.3</v>
       </c>
       <c r="AS469" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AT469" s="2">
         <v>4.9000000000000004</v>
@@ -76557,22 +76557,22 @@
         <v>3.7</v>
       </c>
       <c r="AV469" s="2">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="AW469" s="2">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AX469" s="2">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AY469" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AZ469" s="2">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="BA469" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="470" spans="1:53" x14ac:dyDescent="0.2">
@@ -76583,7 +76583,7 @@
         <v>6</v>
       </c>
       <c r="C470" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D470" s="2">
         <v>6.8</v>
@@ -76595,7 +76595,7 @@
         <v>5.8</v>
       </c>
       <c r="G470" s="2">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H470" s="2">
         <v>4.5</v>
@@ -76607,13 +76607,13 @@
         <v>5.5</v>
       </c>
       <c r="K470" s="2">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="L470" s="2">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="M470" s="2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="N470" s="2">
         <v>4.2</v>
@@ -76625,10 +76625,10 @@
         <v>6.4</v>
       </c>
       <c r="Q470" s="2">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="R470" s="2">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S470" s="2">
         <v>4.3</v>
@@ -76637,70 +76637,70 @@
         <v>5.8</v>
       </c>
       <c r="U470" s="2">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="V470" s="2">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="W470" s="2">
         <v>5.6</v>
       </c>
       <c r="X470" s="2">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y470" s="2">
         <v>6.7</v>
       </c>
       <c r="Z470" s="2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AA470" s="2">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB470" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AC470" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="AD470" s="2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AE470" s="2">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AF470" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="AG470" s="2">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AH470" s="2">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AI470" s="2">
         <v>6</v>
       </c>
       <c r="AJ470" s="2">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AK470" s="2">
         <v>2.7</v>
       </c>
       <c r="AL470" s="2">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AM470" s="2">
         <v>4.2</v>
       </c>
       <c r="AN470" s="2">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AO470" s="2">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AP470" s="2">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AQ470" s="2">
         <v>6.6</v>
@@ -76709,7 +76709,7 @@
         <v>3.3</v>
       </c>
       <c r="AS470" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AT470" s="2">
         <v>4.8</v>
@@ -76718,22 +76718,22 @@
         <v>3.7</v>
       </c>
       <c r="AV470" s="2">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AW470" s="2">
         <v>5</v>
       </c>
       <c r="AX470" s="2">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AY470" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AZ470" s="2">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="BA470" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="471" spans="1:53" x14ac:dyDescent="0.2">
@@ -76744,19 +76744,19 @@
         <v>5.7</v>
       </c>
       <c r="C471" s="2">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="D471" s="2">
         <v>6.7</v>
       </c>
       <c r="E471" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F471" s="2">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="G471" s="2">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="H471" s="2">
         <v>4.4000000000000004</v>
@@ -76771,10 +76771,10 @@
         <v>7.7</v>
       </c>
       <c r="L471" s="2">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M471" s="2">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="N471" s="2">
         <v>4.0999999999999996</v>
@@ -76786,115 +76786,115 @@
         <v>6.3</v>
       </c>
       <c r="Q471" s="2">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="R471" s="2">
+        <v>4</v>
+      </c>
+      <c r="S471" s="2">
         <v>4.3</v>
-      </c>
-      <c r="S471" s="2">
-        <v>4.2</v>
       </c>
       <c r="T471" s="2">
         <v>5.6</v>
       </c>
       <c r="U471" s="2">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="V471" s="2">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="W471" s="2">
         <v>5.6</v>
       </c>
       <c r="X471" s="2">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y471" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z471" s="2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AA471" s="2">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AB471" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AC471" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AD471" s="2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AE471" s="2">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AF471" s="2">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="AG471" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AH471" s="2">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AI471" s="2">
         <v>5.9</v>
       </c>
       <c r="AJ471" s="2">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AK471" s="2">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AL471" s="2">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AM471" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="AN471" s="2">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AO471" s="2">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AP471" s="2">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AQ471" s="2">
         <v>6.6</v>
       </c>
       <c r="AR471" s="2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AS471" s="2">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AT471" s="2">
         <v>4.7</v>
       </c>
       <c r="AU471" s="2">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AV471" s="2">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AW471" s="2">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="AX471" s="2">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AY471" s="2">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AZ471" s="2">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BA471" s="2">
-        <v>4.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:53" x14ac:dyDescent="0.2">
@@ -76905,109 +76905,109 @@
         <v>5.8</v>
       </c>
       <c r="C472" s="2">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="D472" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E472" s="2">
         <v>6.5</v>
       </c>
-      <c r="E472" s="2">
-        <v>6.6</v>
-      </c>
       <c r="F472" s="2">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="G472" s="2">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H472" s="2">
         <v>4.3</v>
       </c>
       <c r="I472" s="2">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="J472" s="2">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K472" s="2">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="L472" s="2">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="M472" s="2">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="N472" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="O472" s="2">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P472" s="2">
         <v>6.2</v>
       </c>
       <c r="Q472" s="2">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="R472" s="2">
+        <v>4</v>
+      </c>
+      <c r="S472" s="2">
         <v>4.3</v>
-      </c>
-      <c r="S472" s="2">
-        <v>4.2</v>
       </c>
       <c r="T472" s="2">
         <v>5.5</v>
       </c>
       <c r="U472" s="2">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="V472" s="2">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="W472" s="2">
         <v>5.5</v>
       </c>
       <c r="X472" s="2">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y472" s="2">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z472" s="2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AA472" s="2">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AB472" s="2">
         <v>5.5</v>
       </c>
       <c r="AC472" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AD472" s="2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AE472" s="2">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AF472" s="2">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AG472" s="2">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AH472" s="2">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AI472" s="2">
         <v>5.8</v>
       </c>
       <c r="AJ472" s="2">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AK472" s="2">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AL472" s="2">
         <v>5.2</v>
@@ -77016,22 +77016,22 @@
         <v>4</v>
       </c>
       <c r="AN472" s="2">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AO472" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="AP472" s="2">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AQ472" s="2">
         <v>6.6</v>
       </c>
       <c r="AR472" s="2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AS472" s="2">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AT472" s="2">
         <v>4.5999999999999996</v>
@@ -77040,22 +77040,22 @@
         <v>3.6</v>
       </c>
       <c r="AV472" s="2">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AW472" s="2">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AX472" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AY472" s="2">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AZ472" s="2">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="BA472" s="2">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="473" spans="1:53" x14ac:dyDescent="0.2">
@@ -77069,121 +77069,121 @@
         <v>6.1</v>
       </c>
       <c r="D473" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E473" s="2">
         <v>6.4</v>
       </c>
-      <c r="E473" s="2">
-        <v>6.6</v>
-      </c>
       <c r="F473" s="2">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="G473" s="2">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="H473" s="2">
         <v>4.2</v>
       </c>
       <c r="I473" s="2">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="J473" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K473" s="2">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="L473" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M473" s="2">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="N473" s="2">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O473" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="P473" s="2">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Q473" s="2">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="R473" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="S473" s="2">
         <v>4.3</v>
       </c>
-      <c r="S473" s="2">
-        <v>4.2</v>
-      </c>
       <c r="T473" s="2">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U473" s="2">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="V473" s="2">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="W473" s="2">
         <v>5.5</v>
       </c>
       <c r="X473" s="2">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y473" s="2">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Z473" s="2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AA473" s="2">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AB473" s="2">
         <v>5.4</v>
       </c>
       <c r="AC473" s="2">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AD473" s="2">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AE473" s="2">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AF473" s="2">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AG473" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AH473" s="2">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AI473" s="2">
         <v>5.8</v>
       </c>
       <c r="AJ473" s="2">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AK473" s="2">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AL473" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="AM473" s="2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AN473" s="2">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="AO473" s="2">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AP473" s="2">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AQ473" s="2">
         <v>6.6</v>
@@ -77192,31 +77192,31 @@
         <v>3.3</v>
       </c>
       <c r="AS473" s="2">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AT473" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="AU473" s="2">
         <v>3.6</v>
       </c>
       <c r="AV473" s="2">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="AW473" s="2">
         <v>4.8</v>
       </c>
       <c r="AX473" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AY473" s="2">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AZ473" s="2">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="BA473" s="2">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="474" spans="1:53" x14ac:dyDescent="0.2">
@@ -77230,82 +77230,82 @@
         <v>6</v>
       </c>
       <c r="D474" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="E474" s="2">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F474" s="2">
         <v>5.6</v>
       </c>
       <c r="G474" s="2">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H474" s="2">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I474" s="2">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="J474" s="2">
         <v>5</v>
       </c>
       <c r="K474" s="2">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="L474" s="2">
         <v>5.7</v>
       </c>
       <c r="M474" s="2">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="N474" s="2">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="O474" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="P474" s="2">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Q474" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="R474" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="S474" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="T474" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="U474" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="V474" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W474" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="X474" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="Y474" s="2">
         <v>6</v>
-      </c>
-      <c r="R474" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="S474" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="T474" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="U474" s="2">
-        <v>7</v>
-      </c>
-      <c r="V474" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="W474" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="X474" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Y474" s="2">
-        <v>6.3</v>
       </c>
       <c r="Z474" s="2">
         <v>3.7</v>
       </c>
       <c r="AA474" s="2">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AB474" s="2">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AC474" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="AD474" s="2">
         <v>2.9</v>
@@ -77314,70 +77314,70 @@
         <v>7.1</v>
       </c>
       <c r="AF474" s="2">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AG474" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AH474" s="2">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AI474" s="2">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AJ474" s="2">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AK474" s="2">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AL474" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="AM474" s="2">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AN474" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AO474" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="AP474" s="2">
         <v>6.5</v>
       </c>
       <c r="AQ474" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AR474" s="2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AS474" s="2">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="AT474" s="2">
         <v>4.4000000000000004</v>
       </c>
       <c r="AU474" s="2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AV474" s="2">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="AW474" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AX474" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AY474" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="AZ474" s="2">
         <v>4.7</v>
       </c>
-      <c r="AX474" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="AY474" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="AZ474" s="2">
-        <v>5</v>
-      </c>
       <c r="BA474" s="2">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="475" spans="1:53" x14ac:dyDescent="0.2">
@@ -77388,13 +77388,13 @@
         <v>5.5</v>
       </c>
       <c r="C475" s="2">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="D475" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="E475" s="2">
         <v>6.3</v>
-      </c>
-      <c r="E475" s="2">
-        <v>6.5</v>
       </c>
       <c r="F475" s="2">
         <v>5.6</v>
@@ -77403,40 +77403,40 @@
         <v>6.7</v>
       </c>
       <c r="H475" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I475" s="2">
+        <v>6</v>
+      </c>
+      <c r="J475" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K475" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="L475" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="M475" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="N475" s="2">
+        <v>4</v>
+      </c>
+      <c r="O475" s="2">
         <v>4.2</v>
-      </c>
-      <c r="I475" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="J475" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="K475" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="L475" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="M475" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="N475" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O475" s="2">
-        <v>3.9</v>
       </c>
       <c r="P475" s="2">
         <v>6</v>
       </c>
       <c r="Q475" s="2">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="R475" s="2">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="S475" s="2">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T475" s="2">
         <v>5.3</v>
@@ -77445,13 +77445,13 @@
         <v>6.7</v>
       </c>
       <c r="V475" s="2">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="W475" s="2">
         <v>5.4</v>
       </c>
       <c r="X475" s="2">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Y475" s="2">
         <v>5.9</v>
@@ -77460,85 +77460,85 @@
         <v>3.7</v>
       </c>
       <c r="AA475" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="AB475" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AC475" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD475" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AE475" s="2">
         <v>7</v>
       </c>
-      <c r="AB475" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="AC475" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="AD475" s="2">
+      <c r="AF475" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AG475" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="AH475" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AI475" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AJ475" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AK475" s="2">
         <v>2.7</v>
-      </c>
-      <c r="AE475" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="AF475" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="AG475" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="AH475" s="2">
-        <v>6</v>
-      </c>
-      <c r="AI475" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="AJ475" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="AK475" s="2">
-        <v>2.9</v>
       </c>
       <c r="AL475" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="AM475" s="2">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AN475" s="2">
         <v>5.8</v>
       </c>
       <c r="AO475" s="2">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AP475" s="2">
         <v>6.4</v>
       </c>
       <c r="AQ475" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AR475" s="2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AS475" s="2">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AT475" s="2">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AU475" s="2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AV475" s="2">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AW475" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AX475" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AY475" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="AZ475" s="2">
         <v>4.7</v>
       </c>
-      <c r="AX475" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="AY475" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="AZ475" s="2">
-        <v>4.8</v>
-      </c>
       <c r="BA475" s="2">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="476" spans="1:53" x14ac:dyDescent="0.2">
@@ -77549,118 +77549,118 @@
         <v>5.5</v>
       </c>
       <c r="C476" s="2">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="D476" s="2">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E476" s="2">
         <v>6.2</v>
       </c>
       <c r="F476" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G476" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="H476" s="2">
+        <v>4</v>
+      </c>
+      <c r="I476" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="J476" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K476" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="L476" s="2">
         <v>5.6</v>
       </c>
-      <c r="G476" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="H476" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="I476" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="J476" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K476" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="L476" s="2">
-        <v>5.7</v>
-      </c>
       <c r="M476" s="2">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="N476" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="O476" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O476" s="2">
-        <v>3.8</v>
-      </c>
       <c r="P476" s="2">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Q476" s="2">
-        <v>5.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="R476" s="2">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="S476" s="2">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T476" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="U476" s="2">
         <v>6.6</v>
       </c>
       <c r="V476" s="2">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W476" s="2">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="X476" s="2">
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Y476" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="Z476" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AA476" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AB476" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AC476" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD476" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AE476" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="AF476" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AG476" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="AH476" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AI476" s="2">
         <v>5.6</v>
       </c>
-      <c r="Z476" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="AA476" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="AB476" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="AC476" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="AD476" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="AE476" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="AF476" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="AG476" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="AH476" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="AI476" s="2">
-        <v>5.7</v>
-      </c>
       <c r="AJ476" s="2">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AK476" s="2">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AL476" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="AM476" s="2">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AN476" s="2">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AO476" s="2">
         <v>5.3</v>
@@ -77669,37 +77669,37 @@
         <v>6.3</v>
       </c>
       <c r="AQ476" s="2">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AR476" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AS476" s="2">
+        <v>6</v>
+      </c>
+      <c r="AT476" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU476" s="2">
         <v>3.5</v>
       </c>
-      <c r="AS476" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="AT476" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="AU476" s="2">
-        <v>3.4</v>
-      </c>
       <c r="AV476" s="2">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AW476" s="2">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AX476" s="2">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AY476" s="2">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AZ476" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="BA476" s="2">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="477" spans="1:53" x14ac:dyDescent="0.2">
@@ -77710,154 +77710,154 @@
         <v>5.4</v>
       </c>
       <c r="C477" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="D477" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="E477" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="F477" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G477" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H477" s="2">
+        <v>4</v>
+      </c>
+      <c r="I477" s="2">
         <v>5.8</v>
       </c>
-      <c r="D477" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="E477" s="2">
-        <v>6</v>
-      </c>
-      <c r="F477" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="G477" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="H477" s="2">
+      <c r="J477" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K477" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="L477" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="M477" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="N477" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="O477" s="2">
         <v>4.2</v>
       </c>
-      <c r="I477" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="J477" s="2">
+      <c r="P477" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="Q477" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R477" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="S477" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="T477" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="U477" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="V477" s="2">
         <v>4.5</v>
-      </c>
-      <c r="K477" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="L477" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="M477" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="N477" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O477" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="P477" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q477" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="R477" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="S477" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="T477" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="U477" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="V477" s="2">
-        <v>4.7</v>
       </c>
       <c r="W477" s="2">
         <v>5.3</v>
       </c>
       <c r="X477" s="2">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Y477" s="2">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Z477" s="2">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AA477" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB477" s="2">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="AC477" s="2">
         <v>4</v>
       </c>
       <c r="AD477" s="2">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AE477" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="AF477" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AG477" s="2">
+        <v>6</v>
+      </c>
+      <c r="AH477" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="AI477" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AJ477" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AK477" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AL477" s="2">
+        <v>5</v>
+      </c>
+      <c r="AM477" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AN477" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AO477" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AP477" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="AQ477" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="AR477" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AS477" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="AT477" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU477" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AV477" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AW477" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AX477" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AY477" s="2">
         <v>7.1</v>
       </c>
-      <c r="AF477" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="AG477" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="AH477" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="AI477" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="AJ477" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="AK477" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="AL477" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="AM477" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AN477" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="AO477" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="AP477" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="AQ477" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="AR477" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="AS477" s="2">
-        <v>6</v>
-      </c>
-      <c r="AT477" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="AU477" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="AV477" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="AW477" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="AX477" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="AY477" s="2">
-        <v>7</v>
-      </c>
       <c r="AZ477" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BA477" s="2">
         <v>4.0999999999999996</v>
@@ -77874,154 +77874,154 @@
         <v>6.1</v>
       </c>
       <c r="D478" s="2">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="E478" s="2">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="F478" s="2">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="G478" s="2">
         <v>6.4</v>
       </c>
       <c r="H478" s="2">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="I478" s="2">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="J478" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K478" s="2">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="L478" s="2">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="M478" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="N478" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="O478" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="P478" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="Q478" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="R478" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="S478" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="T478" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="U478" s="2">
         <v>6.3</v>
       </c>
-      <c r="N478" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O478" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="P478" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q478" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="R478" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="S478" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="T478" s="2">
+      <c r="V478" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="W478" s="2">
         <v>5.2</v>
       </c>
-      <c r="U478" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="V478" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="W478" s="2">
-        <v>5.3</v>
-      </c>
       <c r="X478" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Y478" s="2">
         <v>5.5</v>
       </c>
       <c r="Z478" s="2">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AA478" s="2">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AB478" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AC478" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD478" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AE478" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="AF478" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AG478" s="2">
         <v>5.8</v>
       </c>
-      <c r="AC478" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="AD478" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="AE478" s="2">
-        <v>7</v>
-      </c>
-      <c r="AF478" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="AG478" s="2">
-        <v>6.5</v>
-      </c>
       <c r="AH478" s="2">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI478" s="2">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AJ478" s="2">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AK478" s="2">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AL478" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM478" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AN478" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AO478" s="2">
         <v>5.2</v>
       </c>
-      <c r="AM478" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="AN478" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="AO478" s="2">
-        <v>5.4</v>
-      </c>
       <c r="AP478" s="2">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AQ478" s="2">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="AR478" s="2">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="AS478" s="2">
         <v>5.8</v>
       </c>
       <c r="AT478" s="2">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AU478" s="2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AV478" s="2">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AW478" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="AX478" s="2">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AY478" s="2">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AZ478" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="BA478" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="479" spans="1:53" x14ac:dyDescent="0.2">
@@ -78035,148 +78035,148 @@
         <v>6.1</v>
       </c>
       <c r="D479" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E479" s="2">
+        <v>6</v>
+      </c>
+      <c r="F479" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="G479" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="H479" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="I479" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="J479" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K479" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="L479" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="M479" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="N479" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="O479" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="P479" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="Q479" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="R479" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="S479" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="T479" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="U479" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="V479" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W479" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X479" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Y479" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="Z479" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AA479" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="AB479" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC479" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD479" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE479" s="2">
         <v>6.8</v>
       </c>
-      <c r="E479" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="F479" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="G479" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="H479" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I479" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="J479" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="K479" s="2">
-        <v>7</v>
-      </c>
-      <c r="L479" s="2">
+      <c r="AF479" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AG479" s="2">
         <v>5.6</v>
       </c>
-      <c r="M479" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="N479" s="2">
-        <v>4</v>
-      </c>
-      <c r="O479" s="2">
-        <v>4</v>
-      </c>
-      <c r="P479" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="Q479" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="R479" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="S479" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="T479" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="U479" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="V479" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="W479" s="2">
+      <c r="AH479" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="AI479" s="2">
         <v>5.2</v>
-      </c>
-      <c r="X479" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="Y479" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="Z479" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="AA479" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="AB479" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="AC479" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="AD479" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="AE479" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="AF479" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="AG479" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="AH479" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="AI479" s="2">
-        <v>5.5</v>
       </c>
       <c r="AJ479" s="2">
         <v>5.8</v>
       </c>
       <c r="AK479" s="2">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AL479" s="2">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="AM479" s="2">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AN479" s="2">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AO479" s="2">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AP479" s="2">
+        <v>6</v>
+      </c>
+      <c r="AQ479" s="2">
         <v>5.9</v>
       </c>
-      <c r="AQ479" s="2">
-        <v>6.6</v>
-      </c>
       <c r="AR479" s="2">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="AS479" s="2">
         <v>5.7</v>
       </c>
       <c r="AT479" s="2">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AU479" s="2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AV479" s="2">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AW479" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AX479" s="2">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AY479" s="2">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AZ479" s="2">
         <v>4.5999999999999996</v>
@@ -78193,157 +78193,157 @@
         <v>5.3</v>
       </c>
       <c r="C480" s="2">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="D480" s="2">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="E480" s="2">
+        <v>6</v>
+      </c>
+      <c r="F480" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="G480" s="2">
         <v>6.1</v>
       </c>
-      <c r="F480" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="G480" s="2">
-        <v>6.2</v>
-      </c>
       <c r="H480" s="2">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I480" s="2">
         <v>5.4</v>
       </c>
       <c r="J480" s="2">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K480" s="2">
         <v>6.8</v>
       </c>
       <c r="L480" s="2">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="M480" s="2">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="N480" s="2">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O480" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="P480" s="2">
         <v>5.8</v>
       </c>
       <c r="Q480" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R480" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="S480" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T480" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="U480" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="V480" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W480" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X480" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="Y480" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="Z480" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AA480" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="AB480" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AC480" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD480" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE480" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="AF480" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AG480" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AH480" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="AI480" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AJ480" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AK480" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AL480" s="2">
         <v>4.7</v>
       </c>
-      <c r="R480" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="S480" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="T480" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="U480" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="V480" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="W480" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="X480" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="Y480" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="Z480" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA480" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="AB480" s="2">
+      <c r="AM480" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AN480" s="2">
         <v>5.8</v>
       </c>
-      <c r="AC480" s="2">
-        <v>4</v>
-      </c>
-      <c r="AD480" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="AE480" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="AF480" s="2">
+      <c r="AO480" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP480" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="AQ480" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AR480" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AS480" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AT480" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU480" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AV480" s="2">
         <v>3.7</v>
       </c>
-      <c r="AG480" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="AH480" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="AI480" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="AJ480" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="AK480" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL480" s="2">
-        <v>5</v>
-      </c>
-      <c r="AM480" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="AN480" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="AO480" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="AP480" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="AQ480" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="AR480" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="AS480" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="AT480" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="AU480" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="AV480" s="2">
-        <v>3.6</v>
-      </c>
       <c r="AW480" s="2">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="AX480" s="2">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AY480" s="2">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AZ480" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="BA480" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="481" spans="1:53" x14ac:dyDescent="0.2">
@@ -78354,157 +78354,157 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C481" s="2">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="D481" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E481" s="2">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="F481" s="2">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G481" s="2">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="H481" s="2">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="I481" s="2">
         <v>5.3</v>
       </c>
       <c r="J481" s="2">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K481" s="2">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="L481" s="2">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="M481" s="2">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="N481" s="2">
         <v>3.5</v>
       </c>
       <c r="O481" s="2">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P481" s="2">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Q481" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="R481" s="2">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="S481" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="T481" s="2">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="U481" s="2">
         <v>6</v>
       </c>
       <c r="V481" s="2">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="W481" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="X481" s="2">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y481" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="Z481" s="2">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AA481" s="2">
         <v>6.3</v>
       </c>
       <c r="AB481" s="2">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="AC481" s="2">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AD481" s="2">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AE481" s="2">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AF481" s="2">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AG481" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AH481" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AI481" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ481" s="2">
         <v>5.7</v>
       </c>
-      <c r="AH481" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="AI481" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="AJ481" s="2">
-        <v>5.9</v>
-      </c>
       <c r="AK481" s="2">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AL481" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="AM481" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AN481" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AO481" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AP481" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AQ481" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AR481" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AS481" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AT481" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU481" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AV481" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AW481" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AX481" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AY481" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="AZ481" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AN481" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="AO481" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="AP481" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="AQ481" s="2">
-        <v>6</v>
-      </c>
-      <c r="AR481" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="AS481" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="AT481" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AU481" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="AV481" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="AW481" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="AX481" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="AY481" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="AZ481" s="2">
-        <v>4.5</v>
-      </c>
       <c r="BA481" s="2">
-        <v>4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="482" spans="1:53" x14ac:dyDescent="0.2">
@@ -78515,25 +78515,25 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C482" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="D482" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E482" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="F482" s="2">
+        <v>5</v>
+      </c>
+      <c r="G482" s="2">
         <v>6</v>
       </c>
-      <c r="D482" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="E482" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="F482" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="G482" s="2">
-        <v>5.9</v>
-      </c>
       <c r="H482" s="2">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I482" s="2">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J482" s="2">
         <v>4.9000000000000004</v>
@@ -78542,130 +78542,130 @@
         <v>6.7</v>
       </c>
       <c r="L482" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M482" s="2">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="N482" s="2">
         <v>3.4</v>
       </c>
       <c r="O482" s="2">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P482" s="2">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="Q482" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="R482" s="2">
         <v>3.6</v>
       </c>
       <c r="S482" s="2">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="T482" s="2">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="U482" s="2">
         <v>6</v>
       </c>
       <c r="V482" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="W482" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="X482" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="Y482" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z482" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AA482" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="AB482" s="2">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="Y482" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z482" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="AA482" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="AB482" s="2">
-        <v>5.3</v>
       </c>
       <c r="AC482" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="AD482" s="2">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AE482" s="2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF482" s="2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AG482" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AH482" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AI482" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ482" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AK482" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AL482" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM482" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AN482" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AO482" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AP482" s="2">
         <v>5.6</v>
       </c>
-      <c r="AH482" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="AI482" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AJ482" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="AK482" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="AL482" s="2">
+      <c r="AQ482" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AR482" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AS482" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AT482" s="2">
         <v>4.5</v>
       </c>
-      <c r="AM482" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AN482" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="AO482" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="AP482" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="AQ482" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="AR482" s="2">
+      <c r="AU482" s="2">
         <v>3.5</v>
-      </c>
-      <c r="AS482" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="AT482" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="AU482" s="2">
-        <v>3.6</v>
       </c>
       <c r="AV482" s="2">
         <v>3.7</v>
       </c>
       <c r="AW482" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AX482" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AY482" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="AZ482" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BA482" s="2">
         <v>4.3</v>
-      </c>
-      <c r="AX482" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="AY482" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="AZ482" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="BA482" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="483" spans="1:53" x14ac:dyDescent="0.2">
@@ -78676,157 +78676,157 @@
         <v>5</v>
       </c>
       <c r="C483" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="D483" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E483" s="2">
         <v>5.9</v>
       </c>
-      <c r="D483" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="E483" s="2">
-        <v>6.1</v>
-      </c>
       <c r="F483" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G483" s="2">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H483" s="2">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I483" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="J483" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K483" s="2">
         <v>6.6</v>
       </c>
       <c r="L483" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M483" s="2">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="N483" s="2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O483" s="2">
         <v>4</v>
       </c>
       <c r="P483" s="2">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="Q483" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="R483" s="2">
         <v>3.5</v>
       </c>
       <c r="S483" s="2">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="T483" s="2">
-        <v>4.9000000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="U483" s="2">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="V483" s="2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="W483" s="2">
+        <v>5</v>
+      </c>
+      <c r="X483" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="Y483" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="X483" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Y483" s="2">
-        <v>5</v>
-      </c>
       <c r="Z483" s="2">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AA483" s="2">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AB483" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AC483" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="AD483" s="2">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AE483" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF483" s="2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AG483" s="2">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AH483" s="2">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AI483" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AJ483" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AK483" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AL483" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AM483" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AN483" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AO483" s="2">
         <v>4.8</v>
       </c>
-      <c r="AJ483" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="AK483" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="AL483" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AM483" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="AN483" s="2">
-        <v>6</v>
-      </c>
-      <c r="AO483" s="2">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="AP483" s="2">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AQ483" s="2">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AR483" s="2">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AS483" s="2">
         <v>5.6</v>
       </c>
       <c r="AT483" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="AU483" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AV483" s="2">
         <v>3.6</v>
-      </c>
-      <c r="AV483" s="2">
-        <v>3.7</v>
       </c>
       <c r="AW483" s="2">
         <v>4.2</v>
       </c>
       <c r="AX483" s="2">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AY483" s="2">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AZ483" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BA483" s="2">
         <v>4.3</v>
-      </c>
-      <c r="BA483" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="484" spans="1:53" x14ac:dyDescent="0.2">
@@ -78837,28 +78837,28 @@
         <v>5</v>
       </c>
       <c r="C484" s="2">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="D484" s="2">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="E484" s="2">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="F484" s="2">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G484" s="2">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H484" s="2">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I484" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="J484" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K484" s="2">
         <v>6.6</v>
@@ -78867,94 +78867,94 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="M484" s="2">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="N484" s="2">
         <v>3.3</v>
       </c>
       <c r="O484" s="2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="P484" s="2">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Q484" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="R484" s="2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S484" s="2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T484" s="2">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="U484" s="2">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="V484" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="W484" s="2">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="X484" s="2">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Y484" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="Z484" s="2">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AA484" s="2">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AB484" s="2">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AC484" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="AD484" s="2">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AE484" s="2">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF484" s="2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AG484" s="2">
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH484" s="2">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI484" s="2">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AJ484" s="2">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AK484" s="2">
         <v>2.7</v>
       </c>
       <c r="AL484" s="2">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AM484" s="2">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AN484" s="2">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO484" s="2">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AP484" s="2">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AQ484" s="2">
         <v>5.5</v>
@@ -78963,31 +78963,31 @@
         <v>3</v>
       </c>
       <c r="AS484" s="2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AT484" s="2">
         <v>4.5999999999999996</v>
       </c>
       <c r="AU484" s="2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AV484" s="2">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AW484" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="AX484" s="2">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AY484" s="2">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AZ484" s="2">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BA484" s="2">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="485" spans="1:53" x14ac:dyDescent="0.2">
@@ -78998,103 +78998,103 @@
         <v>5</v>
       </c>
       <c r="C485" s="2">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="D485" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E485" s="2">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F485" s="2">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G485" s="2">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H485" s="2">
         <v>3.5</v>
       </c>
       <c r="I485" s="2">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J485" s="2">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K485" s="2">
         <v>6.6</v>
       </c>
       <c r="L485" s="2">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M485" s="2">
         <v>5.5</v>
       </c>
       <c r="N485" s="2">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O485" s="2">
         <v>3.9</v>
       </c>
       <c r="P485" s="2">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Q485" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R485" s="2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S485" s="2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T485" s="2">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="U485" s="2">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="V485" s="2">
         <v>4</v>
       </c>
       <c r="W485" s="2">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="X485" s="2">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Y485" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="Z485" s="2">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AA485" s="2">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AB485" s="2">
         <v>4.4000000000000004</v>
       </c>
       <c r="AC485" s="2">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AD485" s="2">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AE485" s="2">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF485" s="2">
         <v>3.1</v>
       </c>
       <c r="AG485" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="AH485" s="2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI485" s="2">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AJ485" s="2">
         <v>5.6</v>
@@ -79103,19 +79103,19 @@
         <v>2.7</v>
       </c>
       <c r="AL485" s="2">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AM485" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="AN485" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AO485" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AP485" s="2">
         <v>5.4</v>
-      </c>
-      <c r="AO485" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="AP485" s="2">
-        <v>5.0999999999999996</v>
       </c>
       <c r="AQ485" s="2">
         <v>5.5</v>
@@ -79127,32 +79127,190 @@
         <v>5.6</v>
       </c>
       <c r="AT485" s="2">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AU485" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AV485" s="2">
         <v>3.5</v>
-      </c>
-      <c r="AV485" s="2">
-        <v>3.6</v>
       </c>
       <c r="AW485" s="2">
         <v>4.2</v>
       </c>
       <c r="AX485" s="2">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AY485" s="2">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AZ485" s="2">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BA485" s="2">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="486" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A486" s="6"/>
+      <c r="A486" s="6">
+        <v>42370</v>
+      </c>
+      <c r="B486" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C486" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D486" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E486" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="F486" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G486" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="H486" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I486" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="J486" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="K486" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L486" s="2">
+        <v>5</v>
+      </c>
+      <c r="M486" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="N486" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="O486" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="P486" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="Q486" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R486" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="S486" s="2">
+        <v>4</v>
+      </c>
+      <c r="T486" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="U486" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="V486" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="W486" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X486" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="Y486" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z486" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AA486" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="AB486" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AC486" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD486" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE486" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="AF486" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AG486" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AH486" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AI486" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AJ486" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AK486" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AL486" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM486" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AN486" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AO486" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AP486" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AQ486" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AR486" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AS486" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="AT486" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AU486" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AV486" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AW486" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AX486" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AY486" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="AZ486" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BA486" s="2">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="487" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A487" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- January 2016</t>
+    <t>Unemployment Rate: January 1976 -- February 2016</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H457" sqref="H457"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -79186,7 +79186,7 @@
         <v>6.5</v>
       </c>
       <c r="L486" s="2">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M486" s="2">
         <v>5.4</v>
@@ -79219,7 +79219,7 @@
         <v>3.8</v>
       </c>
       <c r="W486" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="X486" s="2">
         <v>4.7</v>
@@ -79234,7 +79234,7 @@
         <v>6.7</v>
       </c>
       <c r="AB486" s="2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AC486" s="2">
         <v>4.0999999999999996</v>
@@ -79276,7 +79276,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AP486" s="2">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AQ486" s="2">
         <v>5.5</v>
@@ -79313,7 +79313,165 @@
       </c>
     </row>
     <row r="487" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A487" s="6"/>
+      <c r="A487" s="6">
+        <v>42401</v>
+      </c>
+      <c r="B487" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C487" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D487" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E487" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F487" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G487" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="H487" s="2">
+        <v>3</v>
+      </c>
+      <c r="I487" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="J487" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K487" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L487" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M487" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="N487" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="O487" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="P487" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="Q487" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="R487" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="S487" s="2">
+        <v>4</v>
+      </c>
+      <c r="T487" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="U487" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="V487" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="W487" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="X487" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="Y487" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="Z487" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AA487" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AB487" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AC487" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AD487" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE487" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="AF487" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AG487" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AH487" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="AI487" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AJ487" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AK487" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AL487" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM487" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AN487" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AO487" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AP487" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="AQ487" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AR487" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AS487" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AT487" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU487" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AV487" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AW487" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AX487" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AY487" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AZ487" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BA487" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="488" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A488" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- February 2016</t>
+    <t>Unemployment Rate: January 1976 -- March 2016</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="M485" sqref="M485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -79347,7 +79347,7 @@
         <v>6.5</v>
       </c>
       <c r="L487" s="2">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="M487" s="2">
         <v>5.4</v>
@@ -79425,7 +79425,7 @@
         <v>2.9</v>
       </c>
       <c r="AL487" s="2">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="AM487" s="2">
         <v>4.2</v>
@@ -79449,7 +79449,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AT487" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AU487" s="2">
         <v>3.4</v>
@@ -79474,7 +79474,165 @@
       </c>
     </row>
     <row r="488" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A488" s="6"/>
+      <c r="A488" s="6">
+        <v>42430</v>
+      </c>
+      <c r="B488" s="2">
+        <v>5</v>
+      </c>
+      <c r="C488" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D488" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E488" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="F488" s="2">
+        <v>4</v>
+      </c>
+      <c r="G488" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="H488" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="I488" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="J488" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K488" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L488" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M488" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="N488" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="O488" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="P488" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="Q488" s="2">
+        <v>5</v>
+      </c>
+      <c r="R488" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="S488" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="T488" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="U488" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="V488" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="W488" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="X488" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y488" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="Z488" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AA488" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="AB488" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AC488" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AD488" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE488" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AF488" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AG488" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH488" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="AI488" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AJ488" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AK488" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AL488" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AM488" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AN488" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AO488" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AP488" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="AQ488" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="AR488" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AS488" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AT488" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AU488" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AV488" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AW488" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX488" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AY488" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AZ488" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="BA488" s="2">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="489" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A489" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- March 2016</t>
+    <t>Unemployment Rate: January 1976 -- April 2016</t>
   </si>
 </sst>
 </file>
@@ -1636,8 +1636,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M485" sqref="M485"/>
+      <pane ySplit="5" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J481" sqref="J481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -79490,7 +79490,7 @@
         <v>5.4</v>
       </c>
       <c r="F488" s="2">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G488" s="2">
         <v>5.4</v>
@@ -79550,7 +79550,7 @@
         <v>4.8</v>
       </c>
       <c r="Z488" s="2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AA488" s="2">
         <v>6.3</v>
@@ -79635,7 +79635,165 @@
       </c>
     </row>
     <row r="489" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A489" s="6"/>
+      <c r="A489" s="6">
+        <v>42461</v>
+      </c>
+      <c r="B489" s="2">
+        <v>5</v>
+      </c>
+      <c r="C489" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="D489" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E489" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F489" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G489" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="H489" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="I489" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="J489" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="K489" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="L489" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="M489" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="N489" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="O489" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="P489" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="Q489" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="R489" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="S489" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="T489" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="U489" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="V489" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="W489" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X489" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="Y489" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="Z489" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AA489" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB489" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AC489" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AD489" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE489" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AF489" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AG489" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AH489" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="AI489" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AJ489" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="AK489" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AL489" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AM489" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AN489" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AO489" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AP489" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AQ489" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AR489" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AS489" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AT489" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU489" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AV489" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AW489" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AX489" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AY489" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="AZ489" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BA489" s="2">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="490" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A490" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- April 2016</t>
+    <t>Unemployment Rate: January 1976 -- May 2016</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J481" sqref="J481"/>
+      <selection pane="bottomLeft" activeCell="F493" sqref="F493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -79693,7 +79693,7 @@
         <v>3.8</v>
       </c>
       <c r="T489" s="2">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="U489" s="2">
         <v>6.3</v>
@@ -79759,7 +79759,7 @@
         <v>5.3</v>
       </c>
       <c r="AP489" s="2">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AQ489" s="2">
         <v>5.8</v>
@@ -79796,7 +79796,165 @@
       </c>
     </row>
     <row r="490" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A490" s="6"/>
+      <c r="A490" s="6">
+        <v>42491</v>
+      </c>
+      <c r="B490" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="C490" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="D490" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="E490" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="F490" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G490" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="H490" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="I490" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="J490" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K490" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L490" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="M490" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="N490" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="O490" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="P490" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="Q490" s="2">
+        <v>5</v>
+      </c>
+      <c r="R490" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="S490" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="T490" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U490" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="V490" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="W490" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="X490" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="Y490" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="Z490" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AA490" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AB490" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AC490" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AD490" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE490" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="AF490" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AG490" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AH490" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="AI490" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AJ490" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AK490" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AL490" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AM490" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AN490" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AO490" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="AP490" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="AQ490" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="AR490" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AS490" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AT490" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU490" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AV490" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AW490" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AX490" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="AY490" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="AZ490" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="BA490" s="2">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="491" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A491" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -20,9 +20,6 @@
   </si>
   <si>
     <t>http://www.bls.gov/lau/</t>
-  </si>
-  <si>
-    <t>United States</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -178,7 +175,10 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- May 2016</t>
+    <t>Unemployment Rate: January 1976 -- June 2016</t>
+  </si>
+  <si>
+    <t>Invalid data manipulation</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F493" sqref="F493"/>
+      <selection pane="bottomLeft" activeCell="AI481" sqref="AI481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1699,7 +1699,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="15" x14ac:dyDescent="0.25">
@@ -1714,170 +1714,163 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AG5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AI5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AJ5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AK5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AL5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AM5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AN5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AO5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AP5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AP5" s="5" t="s">
+      <c r="AQ5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AR5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AS5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AT5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AU5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AV5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AW5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="AY5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AY5" s="5" t="s">
+      <c r="AZ5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AZ5" s="5" t="s">
+      <c r="BA5" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="BA5" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>27760</v>
-      </c>
-      <c r="B6" s="2">
-        <v>7.9</v>
-      </c>
+      <c r="A6" s="6"/>
       <c r="C6" s="2">
         <v>6.9</v>
       </c>
@@ -2194,8 +2187,8 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>27820</v>
+      <c r="A8" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B8" s="2">
         <v>7.6</v>
@@ -79803,7 +79796,7 @@
         <v>4.7</v>
       </c>
       <c r="C490" s="2">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="D490" s="2">
         <v>6.7</v>
@@ -79818,7 +79811,7 @@
         <v>5.2</v>
       </c>
       <c r="H490" s="2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I490" s="2">
         <v>5.7</v>
@@ -79875,7 +79868,7 @@
         <v>3.8</v>
       </c>
       <c r="AA490" s="2">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB490" s="2">
         <v>4.3</v>
@@ -79941,7 +79934,7 @@
         <v>3.1</v>
       </c>
       <c r="AW490" s="2">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AX490" s="2">
         <v>5.8</v>
@@ -79957,7 +79950,165 @@
       </c>
     </row>
     <row r="491" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A491" s="6"/>
+      <c r="A491" s="6">
+        <v>42522</v>
+      </c>
+      <c r="B491" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C491" s="7">
+        <v>6</v>
+      </c>
+      <c r="D491" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="E491" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="F491" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="G491" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="H491" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="I491" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="J491" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="K491" s="7">
+        <v>6</v>
+      </c>
+      <c r="L491" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="M491" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N491" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="O491" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="P491" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="Q491" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="R491" s="7">
+        <v>4</v>
+      </c>
+      <c r="S491" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="T491" s="7">
+        <v>5</v>
+      </c>
+      <c r="U491" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="V491" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="W491" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="X491" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="Y491" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z491" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="AA491" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="AB491" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AC491" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="AD491" s="7">
+        <v>3</v>
+      </c>
+      <c r="AE491" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="AF491" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AG491" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AH491" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="AI491" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="AJ491" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AK491" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AL491" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM491" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="AN491" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="AO491" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="AP491" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="AQ491" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="AR491" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="AS491" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AT491" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="AU491" s="7">
+        <v>4</v>
+      </c>
+      <c r="AV491" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AW491" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="AX491" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="AY491" s="7">
+        <v>6</v>
+      </c>
+      <c r="AZ491" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="BA491" s="7">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="492" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A492" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Unemployment Rate: January 1976 -- June 2016</t>
   </si>
   <si>
-    <t>Invalid data manipulation</t>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -1636,13 +1636,13 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI481" sqref="AI481"/>
+      <pane ySplit="5" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1714,7 +1714,9 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1870,7 +1872,12 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6">
+        <v>27760</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7.9</v>
+      </c>
       <c r="C6" s="2">
         <v>6.9</v>
       </c>
@@ -2187,8 +2194,8 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>54</v>
+      <c r="A8" s="6">
+        <v>27820</v>
       </c>
       <c r="B8" s="2">
         <v>7.6</v>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -1636,8 +1636,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B476" sqref="B476"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>http://www.bls.gov/lau/</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- September 2016</t>
+    <t>Unemployment Rate: January 1976 -- November 2016</t>
   </si>
 </sst>
 </file>
@@ -1636,8 +1636,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="5" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C484" sqref="C484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -80398,7 +80398,7 @@
         <v>5.4</v>
       </c>
       <c r="D494" s="1">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="E494" s="1">
         <v>5.5</v>
@@ -80497,13 +80497,13 @@
         <v>4.7</v>
       </c>
       <c r="AK494" s="1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AL494" s="1">
         <v>4.8</v>
       </c>
       <c r="AM494" s="1">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AN494" s="1">
         <v>5.5</v>
@@ -80545,14 +80545,330 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="BA494" s="1">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="495" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A495" s="4"/>
+      <c r="A495" s="4">
+        <v>42644</v>
+      </c>
+      <c r="B495" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C495" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="D495" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="E495" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="F495" s="1">
+        <v>4</v>
+      </c>
+      <c r="G495" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H495" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I495" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J495" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="K495" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="L495" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="M495" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="N495" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="O495" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P495" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="Q495" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R495" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S495" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T495" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U495" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="V495" s="1">
+        <v>4</v>
+      </c>
+      <c r="W495" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="X495" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="Y495" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="Z495" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA495" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="AB495" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AC495" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="AD495" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AE495" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AF495" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AG495" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="AH495" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="AI495" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="AJ495" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AK495" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL495" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM495" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="AN495" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="AO495" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="AP495" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AQ495" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AR495" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AS495" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AT495" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AU495" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AV495" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AW495" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AX495" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="AY495" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ495" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BA495" s="1">
+        <v>5.0999999999999996</v>
+      </c>
     </row>
     <row r="496" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A496" s="4"/>
+      <c r="A496" s="4">
+        <v>42675</v>
+      </c>
+      <c r="B496" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C496" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="D496" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="E496" s="1">
+        <v>5</v>
+      </c>
+      <c r="F496" s="1">
+        <v>4</v>
+      </c>
+      <c r="G496" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="H496" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="I496" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="J496" s="1">
+        <v>0</v>
+      </c>
+      <c r="K496" s="1">
+        <v>6</v>
+      </c>
+      <c r="L496" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M496" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="N496" s="1">
+        <v>3</v>
+      </c>
+      <c r="O496" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P496" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="Q496" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="R496" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="S496" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="T496" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="U496" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="V496" s="1">
+        <v>4</v>
+      </c>
+      <c r="W496" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="X496" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="Y496" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z496" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AA496" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="AB496" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AC496" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD496" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AE496" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="AF496" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AG496" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH496" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="AI496" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AJ496" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK496" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AL496" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM496" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AN496" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO496" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="AP496" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="AQ496" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AR496" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AS496" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AT496" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AU496" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AV496" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AW496" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AX496" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="AY496" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ496" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BA496" s="1">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>http://www.bls.gov/lau/</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- November 2016</t>
+    <t>Unemployment Rate: January 1976 -- December 2016</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C484" sqref="C484"/>
+      <selection pane="bottomLeft" activeCell="C482" sqref="C482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -74596,7 +74596,7 @@
         <v>41518</v>
       </c>
       <c r="B458" s="1">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="C458" s="1">
         <v>7.1</v>
@@ -75884,7 +75884,7 @@
         <v>41760</v>
       </c>
       <c r="B466" s="1">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="C466" s="1">
         <v>6.9</v>
@@ -76528,7 +76528,7 @@
         <v>41883</v>
       </c>
       <c r="B470" s="1">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C470" s="1">
         <v>6.4</v>
@@ -77494,7 +77494,7 @@
         <v>42064</v>
       </c>
       <c r="B476" s="1">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="C476" s="1">
         <v>6.1</v>
@@ -78138,7 +78138,7 @@
         <v>42186</v>
       </c>
       <c r="B480" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C480" s="1">
         <v>6.1</v>
@@ -78460,7 +78460,7 @@
         <v>42248</v>
       </c>
       <c r="B482" s="1">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C482" s="1">
         <v>6.1</v>
@@ -80392,7 +80392,7 @@
         <v>42614</v>
       </c>
       <c r="B494" s="1">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C494" s="1">
         <v>5.4</v>
@@ -80553,7 +80553,7 @@
         <v>42644</v>
       </c>
       <c r="B495" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="C495" s="1">
         <v>5.7</v>
@@ -80738,7 +80738,7 @@
         <v>4.7</v>
       </c>
       <c r="J496" s="1">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="K496" s="1">
         <v>6</v>
@@ -80819,7 +80819,7 @@
         <v>5</v>
       </c>
       <c r="AK496" s="1">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AL496" s="1">
         <v>4.9000000000000004</v>
@@ -80870,52 +80870,210 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" s="4"/>
+    <row r="497" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A497" s="4">
+        <v>42705</v>
+      </c>
+      <c r="B497" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="C497" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="D497" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E497" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="F497" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G497" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="H497" s="1">
+        <v>3</v>
+      </c>
+      <c r="I497" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J497" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="K497" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="L497" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M497" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="N497" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="O497" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="P497" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="Q497" s="1">
+        <v>4</v>
+      </c>
+      <c r="R497" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="S497" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="T497" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="U497" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="V497" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="W497" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="X497" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="Y497" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z497" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="AA497" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="AB497" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AC497" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD497" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AE497" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AF497" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AG497" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AH497" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="AI497" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AJ497" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AK497" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL497" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM497" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN497" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AO497" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="AP497" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ497" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="AR497" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AS497" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AT497" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AU497" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AV497" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AW497" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AX497" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="AY497" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="AZ497" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA497" s="1">
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>http://www.bls.gov/lau/</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- December 2016</t>
+    <t>Unemployment Rate: January 1976 -- January 2017</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C482" sqref="C482"/>
+      <selection pane="bottomLeft" activeCell="B488" sqref="B488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -71409,7 +71409,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="M438" s="1">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="N438" s="1">
         <v>6.7</v>
@@ -71484,16 +71484,16 @@
         <v>3.2</v>
       </c>
       <c r="AL438" s="1">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AM438" s="1">
         <v>5.4</v>
       </c>
       <c r="AN438" s="1">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="AO438" s="1">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AP438" s="1">
         <v>11.2</v>
@@ -71570,7 +71570,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="M439" s="1">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="N439" s="1">
         <v>6.6</v>
@@ -71579,7 +71579,7 @@
         <v>7.6</v>
       </c>
       <c r="P439" s="1">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="Q439" s="1">
         <v>8.4</v>
@@ -71591,7 +71591,7 @@
         <v>5.9</v>
       </c>
       <c r="T439" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="U439" s="1">
         <v>7.4</v>
@@ -71609,7 +71609,7 @@
         <v>9.1</v>
       </c>
       <c r="Z439" s="1">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AA439" s="1">
         <v>9.1</v>
@@ -71639,7 +71639,7 @@
         <v>8.6</v>
       </c>
       <c r="AJ439" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AK439" s="1">
         <v>3.1</v>
@@ -71669,7 +71669,7 @@
         <v>7.8</v>
       </c>
       <c r="AT439" s="1">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AU439" s="1">
         <v>5.8</v>
@@ -71719,7 +71719,7 @@
         <v>8.1</v>
       </c>
       <c r="I440" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J440" s="1">
         <v>7.1</v>
@@ -71746,7 +71746,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="R440" s="1">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="S440" s="1">
         <v>5.8</v>
@@ -71755,7 +71755,7 @@
         <v>8.1</v>
       </c>
       <c r="U440" s="1">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="V440" s="1">
         <v>7.6</v>
@@ -71797,13 +71797,13 @@
         <v>7.2</v>
       </c>
       <c r="AI440" s="1">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AJ440" s="1">
         <v>9.3000000000000007</v>
       </c>
       <c r="AK440" s="1">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AL440" s="1">
         <v>7.5</v>
@@ -71845,7 +71845,7 @@
         <v>8.4</v>
       </c>
       <c r="AY440" s="1">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AZ440" s="1">
         <v>7.1</v>
@@ -71868,13 +71868,13 @@
         <v>7.2</v>
       </c>
       <c r="E441" s="1">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="F441" s="1">
         <v>7.5</v>
       </c>
       <c r="G441" s="1">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="H441" s="1">
         <v>8</v>
@@ -71886,7 +71886,7 @@
         <v>7.1</v>
       </c>
       <c r="K441" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L441" s="1">
         <v>8.6</v>
@@ -71937,7 +71937,7 @@
         <v>8.9</v>
       </c>
       <c r="AB441" s="1">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AC441" s="1">
         <v>6.1</v>
@@ -71952,7 +71952,7 @@
         <v>5.4</v>
       </c>
       <c r="AG441" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AH441" s="1">
         <v>7.1</v>
@@ -71961,7 +71961,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="AJ441" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AK441" s="1">
         <v>3</v>
@@ -71976,19 +71976,19 @@
         <v>8.9</v>
       </c>
       <c r="AO441" s="1">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AP441" s="1">
         <v>10.7</v>
       </c>
       <c r="AQ441" s="1">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="AR441" s="1">
         <v>4.3</v>
       </c>
       <c r="AS441" s="1">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AT441" s="1">
         <v>6.8</v>
@@ -72035,7 +72035,7 @@
         <v>7.5</v>
       </c>
       <c r="G442" s="1">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="H442" s="1">
         <v>8</v>
@@ -72104,7 +72104,7 @@
         <v>6.1</v>
       </c>
       <c r="AD442" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AE442" s="1">
         <v>11.4</v>
@@ -72161,7 +72161,7 @@
         <v>5</v>
       </c>
       <c r="AW442" s="1">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AX442" s="1">
         <v>8.3000000000000007</v>
@@ -72235,7 +72235,7 @@
         <v>5.7</v>
       </c>
       <c r="T443" s="1">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="U443" s="1">
         <v>7.1</v>
@@ -72280,7 +72280,7 @@
         <v>7</v>
       </c>
       <c r="AI443" s="1">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AJ443" s="1">
         <v>9.1999999999999993</v>
@@ -72351,16 +72351,16 @@
         <v>7.1</v>
       </c>
       <c r="E444" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F444" s="1">
         <v>7.5</v>
       </c>
       <c r="G444" s="1">
-        <v>10.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="H444" s="1">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="I444" s="1">
         <v>8.5</v>
@@ -72375,7 +72375,7 @@
         <v>8.4</v>
       </c>
       <c r="M444" s="1">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="N444" s="1">
         <v>6</v>
@@ -72414,7 +72414,7 @@
         <v>9.1</v>
       </c>
       <c r="Z444" s="1">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA444" s="1">
         <v>9</v>
@@ -72432,7 +72432,7 @@
         <v>11.1</v>
       </c>
       <c r="AF444" s="1">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AG444" s="1">
         <v>9.4</v>
@@ -72441,7 +72441,7 @@
         <v>7</v>
       </c>
       <c r="AI444" s="1">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="AJ444" s="1">
         <v>9.1999999999999993</v>
@@ -72471,7 +72471,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AS444" s="1">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AT444" s="1">
         <v>6.6</v>
@@ -72536,7 +72536,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="M445" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="N445" s="1">
         <v>5.8</v>
@@ -72569,13 +72569,13 @@
         <v>6.9</v>
       </c>
       <c r="X445" s="1">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y445" s="1">
         <v>9</v>
       </c>
       <c r="Z445" s="1">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA445" s="1">
         <v>9</v>
@@ -72596,7 +72596,7 @@
         <v>5.6</v>
       </c>
       <c r="AG445" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AH445" s="1">
         <v>7</v>
@@ -72647,7 +72647,7 @@
         <v>5.9</v>
       </c>
       <c r="AX445" s="1">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AY445" s="1">
         <v>7.6</v>
@@ -72688,16 +72688,16 @@
         <v>8.4</v>
       </c>
       <c r="J446" s="1">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="K446" s="1">
         <v>8.6999999999999993</v>
       </c>
       <c r="L446" s="1">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M446" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N446" s="1">
         <v>5.6</v>
@@ -72718,19 +72718,19 @@
         <v>5.6</v>
       </c>
       <c r="T446" s="1">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="U446" s="1">
         <v>6.7</v>
       </c>
       <c r="V446" s="1">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="W446" s="1">
         <v>6.9</v>
       </c>
       <c r="X446" s="1">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y446" s="1">
         <v>9</v>
@@ -72787,7 +72787,7 @@
         <v>10.1</v>
       </c>
       <c r="AQ446" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AR446" s="1">
         <v>4.3</v>
@@ -72796,7 +72796,7 @@
         <v>7.7</v>
       </c>
       <c r="AT446" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AU446" s="1">
         <v>5.0999999999999996</v>
@@ -72805,7 +72805,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AW446" s="1">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AX446" s="1">
         <v>7.8</v>
@@ -72814,7 +72814,7 @@
         <v>7.6</v>
       </c>
       <c r="AZ446" s="1">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="BA446" s="1">
         <v>5.3</v>
@@ -72843,10 +72843,10 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H447" s="1">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="I447" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="J447" s="1">
         <v>7.3</v>
@@ -72873,7 +72873,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="R447" s="1">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="S447" s="1">
         <v>5.6</v>
@@ -72888,7 +72888,7 @@
         <v>7.3</v>
       </c>
       <c r="W447" s="1">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X447" s="1">
         <v>6.7</v>
@@ -72897,7 +72897,7 @@
         <v>9</v>
       </c>
       <c r="Z447" s="1">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA447" s="1">
         <v>8.9</v>
@@ -72906,7 +72906,7 @@
         <v>6.8</v>
       </c>
       <c r="AC447" s="1">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AD447" s="1">
         <v>4</v>
@@ -72918,7 +72918,7 @@
         <v>5.5</v>
       </c>
       <c r="AG447" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AH447" s="1">
         <v>7</v>
@@ -72978,7 +72978,7 @@
         <v>6.9</v>
       </c>
       <c r="BA447" s="1">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="448" spans="1:53" x14ac:dyDescent="0.2">
@@ -72989,7 +72989,7 @@
         <v>7.7</v>
       </c>
       <c r="C448" s="1">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="D448" s="1">
         <v>6.9</v>
@@ -73004,10 +73004,10 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="H448" s="1">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="I448" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J448" s="1">
         <v>7.3</v>
@@ -73019,7 +73019,7 @@
         <v>7.9</v>
       </c>
       <c r="M448" s="1">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N448" s="1">
         <v>5.3</v>
@@ -73037,7 +73037,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="S448" s="1">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T448" s="1">
         <v>8.1</v>
@@ -73070,7 +73070,7 @@
         <v>5.7</v>
       </c>
       <c r="AD448" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AE448" s="1">
         <v>10.5</v>
@@ -73079,13 +73079,13 @@
         <v>5.5</v>
       </c>
       <c r="AG448" s="1">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AH448" s="1">
         <v>7</v>
       </c>
       <c r="AI448" s="1">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AJ448" s="1">
         <v>9</v>
@@ -73127,7 +73127,7 @@
         <v>4.7</v>
       </c>
       <c r="AW448" s="1">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AX448" s="1">
         <v>7.5</v>
@@ -73165,10 +73165,10 @@
         <v>9.6</v>
       </c>
       <c r="H449" s="1">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="I449" s="1">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J449" s="1">
         <v>7.3</v>
@@ -73186,7 +73186,7 @@
         <v>5.2</v>
       </c>
       <c r="O449" s="1">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="P449" s="1">
         <v>9.1</v>
@@ -73225,13 +73225,13 @@
         <v>8.9</v>
       </c>
       <c r="AB449" s="1">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AC449" s="1">
         <v>5.6</v>
       </c>
       <c r="AD449" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AE449" s="1">
         <v>10.4</v>
@@ -73240,10 +73240,10 @@
         <v>5.5</v>
       </c>
       <c r="AG449" s="1">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="AH449" s="1">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI449" s="1">
         <v>8.1</v>
@@ -73261,13 +73261,13 @@
         <v>5.3</v>
       </c>
       <c r="AN449" s="1">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="AO449" s="1">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AP449" s="1">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="AQ449" s="1">
         <v>8.4</v>
@@ -73282,10 +73282,10 @@
         <v>6.4</v>
       </c>
       <c r="AU449" s="1">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="AV449" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="AW449" s="1">
         <v>5.7</v>
@@ -73323,10 +73323,10 @@
         <v>7.4</v>
       </c>
       <c r="G450" s="1">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="H450" s="1">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="I450" s="1">
         <v>8.1</v>
@@ -73341,7 +73341,7 @@
         <v>7.7</v>
       </c>
       <c r="M450" s="1">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="N450" s="1">
         <v>5.0999999999999996</v>
@@ -73365,7 +73365,7 @@
         <v>8.1</v>
       </c>
       <c r="U450" s="1">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="V450" s="1">
         <v>7.1</v>
@@ -73377,7 +73377,7 @@
         <v>6.7</v>
       </c>
       <c r="Y450" s="1">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="Z450" s="1">
         <v>5.2</v>
@@ -73389,19 +73389,19 @@
         <v>6.7</v>
       </c>
       <c r="AC450" s="1">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AD450" s="1">
         <v>3.9</v>
       </c>
       <c r="AE450" s="1">
-        <v>10.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="AF450" s="1">
         <v>5.4</v>
       </c>
       <c r="AG450" s="1">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="AH450" s="1">
         <v>6.9</v>
@@ -73422,7 +73422,7 @@
         <v>5.3</v>
       </c>
       <c r="AN450" s="1">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="AO450" s="1">
         <v>7.7</v>
@@ -73461,7 +73461,7 @@
         <v>6.9</v>
       </c>
       <c r="BA450" s="1">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="451" spans="1:53" x14ac:dyDescent="0.2">
@@ -73478,7 +73478,7 @@
         <v>6.9</v>
       </c>
       <c r="E451" s="1">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="F451" s="1">
         <v>7.4</v>
@@ -73526,7 +73526,7 @@
         <v>8.1</v>
       </c>
       <c r="U451" s="1">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="V451" s="1">
         <v>7</v>
@@ -73541,7 +73541,7 @@
         <v>8.9</v>
       </c>
       <c r="Z451" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="AA451" s="1">
         <v>8.9</v>
@@ -73556,13 +73556,13 @@
         <v>3.9</v>
       </c>
       <c r="AE451" s="1">
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AF451" s="1">
         <v>5.4</v>
       </c>
       <c r="AG451" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AH451" s="1">
         <v>6.9</v>
@@ -73574,7 +73574,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="AK451" s="1">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AL451" s="1">
         <v>7.5</v>
@@ -73583,7 +73583,7 @@
         <v>5.3</v>
       </c>
       <c r="AN451" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="AO451" s="1">
         <v>7.6</v>
@@ -73687,13 +73687,13 @@
         <v>8.1</v>
       </c>
       <c r="U452" s="1">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="V452" s="1">
         <v>6.9</v>
       </c>
       <c r="W452" s="1">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X452" s="1">
         <v>6.8</v>
@@ -73702,13 +73702,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="Z452" s="1">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AA452" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="AB452" s="1">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AC452" s="1">
         <v>5.5</v>
@@ -73747,19 +73747,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AO452" s="1">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AP452" s="1">
         <v>9.1999999999999993</v>
       </c>
       <c r="AQ452" s="1">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AR452" s="1">
         <v>3.8</v>
       </c>
       <c r="AS452" s="1">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AT452" s="1">
         <v>6.4</v>
@@ -73800,7 +73800,7 @@
         <v>6.9</v>
       </c>
       <c r="E453" s="1">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="F453" s="1">
         <v>7.4</v>
@@ -73821,7 +73821,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="L453" s="1">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M453" s="1">
         <v>8.3000000000000007</v>
@@ -73830,7 +73830,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="O453" s="1">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="P453" s="1">
         <v>9.1</v>
@@ -73866,16 +73866,16 @@
         <v>5</v>
       </c>
       <c r="AA453" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AB453" s="1">
         <v>6.6</v>
       </c>
       <c r="AC453" s="1">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AD453" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AE453" s="1">
         <v>9.9</v>
@@ -73884,7 +73884,7 @@
         <v>5.2</v>
       </c>
       <c r="AG453" s="1">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="AH453" s="1">
         <v>6.8</v>
@@ -73932,13 +73932,13 @@
         <v>4.5</v>
       </c>
       <c r="AW453" s="1">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AX453" s="1">
         <v>7.1</v>
       </c>
       <c r="AY453" s="1">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AZ453" s="1">
         <v>6.8</v>
@@ -73970,7 +73970,7 @@
         <v>9</v>
       </c>
       <c r="H454" s="1">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I454" s="1">
         <v>7.8</v>
@@ -73985,7 +73985,7 @@
         <v>7.2</v>
       </c>
       <c r="M454" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="N454" s="1">
         <v>4.8</v>
@@ -73997,7 +73997,7 @@
         <v>9.1</v>
       </c>
       <c r="Q454" s="1">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="R454" s="1">
         <v>4.8</v>
@@ -74015,19 +74015,19 @@
         <v>6.7</v>
       </c>
       <c r="W454" s="1">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X454" s="1">
         <v>6.8</v>
       </c>
       <c r="Y454" s="1">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Z454" s="1">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="AA454" s="1">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AB454" s="1">
         <v>6.6</v>
@@ -74036,7 +74036,7 @@
         <v>5.4</v>
       </c>
       <c r="AD454" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AE454" s="1">
         <v>9.6999999999999993</v>
@@ -74045,13 +74045,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AG454" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="AH454" s="1">
         <v>6.7</v>
       </c>
       <c r="AI454" s="1">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AJ454" s="1">
         <v>8.1</v>
@@ -74084,7 +74084,7 @@
         <v>7.9</v>
       </c>
       <c r="AT454" s="1">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AU454" s="1">
         <v>4.5999999999999996</v>
@@ -74096,13 +74096,13 @@
         <v>5.6</v>
       </c>
       <c r="AX454" s="1">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AY454" s="1">
         <v>6.5</v>
       </c>
       <c r="AZ454" s="1">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="BA454" s="1">
         <v>4.7</v>
@@ -74122,7 +74122,7 @@
         <v>6.9</v>
       </c>
       <c r="E455" s="1">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="F455" s="1">
         <v>7.3</v>
@@ -74134,7 +74134,7 @@
         <v>6.8</v>
       </c>
       <c r="I455" s="1">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="J455" s="1">
         <v>6.8</v>
@@ -74146,7 +74146,7 @@
         <v>7.1</v>
       </c>
       <c r="M455" s="1">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N455" s="1">
         <v>4.8</v>
@@ -74155,10 +74155,10 @@
         <v>6.2</v>
       </c>
       <c r="P455" s="1">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="Q455" s="1">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="R455" s="1">
         <v>4.7</v>
@@ -74170,7 +74170,7 @@
         <v>8.1</v>
       </c>
       <c r="U455" s="1">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="V455" s="1">
         <v>6.6</v>
@@ -74182,10 +74182,10 @@
         <v>6.8</v>
       </c>
       <c r="Y455" s="1">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Z455" s="1">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AA455" s="1">
         <v>8.5</v>
@@ -74206,7 +74206,7 @@
         <v>5</v>
       </c>
       <c r="AG455" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AH455" s="1">
         <v>6.7</v>
@@ -74215,7 +74215,7 @@
         <v>7.6</v>
       </c>
       <c r="AJ455" s="1">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AK455" s="1">
         <v>2.9</v>
@@ -74224,7 +74224,7 @@
         <v>7.4</v>
       </c>
       <c r="AM455" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AN455" s="1">
         <v>7.9</v>
@@ -74242,10 +74242,10 @@
         <v>3.8</v>
       </c>
       <c r="AS455" s="1">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AT455" s="1">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AU455" s="1">
         <v>4.5</v>
@@ -74358,10 +74358,10 @@
         <v>5.4</v>
       </c>
       <c r="AD456" s="1">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AE456" s="1">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="AF456" s="1">
         <v>5</v>
@@ -74385,10 +74385,10 @@
         <v>7.4</v>
       </c>
       <c r="AM456" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AN456" s="1">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AO456" s="1">
         <v>7.1</v>
@@ -74400,7 +74400,7 @@
         <v>7.5</v>
       </c>
       <c r="AR456" s="1">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AS456" s="1">
         <v>7.8</v>
@@ -74409,7 +74409,7 @@
         <v>6.1</v>
       </c>
       <c r="AU456" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="AV456" s="1">
         <v>4.4000000000000004</v>
@@ -74418,7 +74418,7 @@
         <v>5.6</v>
       </c>
       <c r="AX456" s="1">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AY456" s="1">
         <v>6.5</v>
@@ -74477,7 +74477,7 @@
         <v>6</v>
       </c>
       <c r="P457" s="1">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="Q457" s="1">
         <v>7.3</v>
@@ -74504,13 +74504,13 @@
         <v>6.6</v>
       </c>
       <c r="Y457" s="1">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z457" s="1">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AA457" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="AB457" s="1">
         <v>6.5</v>
@@ -74525,16 +74525,16 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="AF457" s="1">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AG457" s="1">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH457" s="1">
         <v>6.8</v>
       </c>
       <c r="AI457" s="1">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AJ457" s="1">
         <v>7.6</v>
@@ -74549,7 +74549,7 @@
         <v>5.2</v>
       </c>
       <c r="AN457" s="1">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AO457" s="1">
         <v>7</v>
@@ -74573,7 +74573,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AV457" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AW457" s="1">
         <v>5.6</v>
@@ -74605,10 +74605,10 @@
         <v>6.9</v>
       </c>
       <c r="E458" s="1">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="F458" s="1">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="G458" s="1">
         <v>8.6</v>
@@ -74638,10 +74638,10 @@
         <v>5.9</v>
       </c>
       <c r="P458" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="Q458" s="1">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="R458" s="1">
         <v>4.5</v>
@@ -74665,7 +74665,7 @@
         <v>6.5</v>
       </c>
       <c r="Y458" s="1">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="Z458" s="1">
         <v>4.7</v>
@@ -74674,7 +74674,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AB458" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC458" s="1">
         <v>5.3</v>
@@ -74689,13 +74689,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AG458" s="1">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AH458" s="1">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI458" s="1">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AJ458" s="1">
         <v>7.4</v>
@@ -74737,7 +74737,7 @@
         <v>4.3</v>
       </c>
       <c r="AW458" s="1">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AX458" s="1">
         <v>6.8</v>
@@ -74749,7 +74749,7 @@
         <v>6.5</v>
       </c>
       <c r="BA458" s="1">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="459" spans="1:53" x14ac:dyDescent="0.2">
@@ -74769,10 +74769,10 @@
         <v>7.4</v>
       </c>
       <c r="F459" s="1">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="G459" s="1">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="H459" s="1">
         <v>6.3</v>
@@ -74790,7 +74790,7 @@
         <v>6.7</v>
       </c>
       <c r="M459" s="1">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="N459" s="1">
         <v>4.8</v>
@@ -74829,7 +74829,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="Z459" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="AA459" s="1">
         <v>8.1</v>
@@ -74844,7 +74844,7 @@
         <v>3.6</v>
       </c>
       <c r="AE459" s="1">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="AF459" s="1">
         <v>4.9000000000000004</v>
@@ -74862,7 +74862,7 @@
         <v>7.2</v>
       </c>
       <c r="AK459" s="1">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AL459" s="1">
         <v>7.2</v>
@@ -74895,7 +74895,7 @@
         <v>4.2</v>
       </c>
       <c r="AV459" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AW459" s="1">
         <v>5.5</v>
@@ -74904,7 +74904,7 @@
         <v>6.7</v>
       </c>
       <c r="AY459" s="1">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AZ459" s="1">
         <v>6.4</v>
@@ -74963,7 +74963,7 @@
         <v>8.6</v>
       </c>
       <c r="Q460" s="1">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="R460" s="1">
         <v>4.4000000000000004</v>
@@ -74975,7 +74975,7 @@
         <v>7.8</v>
       </c>
       <c r="U460" s="1">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="V460" s="1">
         <v>6.2</v>
@@ -74993,7 +74993,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AA460" s="1">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AB460" s="1">
         <v>6.4</v>
@@ -75002,7 +75002,7 @@
         <v>5.2</v>
       </c>
       <c r="AD460" s="1">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AE460" s="1">
         <v>8.8000000000000007</v>
@@ -75017,13 +75017,13 @@
         <v>6.9</v>
       </c>
       <c r="AI460" s="1">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AJ460" s="1">
         <v>7</v>
       </c>
       <c r="AK460" s="1">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AL460" s="1">
         <v>7</v>
@@ -75032,7 +75032,7 @@
         <v>5.2</v>
       </c>
       <c r="AN460" s="1">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AO460" s="1">
         <v>6.7</v>
@@ -75053,13 +75053,13 @@
         <v>5.8</v>
       </c>
       <c r="AU460" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="AV460" s="1">
         <v>4.2</v>
       </c>
       <c r="AW460" s="1">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX460" s="1">
         <v>6.6</v>
@@ -75071,7 +75071,7 @@
         <v>6.3</v>
       </c>
       <c r="BA460" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="461" spans="1:53" x14ac:dyDescent="0.2">
@@ -75103,7 +75103,7 @@
         <v>7.2</v>
       </c>
       <c r="J461" s="1">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="K461" s="1">
         <v>8</v>
@@ -75124,7 +75124,7 @@
         <v>8.4</v>
       </c>
       <c r="Q461" s="1">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="R461" s="1">
         <v>4.4000000000000004</v>
@@ -75133,7 +75133,7 @@
         <v>4.8</v>
       </c>
       <c r="T461" s="1">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="U461" s="1">
         <v>5.6</v>
@@ -75148,16 +75148,16 @@
         <v>6.2</v>
       </c>
       <c r="Y461" s="1">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="Z461" s="1">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA461" s="1">
         <v>8</v>
       </c>
       <c r="AB461" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC461" s="1">
         <v>5.0999999999999996</v>
@@ -75172,7 +75172,7 @@
         <v>4.7</v>
       </c>
       <c r="AG461" s="1">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AH461" s="1">
         <v>6.9</v>
@@ -75199,7 +75199,7 @@
         <v>6.5</v>
       </c>
       <c r="AP461" s="1">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="AQ461" s="1">
         <v>6.4</v>
@@ -75226,7 +75226,7 @@
         <v>6.5</v>
       </c>
       <c r="AY461" s="1">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AZ461" s="1">
         <v>6.1</v>
@@ -75246,7 +75246,7 @@
         <v>7.2</v>
       </c>
       <c r="D462" s="1">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E462" s="1">
         <v>7.1</v>
@@ -75258,7 +75258,7 @@
         <v>8.1</v>
       </c>
       <c r="H462" s="1">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I462" s="1">
         <v>7.1</v>
@@ -75288,7 +75288,7 @@
         <v>6.2</v>
       </c>
       <c r="R462" s="1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S462" s="1">
         <v>4.7</v>
@@ -75312,7 +75312,7 @@
         <v>7.9</v>
       </c>
       <c r="Z462" s="1">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA462" s="1">
         <v>7.9</v>
@@ -75327,7 +75327,7 @@
         <v>3.5</v>
       </c>
       <c r="AE462" s="1">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="AF462" s="1">
         <v>4.7</v>
@@ -75354,7 +75354,7 @@
         <v>5</v>
       </c>
       <c r="AN462" s="1">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AO462" s="1">
         <v>6.4</v>
@@ -75366,7 +75366,7 @@
         <v>6.2</v>
       </c>
       <c r="AR462" s="1">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AS462" s="1">
         <v>6.7</v>
@@ -75393,7 +75393,7 @@
         <v>6</v>
       </c>
       <c r="BA462" s="1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="463" spans="1:53" x14ac:dyDescent="0.2">
@@ -75407,7 +75407,7 @@
         <v>7.2</v>
       </c>
       <c r="D463" s="1">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E463" s="1">
         <v>7</v>
@@ -75425,13 +75425,13 @@
         <v>7</v>
       </c>
       <c r="J463" s="1">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="K463" s="1">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="L463" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M463" s="1">
         <v>7.3</v>
@@ -75449,7 +75449,7 @@
         <v>6.1</v>
       </c>
       <c r="R463" s="1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S463" s="1">
         <v>4.7</v>
@@ -75461,7 +75461,7 @@
         <v>5.5</v>
       </c>
       <c r="V463" s="1">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="W463" s="1">
         <v>6</v>
@@ -75479,7 +75479,7 @@
         <v>7.9</v>
       </c>
       <c r="AB463" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC463" s="1">
         <v>4.9000000000000004</v>
@@ -75500,7 +75500,7 @@
         <v>6.9</v>
       </c>
       <c r="AI463" s="1">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AJ463" s="1">
         <v>6.6</v>
@@ -75518,7 +75518,7 @@
         <v>7.2</v>
       </c>
       <c r="AO463" s="1">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AP463" s="1">
         <v>8.6</v>
@@ -75539,7 +75539,7 @@
         <v>3.9</v>
       </c>
       <c r="AV463" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AW463" s="1">
         <v>5.3</v>
@@ -75574,7 +75574,7 @@
         <v>7</v>
       </c>
       <c r="F464" s="1">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="G464" s="1">
         <v>7.9</v>
@@ -75610,7 +75610,7 @@
         <v>6</v>
       </c>
       <c r="R464" s="1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S464" s="1">
         <v>4.5999999999999996</v>
@@ -75640,13 +75640,13 @@
         <v>7.8</v>
       </c>
       <c r="AB464" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC464" s="1">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AD464" s="1">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AE464" s="1">
         <v>8.3000000000000007</v>
@@ -75661,7 +75661,7 @@
         <v>6.9</v>
       </c>
       <c r="AI464" s="1">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AJ464" s="1">
         <v>6.5</v>
@@ -75676,16 +75676,16 @@
         <v>4.8</v>
       </c>
       <c r="AN464" s="1">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AO464" s="1">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AP464" s="1">
         <v>8.4</v>
       </c>
       <c r="AQ464" s="1">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AR464" s="1">
         <v>3.5</v>
@@ -75697,7 +75697,7 @@
         <v>5.4</v>
       </c>
       <c r="AU464" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AV464" s="1">
         <v>4</v>
@@ -75706,7 +75706,7 @@
         <v>5.3</v>
       </c>
       <c r="AX464" s="1">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AY464" s="1">
         <v>6.8</v>
@@ -75744,10 +75744,10 @@
         <v>5.3</v>
       </c>
       <c r="I465" s="1">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J465" s="1">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K465" s="1">
         <v>7.8</v>
@@ -75771,7 +75771,7 @@
         <v>6</v>
       </c>
       <c r="R465" s="1">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="S465" s="1">
         <v>4.5999999999999996</v>
@@ -75789,7 +75789,7 @@
         <v>5.9</v>
       </c>
       <c r="X465" s="1">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y465" s="1">
         <v>7.5</v>
@@ -75801,7 +75801,7 @@
         <v>7.8</v>
       </c>
       <c r="AB465" s="1">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AC465" s="1">
         <v>4.8</v>
@@ -75819,28 +75819,28 @@
         <v>6.8</v>
       </c>
       <c r="AH465" s="1">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI465" s="1">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AJ465" s="1">
         <v>6.4</v>
       </c>
       <c r="AK465" s="1">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AL465" s="1">
         <v>5.9</v>
       </c>
       <c r="AM465" s="1">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AN465" s="1">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AO465" s="1">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AP465" s="1">
         <v>8.1999999999999993</v>
@@ -75876,7 +75876,7 @@
         <v>5.6</v>
       </c>
       <c r="BA465" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="466" spans="1:53" x14ac:dyDescent="0.2">
@@ -75887,7 +75887,7 @@
         <v>6.3</v>
       </c>
       <c r="C466" s="1">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D466" s="1">
         <v>7</v>
@@ -75932,13 +75932,13 @@
         <v>6</v>
       </c>
       <c r="R466" s="1">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="S466" s="1">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="T466" s="1">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="U466" s="1">
         <v>6</v>
@@ -75947,16 +75947,16 @@
         <v>5.7</v>
       </c>
       <c r="W466" s="1">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X466" s="1">
         <v>5.8</v>
       </c>
       <c r="Y466" s="1">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z466" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="AA466" s="1">
         <v>7.7</v>
@@ -75968,10 +75968,10 @@
         <v>4.7</v>
       </c>
       <c r="AD466" s="1">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AE466" s="1">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AF466" s="1">
         <v>4.4000000000000004</v>
@@ -75983,28 +75983,28 @@
         <v>6.8</v>
       </c>
       <c r="AI466" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AJ466" s="1">
         <v>6.4</v>
       </c>
       <c r="AK466" s="1">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AL466" s="1">
         <v>5.8</v>
       </c>
       <c r="AM466" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="AN466" s="1">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AO466" s="1">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AP466" s="1">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AQ466" s="1">
         <v>6.2</v>
@@ -76031,13 +76031,13 @@
         <v>6.1</v>
       </c>
       <c r="AY466" s="1">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AZ466" s="1">
         <v>5.5</v>
       </c>
       <c r="BA466" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="467" spans="1:53" x14ac:dyDescent="0.2">
@@ -76087,13 +76087,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="P467" s="1">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Q467" s="1">
         <v>5.9</v>
       </c>
       <c r="R467" s="1">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="S467" s="1">
         <v>4.5</v>
@@ -76105,7 +76105,7 @@
         <v>6.2</v>
       </c>
       <c r="V467" s="1">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="W467" s="1">
         <v>5.8</v>
@@ -76114,22 +76114,22 @@
         <v>5.7</v>
       </c>
       <c r="Y467" s="1">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Z467" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA467" s="1">
         <v>7.6</v>
       </c>
       <c r="AB467" s="1">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AC467" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="AD467" s="1">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AE467" s="1">
         <v>7.9</v>
@@ -76150,16 +76150,16 @@
         <v>6.3</v>
       </c>
       <c r="AK467" s="1">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AL467" s="1">
         <v>5.7</v>
       </c>
       <c r="AM467" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AN467" s="1">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AO467" s="1">
         <v>5.8</v>
@@ -76180,10 +76180,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AU467" s="1">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AV467" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AW467" s="1">
         <v>5.2</v>
@@ -76198,7 +76198,7 @@
         <v>5.4</v>
       </c>
       <c r="BA467" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="468" spans="1:53" x14ac:dyDescent="0.2">
@@ -76212,10 +76212,10 @@
         <v>6.7</v>
       </c>
       <c r="D468" s="1">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="E468" s="1">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F468" s="1">
         <v>5.9</v>
@@ -76224,13 +76224,13 @@
         <v>7.4</v>
       </c>
       <c r="H468" s="1">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I468" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="J468" s="1">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K468" s="1">
         <v>7.8</v>
@@ -76248,22 +76248,22 @@
         <v>4.8</v>
       </c>
       <c r="P468" s="1">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Q468" s="1">
         <v>5.8</v>
       </c>
       <c r="R468" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="S468" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="T468" s="1">
         <v>6.2</v>
       </c>
       <c r="U468" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="V468" s="1">
         <v>5.6</v>
@@ -76278,7 +76278,7 @@
         <v>7</v>
       </c>
       <c r="Z468" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AA468" s="1">
         <v>7.4</v>
@@ -76296,7 +76296,7 @@
         <v>7.8</v>
       </c>
       <c r="AF468" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AG468" s="1">
         <v>6.6</v>
@@ -76317,10 +76317,10 @@
         <v>5.6</v>
       </c>
       <c r="AM468" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AN468" s="1">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AO468" s="1">
         <v>5.7</v>
@@ -76332,7 +76332,7 @@
         <v>6.4</v>
       </c>
       <c r="AR468" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AS468" s="1">
         <v>6.5</v>
@@ -76344,7 +76344,7 @@
         <v>3.7</v>
       </c>
       <c r="AV468" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AW468" s="1">
         <v>5.2</v>
@@ -76370,7 +76370,7 @@
         <v>6.2</v>
       </c>
       <c r="C469" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="D469" s="1">
         <v>6.9</v>
@@ -76379,7 +76379,7 @@
         <v>6.6</v>
       </c>
       <c r="F469" s="1">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="G469" s="1">
         <v>7.3</v>
@@ -76391,13 +76391,13 @@
         <v>6.4</v>
       </c>
       <c r="J469" s="1">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K469" s="1">
         <v>7.8</v>
       </c>
       <c r="L469" s="1">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M469" s="1">
         <v>7</v>
@@ -76406,16 +76406,16 @@
         <v>4.3</v>
       </c>
       <c r="O469" s="1">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="P469" s="1">
         <v>6.6</v>
       </c>
       <c r="Q469" s="1">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="R469" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="S469" s="1">
         <v>4.4000000000000004</v>
@@ -76424,7 +76424,7 @@
         <v>6</v>
       </c>
       <c r="U469" s="1">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="V469" s="1">
         <v>5.5</v>
@@ -76439,7 +76439,7 @@
         <v>6.8</v>
       </c>
       <c r="Z469" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AA469" s="1">
         <v>7.3</v>
@@ -76451,13 +76451,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AD469" s="1">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AE469" s="1">
         <v>7.6</v>
       </c>
       <c r="AF469" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AG469" s="1">
         <v>6.6</v>
@@ -76466,7 +76466,7 @@
         <v>6.6</v>
       </c>
       <c r="AI469" s="1">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AJ469" s="1">
         <v>6.1</v>
@@ -76505,7 +76505,7 @@
         <v>3.7</v>
       </c>
       <c r="AV469" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AW469" s="1">
         <v>5.0999999999999996</v>
@@ -76537,7 +76537,7 @@
         <v>6.8</v>
       </c>
       <c r="E470" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F470" s="1">
         <v>5.8</v>
@@ -76549,7 +76549,7 @@
         <v>4.5</v>
       </c>
       <c r="I470" s="1">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J470" s="1">
         <v>5.5</v>
@@ -76570,16 +76570,16 @@
         <v>4.7</v>
       </c>
       <c r="P470" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q470" s="1">
         <v>5.7</v>
       </c>
       <c r="R470" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="S470" s="1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T470" s="1">
         <v>5.8</v>
@@ -76588,7 +76588,7 @@
         <v>6.8</v>
       </c>
       <c r="V470" s="1">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="W470" s="1">
         <v>5.6</v>
@@ -76600,13 +76600,13 @@
         <v>6.7</v>
       </c>
       <c r="Z470" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AA470" s="1">
         <v>7.2</v>
       </c>
       <c r="AB470" s="1">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AC470" s="1">
         <v>4.5</v>
@@ -76615,7 +76615,7 @@
         <v>3.1</v>
       </c>
       <c r="AE470" s="1">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AF470" s="1">
         <v>4.0999999999999996</v>
@@ -76624,7 +76624,7 @@
         <v>6.6</v>
       </c>
       <c r="AH470" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI470" s="1">
         <v>6</v>
@@ -76657,7 +76657,7 @@
         <v>3.3</v>
       </c>
       <c r="AS470" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AT470" s="1">
         <v>4.8</v>
@@ -76666,22 +76666,22 @@
         <v>3.7</v>
       </c>
       <c r="AV470" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AW470" s="1">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AX470" s="1">
         <v>6</v>
       </c>
       <c r="AY470" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AZ470" s="1">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BA470" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="471" spans="1:53" x14ac:dyDescent="0.2">
@@ -76728,16 +76728,16 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O471" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="P471" s="1">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Q471" s="1">
         <v>5.7</v>
       </c>
       <c r="R471" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S471" s="1">
         <v>4.3</v>
@@ -76749,7 +76749,7 @@
         <v>6.9</v>
       </c>
       <c r="V471" s="1">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="W471" s="1">
         <v>5.6</v>
@@ -76761,19 +76761,19 @@
         <v>6.5</v>
       </c>
       <c r="Z471" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AA471" s="1">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB471" s="1">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AC471" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="AD471" s="1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AE471" s="1">
         <v>7.5</v>
@@ -76782,7 +76782,7 @@
         <v>4</v>
       </c>
       <c r="AG471" s="1">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AH471" s="1">
         <v>6.5</v>
@@ -76794,7 +76794,7 @@
         <v>5.9</v>
       </c>
       <c r="AK471" s="1">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AL471" s="1">
         <v>5.3</v>
@@ -76803,7 +76803,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AN471" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AO471" s="1">
         <v>5.4</v>
@@ -76815,7 +76815,7 @@
         <v>6.6</v>
       </c>
       <c r="AR471" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AS471" s="1">
         <v>6.4</v>
@@ -76836,13 +76836,13 @@
         <v>6</v>
       </c>
       <c r="AY471" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AZ471" s="1">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="BA471" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="472" spans="1:53" x14ac:dyDescent="0.2">
@@ -76859,7 +76859,7 @@
         <v>6.6</v>
       </c>
       <c r="E472" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F472" s="1">
         <v>5.6</v>
@@ -76880,7 +76880,7 @@
         <v>7.6</v>
       </c>
       <c r="L472" s="1">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M472" s="1">
         <v>6.5</v>
@@ -76898,16 +76898,16 @@
         <v>5.6</v>
       </c>
       <c r="R472" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S472" s="1">
         <v>4.3</v>
       </c>
       <c r="T472" s="1">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U472" s="1">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="V472" s="1">
         <v>5.2</v>
@@ -76922,13 +76922,13 @@
         <v>6.4</v>
       </c>
       <c r="Z472" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AA472" s="1">
         <v>6.9</v>
       </c>
       <c r="AB472" s="1">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AC472" s="1">
         <v>4.4000000000000004</v>
@@ -76943,25 +76943,25 @@
         <v>3.9</v>
       </c>
       <c r="AG472" s="1">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AH472" s="1">
         <v>6.4</v>
       </c>
       <c r="AI472" s="1">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AJ472" s="1">
         <v>5.8</v>
       </c>
       <c r="AK472" s="1">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AL472" s="1">
         <v>5.2</v>
       </c>
       <c r="AM472" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AN472" s="1">
         <v>6.3</v>
@@ -76970,7 +76970,7 @@
         <v>5.4</v>
       </c>
       <c r="AP472" s="1">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AQ472" s="1">
         <v>6.6</v>
@@ -76988,7 +76988,7 @@
         <v>3.6</v>
       </c>
       <c r="AV472" s="1">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AW472" s="1">
         <v>4.9000000000000004</v>
@@ -76997,13 +76997,13 @@
         <v>5.9</v>
       </c>
       <c r="AY472" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AZ472" s="1">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BA472" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:53" x14ac:dyDescent="0.2">
@@ -77059,13 +77059,13 @@
         <v>5.5</v>
       </c>
       <c r="R473" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="S473" s="1">
         <v>4.3</v>
       </c>
       <c r="T473" s="1">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="U473" s="1">
         <v>6.9</v>
@@ -77086,16 +77086,16 @@
         <v>3.8</v>
       </c>
       <c r="AA473" s="1">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB473" s="1">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AC473" s="1">
         <v>4.3</v>
       </c>
       <c r="AD473" s="1">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AE473" s="1">
         <v>7.3</v>
@@ -77104,7 +77104,7 @@
         <v>3.9</v>
       </c>
       <c r="AG473" s="1">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AH473" s="1">
         <v>6.4</v>
@@ -77122,13 +77122,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AM473" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AN473" s="1">
         <v>6.1</v>
       </c>
       <c r="AO473" s="1">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AP473" s="1">
         <v>6.6</v>
@@ -77152,10 +77152,10 @@
         <v>3.8</v>
       </c>
       <c r="AW473" s="1">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AX473" s="1">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AY473" s="1">
         <v>6.5</v>
@@ -77164,7 +77164,7 @@
         <v>4.8</v>
       </c>
       <c r="BA473" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="474" spans="1:53" x14ac:dyDescent="0.2">
@@ -77181,7 +77181,7 @@
         <v>6.4</v>
       </c>
       <c r="E474" s="1">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F474" s="1">
         <v>5.6</v>
@@ -77199,7 +77199,7 @@
         <v>5</v>
       </c>
       <c r="K474" s="1">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="L474" s="1">
         <v>5.7</v>
@@ -77211,7 +77211,7 @@
         <v>4</v>
       </c>
       <c r="O474" s="1">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="P474" s="1">
         <v>6</v>
@@ -77220,7 +77220,7 @@
         <v>5.4</v>
       </c>
       <c r="R474" s="1">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="S474" s="1">
         <v>4.3</v>
@@ -77229,7 +77229,7 @@
         <v>5.3</v>
       </c>
       <c r="U474" s="1">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="V474" s="1">
         <v>4.9000000000000004</v>
@@ -77238,19 +77238,19 @@
         <v>5.4</v>
       </c>
       <c r="X474" s="1">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Y474" s="1">
         <v>6</v>
       </c>
       <c r="Z474" s="1">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AA474" s="1">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB474" s="1">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AC474" s="1">
         <v>4.2</v>
@@ -77259,13 +77259,13 @@
         <v>2.9</v>
       </c>
       <c r="AE474" s="1">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AF474" s="1">
         <v>3.8</v>
       </c>
       <c r="AG474" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AH474" s="1">
         <v>6.4</v>
@@ -77289,7 +77289,7 @@
         <v>5.9</v>
       </c>
       <c r="AO474" s="1">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AP474" s="1">
         <v>6.5</v>
@@ -77316,16 +77316,16 @@
         <v>4.8</v>
       </c>
       <c r="AX474" s="1">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AY474" s="1">
         <v>6.6</v>
       </c>
       <c r="AZ474" s="1">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BA474" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="475" spans="1:53" x14ac:dyDescent="0.2">
@@ -77342,13 +77342,13 @@
         <v>6.4</v>
       </c>
       <c r="E475" s="1">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="F475" s="1">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="G475" s="1">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="H475" s="1">
         <v>4.0999999999999996</v>
@@ -77357,10 +77357,10 @@
         <v>6</v>
       </c>
       <c r="J475" s="1">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="K475" s="1">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="L475" s="1">
         <v>5.6</v>
@@ -77375,25 +77375,25 @@
         <v>4.2</v>
       </c>
       <c r="P475" s="1">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Q475" s="1">
         <v>5.2</v>
       </c>
       <c r="R475" s="1">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="S475" s="1">
         <v>4.3</v>
       </c>
       <c r="T475" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="U475" s="1">
         <v>6.7</v>
       </c>
       <c r="V475" s="1">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="W475" s="1">
         <v>5.4</v>
@@ -77405,28 +77405,28 @@
         <v>5.9</v>
       </c>
       <c r="Z475" s="1">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AA475" s="1">
         <v>6.6</v>
       </c>
       <c r="AB475" s="1">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AC475" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="AD475" s="1">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AE475" s="1">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AF475" s="1">
         <v>3.7</v>
       </c>
       <c r="AG475" s="1">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AH475" s="1">
         <v>6.5</v>
@@ -77444,19 +77444,19 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AM475" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="AN475" s="1">
         <v>5.8</v>
       </c>
       <c r="AO475" s="1">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AP475" s="1">
         <v>6.4</v>
       </c>
       <c r="AQ475" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AR475" s="1">
         <v>3.3</v>
@@ -77486,7 +77486,7 @@
         <v>4.7</v>
       </c>
       <c r="BA475" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="476" spans="1:53" x14ac:dyDescent="0.2">
@@ -77497,19 +77497,19 @@
         <v>5.4</v>
       </c>
       <c r="C476" s="1">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="D476" s="1">
         <v>6.4</v>
       </c>
       <c r="E476" s="1">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="F476" s="1">
         <v>5.5</v>
       </c>
       <c r="G476" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H476" s="1">
         <v>4</v>
@@ -77524,7 +77524,7 @@
         <v>7.2</v>
       </c>
       <c r="L476" s="1">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M476" s="1">
         <v>6.2</v>
@@ -77533,7 +77533,7 @@
         <v>3.9</v>
       </c>
       <c r="O476" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="P476" s="1">
         <v>5.9</v>
@@ -77542,13 +77542,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="R476" s="1">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="S476" s="1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T476" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="U476" s="1">
         <v>6.6</v>
@@ -77560,34 +77560,34 @@
         <v>5.3</v>
       </c>
       <c r="X476" s="1">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="Y476" s="1">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z476" s="1">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AA476" s="1">
         <v>6.5</v>
       </c>
       <c r="AB476" s="1">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AC476" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="AD476" s="1">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AE476" s="1">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AF476" s="1">
         <v>3.7</v>
       </c>
       <c r="AG476" s="1">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AH476" s="1">
         <v>6.5</v>
@@ -77605,10 +77605,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AM476" s="1">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AN476" s="1">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO476" s="1">
         <v>5.3</v>
@@ -77623,7 +77623,7 @@
         <v>3.2</v>
       </c>
       <c r="AS476" s="1">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AT476" s="1">
         <v>4.4000000000000004</v>
@@ -77664,19 +77664,19 @@
         <v>6.4</v>
       </c>
       <c r="E477" s="1">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="F477" s="1">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="G477" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="H477" s="1">
         <v>4</v>
       </c>
       <c r="I477" s="1">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J477" s="1">
         <v>4.9000000000000004</v>
@@ -77703,13 +77703,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="R477" s="1">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="S477" s="1">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T477" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="U477" s="1">
         <v>6.5</v>
@@ -77718,28 +77718,28 @@
         <v>4.5</v>
       </c>
       <c r="W477" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="X477" s="1">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Y477" s="1">
         <v>5.6</v>
       </c>
       <c r="Z477" s="1">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AA477" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB477" s="1">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AC477" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AD477" s="1">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AE477" s="1">
         <v>6.9</v>
@@ -77748,10 +77748,10 @@
         <v>3.6</v>
       </c>
       <c r="AG477" s="1">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AH477" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI477" s="1">
         <v>5.5</v>
@@ -77772,28 +77772,28 @@
         <v>5.7</v>
       </c>
       <c r="AO477" s="1">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AP477" s="1">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AQ477" s="1">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AR477" s="1">
         <v>3.2</v>
       </c>
       <c r="AS477" s="1">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AT477" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="AU477" s="1">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AV477" s="1">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AW477" s="1">
         <v>4.5999999999999996</v>
@@ -77802,13 +77802,13 @@
         <v>5.6</v>
       </c>
       <c r="AY477" s="1">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AZ477" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="BA477" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="478" spans="1:53" x14ac:dyDescent="0.2">
@@ -77825,13 +77825,13 @@
         <v>6.4</v>
       </c>
       <c r="E478" s="1">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="F478" s="1">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G478" s="1">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H478" s="1">
         <v>3.9</v>
@@ -77849,7 +77849,7 @@
         <v>5.4</v>
       </c>
       <c r="M478" s="1">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="N478" s="1">
         <v>3.7</v>
@@ -77864,55 +77864,55 @@
         <v>4.8</v>
       </c>
       <c r="R478" s="1">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="S478" s="1">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T478" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="U478" s="1">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="V478" s="1">
         <v>4.5</v>
       </c>
       <c r="W478" s="1">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="X478" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="Y478" s="1">
         <v>5.5</v>
       </c>
       <c r="Z478" s="1">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AA478" s="1">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB478" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="AC478" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="AD478" s="1">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AE478" s="1">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AF478" s="1">
         <v>3.5</v>
       </c>
       <c r="AG478" s="1">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AH478" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI478" s="1">
         <v>5.4</v>
@@ -77924,16 +77924,16 @@
         <v>2.8</v>
       </c>
       <c r="AL478" s="1">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="AM478" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="AN478" s="1">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO478" s="1">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AP478" s="1">
         <v>6.1</v>
@@ -77945,7 +77945,7 @@
         <v>3.2</v>
       </c>
       <c r="AS478" s="1">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AT478" s="1">
         <v>4.4000000000000004</v>
@@ -77954,7 +77954,7 @@
         <v>3.6</v>
       </c>
       <c r="AV478" s="1">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AW478" s="1">
         <v>4.5</v>
@@ -77963,13 +77963,13 @@
         <v>5.6</v>
       </c>
       <c r="AY478" s="1">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AZ478" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="BA478" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="479" spans="1:53" x14ac:dyDescent="0.2">
@@ -77983,25 +77983,25 @@
         <v>6.1</v>
       </c>
       <c r="D479" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E479" s="1">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="F479" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G479" s="1">
         <v>6.2</v>
       </c>
       <c r="H479" s="1">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I479" s="1">
         <v>5.5</v>
       </c>
       <c r="J479" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="K479" s="1">
         <v>6.9</v>
@@ -78019,19 +78019,19 @@
         <v>4.2</v>
       </c>
       <c r="P479" s="1">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Q479" s="1">
         <v>4.7</v>
       </c>
       <c r="R479" s="1">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="S479" s="1">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T479" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="U479" s="1">
         <v>6.2</v>
@@ -78043,40 +78043,40 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="X479" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="Y479" s="1">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z479" s="1">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AA479" s="1">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB479" s="1">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AC479" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="AD479" s="1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AE479" s="1">
         <v>6.8</v>
       </c>
       <c r="AF479" s="1">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AG479" s="1">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AH479" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI479" s="1">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AJ479" s="1">
         <v>5.8</v>
@@ -78085,16 +78085,16 @@
         <v>2.8</v>
       </c>
       <c r="AL479" s="1">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AM479" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="AN479" s="1">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO479" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="AP479" s="1">
         <v>6</v>
@@ -78103,10 +78103,10 @@
         <v>5.9</v>
       </c>
       <c r="AR479" s="1">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AS479" s="1">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AT479" s="1">
         <v>4.4000000000000004</v>
@@ -78115,7 +78115,7 @@
         <v>3.6</v>
       </c>
       <c r="AV479" s="1">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AW479" s="1">
         <v>4.4000000000000004</v>
@@ -78124,10 +78124,10 @@
         <v>5.6</v>
       </c>
       <c r="AY479" s="1">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AZ479" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="BA479" s="1">
         <v>4.2</v>
@@ -78144,13 +78144,13 @@
         <v>6.1</v>
       </c>
       <c r="D480" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E480" s="1">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="F480" s="1">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G480" s="1">
         <v>6.1</v>
@@ -78162,19 +78162,19 @@
         <v>5.4</v>
       </c>
       <c r="J480" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="K480" s="1">
         <v>6.8</v>
       </c>
       <c r="L480" s="1">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M480" s="1">
         <v>5.7</v>
       </c>
       <c r="N480" s="1">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O480" s="1">
         <v>4.2</v>
@@ -78183,100 +78183,100 @@
         <v>5.8</v>
       </c>
       <c r="Q480" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="R480" s="1">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="S480" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="T480" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="U480" s="1">
         <v>6.1</v>
       </c>
       <c r="V480" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="W480" s="1">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="X480" s="1">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y480" s="1">
         <v>5.2</v>
       </c>
       <c r="Z480" s="1">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AA480" s="1">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB480" s="1">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AC480" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="AD480" s="1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AE480" s="1">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AF480" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AG480" s="1">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AH480" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI480" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="AJ480" s="1">
         <v>5.7</v>
       </c>
       <c r="AK480" s="1">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AL480" s="1">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AM480" s="1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AN480" s="1">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO480" s="1">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AP480" s="1">
         <v>5.9</v>
       </c>
       <c r="AQ480" s="1">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AR480" s="1">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AS480" s="1">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AT480" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="AU480" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AV480" s="1">
         <v>3.5</v>
-      </c>
-      <c r="AV480" s="1">
-        <v>3.7</v>
       </c>
       <c r="AW480" s="1">
         <v>4.3</v>
@@ -78288,7 +78288,7 @@
         <v>6.9</v>
       </c>
       <c r="AZ480" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="BA480" s="1">
         <v>4.3</v>
@@ -78305,13 +78305,13 @@
         <v>6.1</v>
       </c>
       <c r="D481" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E481" s="1">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="F481" s="1">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G481" s="1">
         <v>6</v>
@@ -78320,10 +78320,10 @@
         <v>3.7</v>
       </c>
       <c r="I481" s="1">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J481" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="K481" s="1">
         <v>6.7</v>
@@ -78332,91 +78332,91 @@
         <v>5.2</v>
       </c>
       <c r="M481" s="1">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="N481" s="1">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O481" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="P481" s="1">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Q481" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="R481" s="1">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="S481" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="T481" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="U481" s="1">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="V481" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="W481" s="1">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X481" s="1">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Y481" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="Z481" s="1">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AA481" s="1">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB481" s="1">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AC481" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="AD481" s="1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AE481" s="1">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AF481" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AG481" s="1">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AH481" s="1">
         <v>6.5</v>
       </c>
       <c r="AI481" s="1">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AJ481" s="1">
         <v>5.7</v>
       </c>
       <c r="AK481" s="1">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AL481" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="AM481" s="1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AN481" s="1">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AO481" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="AP481" s="1">
         <v>5.8</v>
@@ -78425,19 +78425,19 @@
         <v>5.6</v>
       </c>
       <c r="AR481" s="1">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AS481" s="1">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AT481" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="AU481" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AV481" s="1">
         <v>3.5</v>
-      </c>
-      <c r="AV481" s="1">
-        <v>3.7</v>
       </c>
       <c r="AW481" s="1">
         <v>4.2</v>
@@ -78449,7 +78449,7 @@
         <v>6.7</v>
       </c>
       <c r="AZ481" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="BA481" s="1">
         <v>4.3</v>
@@ -78469,28 +78469,28 @@
         <v>6.5</v>
       </c>
       <c r="E482" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="F482" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="G482" s="1">
         <v>5.9</v>
-      </c>
-      <c r="F482" s="1">
-        <v>5</v>
-      </c>
-      <c r="G482" s="1">
-        <v>6</v>
       </c>
       <c r="H482" s="1">
         <v>3.6</v>
       </c>
       <c r="I482" s="1">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J482" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="K482" s="1">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="L482" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="M482" s="1">
         <v>5.6</v>
@@ -78505,55 +78505,55 @@
         <v>5.9</v>
       </c>
       <c r="Q482" s="1">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R482" s="1">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="S482" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="T482" s="1">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="U482" s="1">
         <v>6</v>
       </c>
       <c r="V482" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W482" s="1">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="X482" s="1">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Y482" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="Z482" s="1">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AA482" s="1">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB482" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="AC482" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="AD482" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE482" s="1">
         <v>6.6</v>
       </c>
       <c r="AF482" s="1">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AG482" s="1">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AH482" s="1">
         <v>6.5</v>
@@ -78562,22 +78562,22 @@
         <v>5</v>
       </c>
       <c r="AJ482" s="1">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AK482" s="1">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AL482" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="AM482" s="1">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AN482" s="1">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AO482" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="AP482" s="1">
         <v>5.6</v>
@@ -78586,34 +78586,34 @@
         <v>5.5</v>
       </c>
       <c r="AR482" s="1">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AS482" s="1">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AT482" s="1">
         <v>4.5</v>
       </c>
       <c r="AU482" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AV482" s="1">
         <v>3.5</v>
       </c>
-      <c r="AV482" s="1">
-        <v>3.7</v>
-      </c>
       <c r="AW482" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AX482" s="1">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AY482" s="1">
         <v>6.6</v>
       </c>
       <c r="AZ482" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="BA482" s="1">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="483" spans="1:53" x14ac:dyDescent="0.2">
@@ -78627,118 +78627,118 @@
         <v>6.1</v>
       </c>
       <c r="D483" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E483" s="1">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F483" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G483" s="1">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H483" s="1">
         <v>3.6</v>
       </c>
       <c r="I483" s="1">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J483" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="K483" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L483" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="M483" s="1">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="N483" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O483" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P483" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q483" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R483" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="S483" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T483" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="U483" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="V483" s="1">
         <v>4</v>
       </c>
-      <c r="P483" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="Q483" s="1">
+      <c r="W483" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="X483" s="1">
         <v>4.5</v>
-      </c>
-      <c r="R483" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="S483" s="1">
-        <v>4</v>
-      </c>
-      <c r="T483" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="U483" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="V483" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="W483" s="1">
-        <v>5</v>
-      </c>
-      <c r="X483" s="1">
-        <v>4.8</v>
       </c>
       <c r="Y483" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="Z483" s="1">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AA483" s="1">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AB483" s="1">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AC483" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="AD483" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE483" s="1">
         <v>6.5</v>
       </c>
       <c r="AF483" s="1">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AG483" s="1">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AH483" s="1">
         <v>6.5</v>
       </c>
       <c r="AI483" s="1">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="AJ483" s="1">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AK483" s="1">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AL483" s="1">
         <v>4.7</v>
       </c>
       <c r="AM483" s="1">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AN483" s="1">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AO483" s="1">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AP483" s="1">
         <v>5.6</v>
@@ -78747,34 +78747,34 @@
         <v>5.5</v>
       </c>
       <c r="AR483" s="1">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AS483" s="1">
-        <v>5.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AT483" s="1">
         <v>4.5</v>
       </c>
       <c r="AU483" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AV483" s="1">
         <v>3.4</v>
       </c>
-      <c r="AV483" s="1">
-        <v>3.6</v>
-      </c>
       <c r="AW483" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AX483" s="1">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AY483" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AZ483" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="BA483" s="1">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="484" spans="1:53" x14ac:dyDescent="0.2">
@@ -78785,121 +78785,121 @@
         <v>5</v>
       </c>
       <c r="C484" s="1">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="D484" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E484" s="1">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="F484" s="1">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G484" s="1">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H484" s="1">
         <v>3.5</v>
       </c>
       <c r="I484" s="1">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J484" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="K484" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L484" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="M484" s="1">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="N484" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O484" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P484" s="1">
         <v>6</v>
       </c>
       <c r="Q484" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R484" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="S484" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T484" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="U484" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="V484" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="W484" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="X484" s="1">
         <v>4.5</v>
       </c>
-      <c r="R484" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="S484" s="1">
-        <v>4</v>
-      </c>
-      <c r="T484" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="U484" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="V484" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="W484" s="1">
+      <c r="Y484" s="1">
         <v>5</v>
       </c>
-      <c r="X484" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Y484" s="1">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="Z484" s="1">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AA484" s="1">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AB484" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AC484" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="AD484" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE484" s="1">
         <v>6.4</v>
       </c>
       <c r="AF484" s="1">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG484" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH484" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI484" s="1">
         <v>4.9000000000000004</v>
       </c>
       <c r="AJ484" s="1">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AK484" s="1">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AL484" s="1">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AM484" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="AN484" s="1">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AO484" s="1">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="AP484" s="1">
         <v>5.5</v>
@@ -78908,34 +78908,34 @@
         <v>5.5</v>
       </c>
       <c r="AR484" s="1">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AS484" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT484" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AU484" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AV484" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AW484" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AX484" s="1">
         <v>5.6</v>
       </c>
-      <c r="AT484" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AU484" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="AV484" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="AW484" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="AX484" s="1">
-        <v>5.7</v>
-      </c>
       <c r="AY484" s="1">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AZ484" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BA484" s="1">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="485" spans="1:53" x14ac:dyDescent="0.2">
@@ -78946,43 +78946,43 @@
         <v>5</v>
       </c>
       <c r="C485" s="1">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="D485" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E485" s="1">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F485" s="1">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="G485" s="1">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H485" s="1">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I485" s="1">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J485" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K485" s="1">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L485" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="M485" s="1">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="N485" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O485" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="P485" s="1">
         <v>6.1</v>
@@ -78991,112 +78991,112 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="R485" s="1">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="S485" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="T485" s="1">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="U485" s="1">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="V485" s="1">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="W485" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="X485" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y485" s="1">
         <v>5</v>
       </c>
-      <c r="X485" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Y485" s="1">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="Z485" s="1">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AA485" s="1">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AB485" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AC485" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="AD485" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE485" s="1">
         <v>6.3</v>
       </c>
       <c r="AF485" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AG485" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH485" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="AI485" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AJ485" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="AK485" s="1">
         <v>3.1</v>
       </c>
-      <c r="AG485" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="AH485" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="AI485" s="1">
-        <v>5</v>
-      </c>
-      <c r="AJ485" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="AK485" s="1">
-        <v>2.7</v>
-      </c>
       <c r="AL485" s="1">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AM485" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AN485" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AO485" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="AP485" s="1">
         <v>5.5</v>
-      </c>
-      <c r="AO485" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="AP485" s="1">
-        <v>5.4</v>
       </c>
       <c r="AQ485" s="1">
         <v>5.5</v>
       </c>
       <c r="AR485" s="1">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AS485" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AT485" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AU485" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AV485" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AW485" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AX485" s="1">
         <v>5.6</v>
       </c>
-      <c r="AT485" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AU485" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="AV485" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="AW485" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="AX485" s="1">
-        <v>5.8</v>
-      </c>
       <c r="AY485" s="1">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AZ485" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="BA485" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="486" spans="1:53" x14ac:dyDescent="0.2">
@@ -79107,97 +79107,97 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C486" s="1">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="D486" s="1">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E486" s="1">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="F486" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="G486" s="1">
         <v>5.7</v>
       </c>
       <c r="H486" s="1">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I486" s="1">
         <v>5.5</v>
       </c>
       <c r="J486" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="K486" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="L486" s="1">
+        <v>5</v>
+      </c>
+      <c r="M486" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="N486" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="O486" s="1">
+        <v>4</v>
+      </c>
+      <c r="P486" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="Q486" s="1">
         <v>4.7</v>
       </c>
-      <c r="K486" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="L486" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M486" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="N486" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="O486" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="P486" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="Q486" s="1">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="R486" s="1">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="S486" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="T486" s="1">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="U486" s="1">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="V486" s="1">
         <v>3.8</v>
       </c>
       <c r="W486" s="1">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X486" s="1">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="Y486" s="1">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="Z486" s="1">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AA486" s="1">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="AB486" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AC486" s="1">
         <v>4.2</v>
       </c>
-      <c r="AC486" s="1">
-        <v>4.0999999999999996</v>
-      </c>
       <c r="AD486" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE486" s="1">
         <v>6.2</v>
       </c>
       <c r="AF486" s="1">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AG486" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AH486" s="1">
         <v>6.5</v>
@@ -79206,22 +79206,22 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AJ486" s="1">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AK486" s="1">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AL486" s="1">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="AM486" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="AN486" s="1">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="AO486" s="1">
-        <v>4.5999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="AP486" s="1">
         <v>5.4</v>
@@ -79230,34 +79230,34 @@
         <v>5.5</v>
       </c>
       <c r="AR486" s="1">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AS486" s="1">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="AT486" s="1">
         <v>4.5</v>
       </c>
       <c r="AU486" s="1">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AV486" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AW486" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="AX486" s="1">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AY486" s="1">
         <v>6.3</v>
       </c>
       <c r="AZ486" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="BA486" s="1">
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="487" spans="1:53" x14ac:dyDescent="0.2">
@@ -79268,7 +79268,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C487" s="1">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="D487" s="1">
         <v>6.6</v>
@@ -79277,28 +79277,28 @@
         <v>5.5</v>
       </c>
       <c r="F487" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G487" s="1">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H487" s="1">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I487" s="1">
         <v>5.5</v>
       </c>
       <c r="J487" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="K487" s="1">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="L487" s="1">
         <v>5</v>
       </c>
       <c r="M487" s="1">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="N487" s="1">
         <v>3.1</v>
@@ -79307,118 +79307,118 @@
         <v>3.9</v>
       </c>
       <c r="P487" s="1">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="Q487" s="1">
         <v>4.7</v>
       </c>
       <c r="R487" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="S487" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T487" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="U487" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="V487" s="1">
         <v>3.7</v>
       </c>
-      <c r="S487" s="1">
-        <v>4</v>
-      </c>
-      <c r="T487" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="U487" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="V487" s="1">
-        <v>3.6</v>
-      </c>
       <c r="W487" s="1">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="X487" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="Y487" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z487" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="AA487" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="AB487" s="1">
         <v>4.5</v>
-      </c>
-      <c r="Y487" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="Z487" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="AA487" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="AB487" s="1">
-        <v>4.2</v>
       </c>
       <c r="AC487" s="1">
         <v>4.2</v>
       </c>
       <c r="AD487" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE487" s="1">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AF487" s="1">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AG487" s="1">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AH487" s="1">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AI487" s="1">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AJ487" s="1">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AK487" s="1">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AL487" s="1">
         <v>5</v>
       </c>
       <c r="AM487" s="1">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AN487" s="1">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AO487" s="1">
-        <v>4.5999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="AP487" s="1">
         <v>5.4</v>
       </c>
       <c r="AQ487" s="1">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AR487" s="1">
         <v>2.7</v>
       </c>
       <c r="AS487" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="AT487" s="1">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AU487" s="1">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AV487" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AW487" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="AX487" s="1">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AY487" s="1">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AZ487" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="BA487" s="1">
-        <v>5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="488" spans="1:53" x14ac:dyDescent="0.2">
@@ -79429,31 +79429,31 @@
         <v>5</v>
       </c>
       <c r="C488" s="1">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="D488" s="1">
         <v>6.6</v>
       </c>
       <c r="E488" s="1">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="F488" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="G488" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="H488" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="I488" s="1">
         <v>5.4</v>
-      </c>
-      <c r="H488" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="I488" s="1">
-        <v>5.7</v>
       </c>
       <c r="J488" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="K488" s="1">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="L488" s="1">
         <v>4.9000000000000004</v>
@@ -79465,103 +79465,103 @@
         <v>3.1</v>
       </c>
       <c r="O488" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="P488" s="1">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="Q488" s="1">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="R488" s="1">
         <v>3.8</v>
       </c>
       <c r="S488" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T488" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U488" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="V488" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="W488" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X488" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Y488" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z488" s="1">
         <v>3.9</v>
       </c>
-      <c r="T488" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="U488" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="V488" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="W488" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="X488" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Y488" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="Z488" s="1">
-        <v>3.8</v>
-      </c>
       <c r="AA488" s="1">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB488" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AC488" s="1">
         <v>4.2</v>
       </c>
-      <c r="AC488" s="1">
-        <v>4.3</v>
-      </c>
       <c r="AD488" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE488" s="1">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AF488" s="1">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AG488" s="1">
-        <v>4.4000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH488" s="1">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI488" s="1">
         <v>4.8</v>
       </c>
       <c r="AJ488" s="1">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AK488" s="1">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AL488" s="1">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="AM488" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="AN488" s="1">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AO488" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="AP488" s="1">
         <v>5.4</v>
       </c>
       <c r="AQ488" s="1">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="AR488" s="1">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AS488" s="1">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AT488" s="1">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AU488" s="1">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AV488" s="1">
         <v>3.3</v>
@@ -79570,16 +79570,16 @@
         <v>4</v>
       </c>
       <c r="AX488" s="1">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AY488" s="1">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AZ488" s="1">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BA488" s="1">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="489" spans="1:53" x14ac:dyDescent="0.2">
@@ -79590,73 +79590,73 @@
         <v>5</v>
       </c>
       <c r="C489" s="1">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="D489" s="1">
         <v>6.6</v>
       </c>
       <c r="E489" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="F489" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G489" s="1">
         <v>5.5</v>
       </c>
-      <c r="F489" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="G489" s="1">
-        <v>5.3</v>
-      </c>
       <c r="H489" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="I489" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="J489" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K489" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="L489" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M489" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="N489" s="1">
         <v>3.1</v>
       </c>
-      <c r="I489" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="J489" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="K489" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="L489" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="M489" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="N489" s="1">
-        <v>3.2</v>
-      </c>
       <c r="O489" s="1">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="P489" s="1">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="Q489" s="1">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="R489" s="1">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="S489" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T489" s="1">
+        <v>5</v>
+      </c>
+      <c r="U489" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="V489" s="1">
         <v>3.8</v>
       </c>
-      <c r="T489" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="U489" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="V489" s="1">
-        <v>3.4</v>
-      </c>
       <c r="W489" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X489" s="1">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Y489" s="1">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Z489" s="1">
         <v>3.8</v>
@@ -79665,82 +79665,82 @@
         <v>6</v>
       </c>
       <c r="AB489" s="1">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AC489" s="1">
         <v>4.2</v>
       </c>
       <c r="AD489" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE489" s="1">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AF489" s="1">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AG489" s="1">
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH489" s="1">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI489" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AJ489" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK489" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AL489" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM489" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AJ489" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="AK489" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="AL489" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="AM489" s="1">
-        <v>4.5</v>
-      </c>
       <c r="AN489" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO489" s="1">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AP489" s="1">
         <v>5.4</v>
       </c>
       <c r="AQ489" s="1">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="AR489" s="1">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AS489" s="1">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AT489" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AU489" s="1">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AV489" s="1">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AW489" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AX489" s="1">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AY489" s="1">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AZ489" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BA489" s="1">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="490" spans="1:53" x14ac:dyDescent="0.2">
@@ -79751,118 +79751,118 @@
         <v>4.7</v>
       </c>
       <c r="C490" s="1">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="D490" s="1">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E490" s="1">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="F490" s="1">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G490" s="1">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H490" s="1">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I490" s="1">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="J490" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K490" s="1">
         <v>6.1</v>
       </c>
       <c r="L490" s="1">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M490" s="1">
         <v>5.3</v>
       </c>
       <c r="N490" s="1">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O490" s="1">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="P490" s="1">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="Q490" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R490" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="S490" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T490" s="1">
         <v>5</v>
       </c>
-      <c r="R490" s="1">
+      <c r="U490" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="V490" s="1">
         <v>3.9</v>
       </c>
-      <c r="S490" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="T490" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="U490" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="V490" s="1">
-        <v>3.5</v>
-      </c>
       <c r="W490" s="1">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="X490" s="1">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Y490" s="1">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z490" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AA490" s="1">
         <v>5.9</v>
       </c>
       <c r="AB490" s="1">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AC490" s="1">
         <v>4.2</v>
       </c>
       <c r="AD490" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE490" s="1">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AF490" s="1">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AG490" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AH490" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="AI490" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AJ490" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK490" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AL490" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AH490" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="AI490" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="AJ490" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AK490" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="AL490" s="1">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="AM490" s="1">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AN490" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO490" s="1">
         <v>5.5</v>
@@ -79871,34 +79871,34 @@
         <v>5.4</v>
       </c>
       <c r="AQ490" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AR490" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AS490" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AT490" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AU490" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AV490" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AW490" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX490" s="1">
         <v>5.6</v>
       </c>
-      <c r="AR490" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="AS490" s="1">
+      <c r="AY490" s="1">
+        <v>6</v>
+      </c>
+      <c r="AZ490" s="1">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="AT490" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AU490" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="AV490" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="AW490" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="AX490" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="AY490" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="AZ490" s="1">
-        <v>4.2</v>
       </c>
       <c r="BA490" s="1">
         <v>5.6</v>
@@ -79912,55 +79912,55 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C491" s="1">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="D491" s="1">
         <v>6.7</v>
       </c>
       <c r="E491" s="1">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="F491" s="1">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G491" s="1">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H491" s="1">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I491" s="1">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="J491" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K491" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="L491" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M491" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="N491" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="O491" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P491" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="Q491" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="R491" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="S491" s="1">
         <v>4.2</v>
-      </c>
-      <c r="K491" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="L491" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="M491" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N491" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="O491" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="P491" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="Q491" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="R491" s="1">
-        <v>4</v>
-      </c>
-      <c r="S491" s="1">
-        <v>3.8</v>
       </c>
       <c r="T491" s="1">
         <v>5</v>
@@ -79969,46 +79969,46 @@
         <v>6.2</v>
       </c>
       <c r="V491" s="1">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="W491" s="1">
         <v>4.3</v>
       </c>
       <c r="X491" s="1">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="Y491" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="Z491" s="1">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AA491" s="1">
         <v>5.9</v>
       </c>
       <c r="AB491" s="1">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AC491" s="1">
         <v>4.2</v>
       </c>
       <c r="AD491" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE491" s="1">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AF491" s="1">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AG491" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="AH491" s="1">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AI491" s="1">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AJ491" s="1">
         <v>4.9000000000000004</v>
@@ -80017,43 +80017,43 @@
         <v>3.2</v>
       </c>
       <c r="AL491" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM491" s="1">
         <v>5</v>
       </c>
-      <c r="AM491" s="1">
-        <v>4.8</v>
-      </c>
       <c r="AN491" s="1">
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AO491" s="1">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AP491" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="AQ491" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AR491" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AS491" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AT491" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AU491" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AV491" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AW491" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX491" s="1">
         <v>5.5</v>
-      </c>
-      <c r="AQ491" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="AR491" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="AS491" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AT491" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="AU491" s="1">
-        <v>4</v>
-      </c>
-      <c r="AV491" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="AW491" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="AX491" s="1">
-        <v>5.8</v>
       </c>
       <c r="AY491" s="1">
         <v>6</v>
@@ -80062,7 +80062,7 @@
         <v>4.2</v>
       </c>
       <c r="BA491" s="1">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="492" spans="1:53" x14ac:dyDescent="0.2">
@@ -80073,40 +80073,40 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C492" s="1">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="D492" s="1">
         <v>6.7</v>
       </c>
       <c r="E492" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="F492" s="1">
+        <v>4</v>
+      </c>
+      <c r="G492" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="H492" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="I492" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J492" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K492" s="1">
         <v>6</v>
       </c>
-      <c r="F492" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="G492" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="H492" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="I492" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="J492" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="K492" s="1">
-        <v>5.9</v>
-      </c>
       <c r="L492" s="1">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M492" s="1">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="N492" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O492" s="1">
         <v>3.8</v>
@@ -80115,115 +80115,115 @@
         <v>5.8</v>
       </c>
       <c r="Q492" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="R492" s="1">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="S492" s="1">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T492" s="1">
         <v>5</v>
       </c>
       <c r="U492" s="1">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="V492" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="W492" s="1">
         <v>4.3</v>
       </c>
       <c r="X492" s="1">
-        <v>4.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="Y492" s="1">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Z492" s="1">
         <v>3.9</v>
       </c>
       <c r="AA492" s="1">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB492" s="1">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AC492" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AD492" s="1">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AE492" s="1">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="AF492" s="1">
         <v>2.9</v>
       </c>
       <c r="AG492" s="1">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH492" s="1">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AI492" s="1">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AJ492" s="1">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AK492" s="1">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AL492" s="1">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AM492" s="1">
         <v>5</v>
       </c>
       <c r="AN492" s="1">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AO492" s="1">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AP492" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="AQ492" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AR492" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AS492" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AT492" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AU492" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AV492" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AW492" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AX492" s="1">
         <v>5.5</v>
       </c>
-      <c r="AQ492" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="AR492" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="AS492" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="AT492" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AU492" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="AV492" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="AW492" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="AX492" s="1">
-        <v>5.8</v>
-      </c>
       <c r="AY492" s="1">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AZ492" s="1">
         <v>4.2</v>
       </c>
       <c r="BA492" s="1">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="493" spans="1:53" x14ac:dyDescent="0.2">
@@ -80234,25 +80234,25 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C493" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="D493" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E493" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F493" s="1">
+        <v>4</v>
+      </c>
+      <c r="G493" s="1">
         <v>5.4</v>
       </c>
-      <c r="D493" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="E493" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="F493" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="G493" s="1">
-        <v>5.5</v>
-      </c>
       <c r="H493" s="1">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I493" s="1">
-        <v>5.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J493" s="1">
         <v>4.3</v>
@@ -80261,130 +80261,130 @@
         <v>6</v>
       </c>
       <c r="L493" s="1">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M493" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="N493" s="1">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O493" s="1">
         <v>3.8</v>
       </c>
       <c r="P493" s="1">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Q493" s="1">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R493" s="1">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="S493" s="1">
         <v>4.3</v>
       </c>
       <c r="T493" s="1">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="U493" s="1">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="V493" s="1">
         <v>4</v>
       </c>
       <c r="W493" s="1">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="X493" s="1">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="Y493" s="1">
-        <v>4.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Z493" s="1">
         <v>4</v>
       </c>
       <c r="AA493" s="1">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB493" s="1">
-        <v>5.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="AC493" s="1">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AD493" s="1">
         <v>3.2</v>
       </c>
       <c r="AE493" s="1">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="AF493" s="1">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AG493" s="1">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AH493" s="1">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI493" s="1">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AJ493" s="1">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="AK493" s="1">
         <v>3.1</v>
       </c>
       <c r="AL493" s="1">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AM493" s="1">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="AN493" s="1">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AO493" s="1">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AP493" s="1">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AQ493" s="1">
-        <v>5.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AR493" s="1">
         <v>2.9</v>
       </c>
       <c r="AS493" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="AT493" s="1">
         <v>4.7</v>
       </c>
       <c r="AU493" s="1">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AV493" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AW493" s="1">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AX493" s="1">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AY493" s="1">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AZ493" s="1">
         <v>4.2</v>
       </c>
       <c r="BA493" s="1">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="494" spans="1:53" x14ac:dyDescent="0.2">
@@ -80395,157 +80395,157 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C494" s="1">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="D494" s="1">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E494" s="1">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F494" s="1">
         <v>4</v>
       </c>
       <c r="G494" s="1">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H494" s="1">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I494" s="1">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="J494" s="1">
         <v>4.3</v>
       </c>
       <c r="K494" s="1">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="L494" s="1">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M494" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="N494" s="1">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O494" s="1">
         <v>3.8</v>
       </c>
       <c r="P494" s="1">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Q494" s="1">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="R494" s="1">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="S494" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="T494" s="1">
         <v>5</v>
       </c>
       <c r="U494" s="1">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="V494" s="1">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="W494" s="1">
         <v>4.2</v>
       </c>
       <c r="X494" s="1">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Y494" s="1">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="Z494" s="1">
         <v>4</v>
       </c>
       <c r="AA494" s="1">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AB494" s="1">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AC494" s="1">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AD494" s="1">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AE494" s="1">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AF494" s="1">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AG494" s="1">
-        <v>5.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AH494" s="1">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI494" s="1">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AJ494" s="1">
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AK494" s="1">
         <v>3.1</v>
       </c>
       <c r="AL494" s="1">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AM494" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN494" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AO494" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AP494" s="1">
         <v>5.3</v>
       </c>
-      <c r="AN494" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="AO494" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="AP494" s="1">
-        <v>5.6</v>
-      </c>
       <c r="AQ494" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="AR494" s="1">
         <v>2.9</v>
       </c>
       <c r="AS494" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AT494" s="1">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AU494" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AV494" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AW494" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AX494" s="1">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AY494" s="1">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AZ494" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="BA494" s="1">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="495" spans="1:53" x14ac:dyDescent="0.2">
@@ -80556,157 +80556,157 @@
         <v>4.8</v>
       </c>
       <c r="C495" s="1">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="D495" s="1">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="E495" s="1">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F495" s="1">
         <v>4</v>
       </c>
       <c r="G495" s="1">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H495" s="1">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I495" s="1">
-        <v>5.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J495" s="1">
         <v>4.3</v>
       </c>
       <c r="K495" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="L495" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M495" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="N495" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="O495" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="P495" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="Q495" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="R495" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="S495" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="T495" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U495" s="1">
         <v>6.1</v>
       </c>
-      <c r="L495" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="M495" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="N495" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="O495" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="P495" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="Q495" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R495" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="S495" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="T495" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="U495" s="1">
-        <v>6.3</v>
-      </c>
       <c r="V495" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="W495" s="1">
         <v>4.2</v>
       </c>
       <c r="X495" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y495" s="1">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Z495" s="1">
         <v>4</v>
       </c>
       <c r="AA495" s="1">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AB495" s="1">
-        <v>5.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AC495" s="1">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AD495" s="1">
         <v>3.3</v>
       </c>
       <c r="AE495" s="1">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AF495" s="1">
         <v>2.8</v>
       </c>
       <c r="AG495" s="1">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="AH495" s="1">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI495" s="1">
-        <v>5.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AJ495" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AK495" s="1">
         <v>3</v>
       </c>
       <c r="AL495" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM495" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AM495" s="1">
-        <v>5.2</v>
-      </c>
       <c r="AN495" s="1">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="AO495" s="1">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AP495" s="1">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AQ495" s="1">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AR495" s="1">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AS495" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT495" s="1">
         <v>4.8</v>
-      </c>
-      <c r="AT495" s="1">
-        <v>4.7</v>
       </c>
       <c r="AU495" s="1">
         <v>3.2</v>
       </c>
       <c r="AV495" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AW495" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="AX495" s="1">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AY495" s="1">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AZ495" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="BA495" s="1">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="496" spans="1:53" x14ac:dyDescent="0.2">
@@ -80717,10 +80717,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C496" s="1">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="D496" s="1">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="E496" s="1">
         <v>5</v>
@@ -80732,136 +80732,136 @@
         <v>5.3</v>
       </c>
       <c r="H496" s="1">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I496" s="1">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J496" s="1">
         <v>4.3</v>
       </c>
       <c r="K496" s="1">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L496" s="1">
         <v>4.9000000000000004</v>
       </c>
       <c r="M496" s="1">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="N496" s="1">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O496" s="1">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="P496" s="1">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Q496" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="R496" s="1">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="S496" s="1">
         <v>4.3</v>
       </c>
       <c r="T496" s="1">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="U496" s="1">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="V496" s="1">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="W496" s="1">
         <v>4.2</v>
       </c>
       <c r="X496" s="1">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Y496" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Z496" s="1">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AA496" s="1">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB496" s="1">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AC496" s="1">
         <v>4</v>
       </c>
       <c r="AD496" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AE496" s="1">
         <v>5.2</v>
       </c>
       <c r="AF496" s="1">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AG496" s="1">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AH496" s="1">
         <v>6.7</v>
       </c>
       <c r="AI496" s="1">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AJ496" s="1">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AK496" s="1">
         <v>3</v>
       </c>
       <c r="AL496" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM496" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AM496" s="1">
+      <c r="AN496" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AO496" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AP496" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ496" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="AR496" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AS496" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AN496" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO496" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="AP496" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="AQ496" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AR496" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="AS496" s="1">
+      <c r="AT496" s="1">
         <v>4.8</v>
       </c>
-      <c r="AT496" s="1">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="AU496" s="1">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AV496" s="1">
         <v>3.2</v>
       </c>
       <c r="AW496" s="1">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AX496" s="1">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AY496" s="1">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AZ496" s="1">
         <v>4.0999999999999996</v>
@@ -80878,13 +80878,13 @@
         <v>4.7</v>
       </c>
       <c r="C497" s="1">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="D497" s="1">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E497" s="1">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="F497" s="1">
         <v>3.9</v>
@@ -80902,19 +80902,19 @@
         <v>4.3</v>
       </c>
       <c r="K497" s="1">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L497" s="1">
         <v>4.9000000000000004</v>
       </c>
       <c r="M497" s="1">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="N497" s="1">
         <v>2.9</v>
       </c>
       <c r="O497" s="1">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="P497" s="1">
         <v>5.7</v>
@@ -80923,16 +80923,16 @@
         <v>4</v>
       </c>
       <c r="R497" s="1">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="S497" s="1">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T497" s="1">
         <v>4.8</v>
       </c>
       <c r="U497" s="1">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="V497" s="1">
         <v>3.8</v>
@@ -80941,16 +80941,16 @@
         <v>4.2</v>
       </c>
       <c r="X497" s="1">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Y497" s="1">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Z497" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AA497" s="1">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB497" s="1">
         <v>4.4000000000000004</v>
@@ -80959,80 +80959,238 @@
         <v>4</v>
       </c>
       <c r="AD497" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AE497" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="AF497" s="1">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AG497" s="1">
         <v>4.7</v>
       </c>
       <c r="AH497" s="1">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI497" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="AJ497" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="AK497" s="1">
         <v>3</v>
       </c>
       <c r="AL497" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM497" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AN497" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AO497" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="AP497" s="1">
         <v>4.9000000000000004</v>
-      </c>
-      <c r="AM497" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN497" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AO497" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="AP497" s="1">
-        <v>5</v>
       </c>
       <c r="AQ497" s="1">
         <v>4.3</v>
       </c>
       <c r="AR497" s="1">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AS497" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AT497" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="AU497" s="1">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AV497" s="1">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AW497" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="AX497" s="1">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AY497" s="1">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AZ497" s="1">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BA497" s="1">
         <v>4.8</v>
       </c>
     </row>
     <row r="498" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A498" s="4"/>
+      <c r="A498" s="4">
+        <v>42736</v>
+      </c>
+      <c r="B498" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="C498" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="D498" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E498" s="1">
+        <v>5</v>
+      </c>
+      <c r="F498" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G498" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H498" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="I498" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="J498" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K498" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="L498" s="1">
+        <v>5</v>
+      </c>
+      <c r="M498" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="N498" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="O498" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="P498" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="Q498" s="1">
+        <v>4</v>
+      </c>
+      <c r="R498" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="S498" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T498" s="1">
+        <v>5</v>
+      </c>
+      <c r="U498" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="V498" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="W498" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="X498" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="Y498" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="Z498" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA498" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AB498" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AC498" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="AD498" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AE498" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF498" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AG498" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH498" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="AI498" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AJ498" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="AK498" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL498" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM498" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AN498" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="AO498" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="AP498" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AQ498" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AR498" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AS498" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="AT498" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AU498" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AV498" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AW498" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX498" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AY498" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="AZ498" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="BA498" s="1">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="499" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t>United States</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Alabama</t>
   </si>
@@ -178,7 +175,13 @@
     <t>http://www.bls.gov/lau/</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- January 2017</t>
+    <t>Unemployment Rate: January 1976 -- February 2017</t>
+  </si>
+  <si>
+    <t>Invalid data manipulation</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1640,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B488" sqref="B488"/>
+      <selection pane="bottomLeft" activeCell="B468" sqref="B468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1647,185 +1650,180 @@
   <sheetData>
     <row r="1" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AG5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AI5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AJ5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AK5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AL5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AM5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AN5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AO5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AP5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AP5" s="5" t="s">
+      <c r="AQ5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AR5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AS5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AT5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AU5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AV5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AW5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="AY5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AY5" s="5" t="s">
+      <c r="AZ5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AZ5" s="5" t="s">
+      <c r="BA5" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="BA5" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>27760</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7.9</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="C6" s="1">
         <v>6.9</v>
       </c>
@@ -2142,8 +2140,8 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>27820</v>
+      <c r="A8" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B8" s="1">
         <v>7.6</v>
@@ -81051,7 +81049,7 @@
         <v>3.8</v>
       </c>
       <c r="G498" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="H498" s="1">
         <v>2.9</v>
@@ -81084,7 +81082,7 @@
         <v>4</v>
       </c>
       <c r="R498" s="1">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="S498" s="1">
         <v>4.0999999999999996</v>
@@ -81156,7 +81154,7 @@
         <v>5.2</v>
       </c>
       <c r="AP498" s="1">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AQ498" s="1">
         <v>4.4000000000000004</v>
@@ -81193,7 +81191,165 @@
       </c>
     </row>
     <row r="499" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A499" s="4"/>
+      <c r="A499" s="4">
+        <v>42767</v>
+      </c>
+      <c r="B499" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="C499" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="D499" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="E499" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F499" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="G499" s="1">
+        <v>5</v>
+      </c>
+      <c r="H499" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="I499" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="J499" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="K499" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="L499" s="1">
+        <v>5</v>
+      </c>
+      <c r="M499" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="N499" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="O499" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="P499" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="Q499" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R499" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="S499" s="1">
+        <v>4</v>
+      </c>
+      <c r="T499" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U499" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="V499" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="W499" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="X499" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="Y499" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="Z499" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA499" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="AB499" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AC499" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AD499" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AE499" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF499" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AG499" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH499" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="AI499" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AJ499" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AK499" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AL499" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AM499" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AN499" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO499" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP499" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AQ499" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AR499" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AS499" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="AT499" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AU499" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AV499" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW499" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="AX499" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AY499" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="AZ499" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="BA499" s="1">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="500" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -186,7 +186,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- May 2017</t>
+    <t>Unemployment Rate: January 1976 -- July 2017</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E502" sqref="E502"/>
+      <selection pane="bottomLeft" activeCell="B475" sqref="B475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -81830,7 +81830,7 @@
         <v>3.2</v>
       </c>
       <c r="AV502" s="2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AW502" s="2">
         <v>3.8</v>
@@ -81849,10 +81849,326 @@
       </c>
     </row>
     <row r="503" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A503" s="6"/>
+      <c r="A503" s="6">
+        <v>42887</v>
+      </c>
+      <c r="B503" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C503" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D503" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="E503" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F503" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G503" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="H503" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I503" s="2">
+        <v>5</v>
+      </c>
+      <c r="J503" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="K503" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="L503" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M503" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="N503" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="O503" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="P503" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="Q503" s="2">
+        <v>3</v>
+      </c>
+      <c r="R503" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="S503" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="T503" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U503" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="V503" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="W503" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X503" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="Y503" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="Z503" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AA503" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB503" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AC503" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AD503" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AE503" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AF503" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AG503" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH503" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="AI503" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AJ503" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AK503" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AL503" s="2">
+        <v>5</v>
+      </c>
+      <c r="AM503" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AN503" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AO503" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP503" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AQ503" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AR503" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS503" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AT503" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AU503" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AV503" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AW503" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AX503" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AY503" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AZ503" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="BA503" s="2">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="504" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A504" s="6"/>
+      <c r="A504" s="6">
+        <v>42917</v>
+      </c>
+      <c r="B504" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="C504" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D504" s="2">
+        <v>7</v>
+      </c>
+      <c r="E504" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F504" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G504" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="H504" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I504" s="2">
+        <v>5</v>
+      </c>
+      <c r="J504" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="K504" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="L504" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M504" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="N504" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="O504" s="2">
+        <v>3</v>
+      </c>
+      <c r="P504" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="Q504" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="R504" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="S504" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="T504" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="U504" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="V504" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="W504" s="2">
+        <v>4</v>
+      </c>
+      <c r="X504" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="Y504" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="Z504" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AA504" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AB504" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AC504" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AD504" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AE504" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AF504" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AG504" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AH504" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="AI504" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AJ504" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AK504" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AL504" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AM504" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AN504" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AO504" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP504" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AQ504" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AR504" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AS504" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AT504" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AU504" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AV504" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AW504" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AX504" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AY504" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AZ504" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="BA504" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="505" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A505" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Alabama</t>
   </si>
@@ -180,13 +180,10 @@
     <t>http://www.bls.gov/lau/</t>
   </si>
   <si>
-    <t>Invalid data manipulation</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- July 2017</t>
+    <t>Unemployment Rate: January 1976 -- August 2017</t>
   </si>
 </sst>
 </file>
@@ -1653,8 +1650,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B475" sqref="B475"/>
+      <pane ySplit="5" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A505" sqref="A505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1664,7 +1661,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="15" x14ac:dyDescent="0.25">
@@ -1680,7 +1677,7 @@
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1837,7 +1834,12 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6">
+        <v>27760</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7.9</v>
+      </c>
       <c r="C6" s="2">
         <v>6.9</v>
       </c>
@@ -2154,8 +2156,8 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>53</v>
+      <c r="A8" s="6">
+        <v>27820</v>
       </c>
       <c r="B8" s="2">
         <v>7.6</v>
@@ -82068,7 +82070,7 @@
         <v>3.7</v>
       </c>
       <c r="T504" s="2">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="U504" s="2">
         <v>5.3</v>
@@ -82119,7 +82121,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AK504" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AL504" s="2">
         <v>5.2</v>
@@ -82171,7 +82173,165 @@
       </c>
     </row>
     <row r="505" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A505" s="6"/>
+      <c r="A505" s="6">
+        <v>42948</v>
+      </c>
+      <c r="B505" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C505" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D505" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E505" s="2">
+        <v>5</v>
+      </c>
+      <c r="F505" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G505" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H505" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I505" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="J505" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K505" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="L505" s="2">
+        <v>4</v>
+      </c>
+      <c r="M505" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="N505" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="O505" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="P505" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q505" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="R505" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="S505" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="T505" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="U505" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="V505" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="W505" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="X505" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="Y505" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="Z505" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AA505" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AB505" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC505" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AD505" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AE505" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF505" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AG505" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AH505" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="AI505" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AJ505" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AK505" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AL505" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="AM505" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AN505" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AO505" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AP505" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AQ505" s="2">
+        <v>4</v>
+      </c>
+      <c r="AR505" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AS505" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AT505" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AU505" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AV505" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW505" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AX505" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AY505" s="2">
+        <v>5</v>
+      </c>
+      <c r="AZ505" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="BA505" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="506" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A506" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- August 2017</t>
+    <t>Unemployment Rate: January 1976 -- September 2017</t>
   </si>
 </sst>
 </file>
@@ -1650,8 +1650,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A505" sqref="A505"/>
+      <pane ySplit="5" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C486" sqref="C486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -82231,7 +82231,7 @@
         <v>3.9</v>
       </c>
       <c r="T505" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U505" s="2">
         <v>5.2</v>
@@ -82255,7 +82255,7 @@
         <v>5.3</v>
       </c>
       <c r="AB505" s="2">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AC505" s="2">
         <v>3.9</v>
@@ -82334,7 +82334,165 @@
       </c>
     </row>
     <row r="506" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A506" s="6"/>
+      <c r="A506" s="6">
+        <v>42979</v>
+      </c>
+      <c r="B506" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="C506" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D506" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E506" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F506" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G506" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H506" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I506" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J506" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K506" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L506" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="M506" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="N506" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="O506" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="P506" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q506" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="R506" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="S506" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="T506" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="U506" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V506" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="W506" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="X506" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="Y506" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="Z506" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AA506" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AB506" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AC506" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AD506" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AE506" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF506" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AG506" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AH506" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="AI506" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AJ506" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AK506" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="AL506" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AM506" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AN506" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AO506" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AP506" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AQ506" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AR506" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AS506" s="2">
+        <v>3</v>
+      </c>
+      <c r="AT506" s="2">
+        <v>4</v>
+      </c>
+      <c r="AU506" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AV506" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AW506" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AX506" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AY506" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AZ506" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="BA506" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="507" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A507" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- September 2017</t>
+    <t>Unemployment Rate: January 1976 -- August 2017</t>
   </si>
 </sst>
 </file>
@@ -1650,8 +1650,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C486" sqref="C486"/>
+      <pane ySplit="5" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A505" sqref="A505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -82231,7 +82231,7 @@
         <v>3.9</v>
       </c>
       <c r="T505" s="2">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U505" s="2">
         <v>5.2</v>
@@ -82255,7 +82255,7 @@
         <v>5.3</v>
       </c>
       <c r="AB505" s="2">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AC505" s="2">
         <v>3.9</v>
@@ -82334,165 +82334,7 @@
       </c>
     </row>
     <row r="506" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A506" s="6">
-        <v>42979</v>
-      </c>
-      <c r="B506" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="C506" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="D506" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="E506" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="F506" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="G506" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H506" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="I506" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J506" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K506" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="L506" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="M506" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="N506" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="O506" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="P506" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q506" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="R506" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="S506" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="T506" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="U506" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="V506" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="W506" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="X506" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="Y506" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="Z506" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="AA506" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="AB506" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="AC506" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="AD506" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="AE506" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AF506" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="AG506" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="AH506" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="AI506" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AJ506" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AK506" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="AL506" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="AM506" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="AN506" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="AO506" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="AP506" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="AQ506" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="AR506" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="AS506" s="2">
-        <v>3</v>
-      </c>
-      <c r="AT506" s="2">
-        <v>4</v>
-      </c>
-      <c r="AU506" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="AV506" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="AW506" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="AX506" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AY506" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AZ506" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="BA506" s="2">
-        <v>4</v>
-      </c>
+      <c r="A506" s="6"/>
     </row>
     <row r="507" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A507" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- September 2017</t>
+    <t>Unemployment Rate: January 1976 -- October 2017</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
     <numFmt numFmtId="170" formatCode="0%_);\(0%\)"/>
     <numFmt numFmtId="171" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,26 +539,20 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1097,13 +1091,13 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="239" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="239" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="240">
     <cellStyle name="active" xfId="5"/>
@@ -1650,8 +1644,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C486" sqref="C486"/>
+      <pane ySplit="5" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M508" sqref="M508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -82371,7 +82365,7 @@
         <v>3.8</v>
       </c>
       <c r="M506" s="2">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N506" s="2">
         <v>2.5</v>
@@ -82495,7 +82489,165 @@
       </c>
     </row>
     <row r="507" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A507" s="6"/>
+      <c r="A507" s="6">
+        <v>43009</v>
+      </c>
+      <c r="B507" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C507" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="D507" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E507" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F507" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G507" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H507" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I507" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J507" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="K507" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="L507" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="M507" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="N507" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O507" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="P507" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q507" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="R507" s="2">
+        <v>3</v>
+      </c>
+      <c r="S507" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="T507" s="2">
+        <v>5</v>
+      </c>
+      <c r="U507" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="V507" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="W507" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="X507" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="Y507" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="Z507" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AA507" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB507" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AC507" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AD507" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AE507" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF507" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AG507" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AH507" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="AI507" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AJ507" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AK507" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AL507" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AM507" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AN507" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AO507" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AP507" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AQ507" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AR507" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AS507" s="2">
+        <v>3</v>
+      </c>
+      <c r="AT507" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AU507" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AV507" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AW507" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AX507" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AY507" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AZ507" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="BA507" s="2">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="508" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A508" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- October 2017</t>
+    <t>Unemployment Rate: January 1976 -- November 2017</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1645,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M508" sqref="M508"/>
+      <selection pane="bottomLeft" activeCell="B508" sqref="B508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -74443,7 +74443,7 @@
         <v>41487</v>
       </c>
       <c r="B457" s="2">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="C457" s="2">
         <v>7</v>
@@ -75731,7 +75731,7 @@
         <v>41730</v>
       </c>
       <c r="B465" s="2">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="C465" s="2">
         <v>7.1</v>
@@ -77502,7 +77502,7 @@
         <v>42064</v>
       </c>
       <c r="B476" s="2">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="C476" s="2">
         <v>6</v>
@@ -80400,7 +80400,7 @@
         <v>42614</v>
       </c>
       <c r="B494" s="2">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="C494" s="2">
         <v>6</v>
@@ -80561,7 +80561,7 @@
         <v>42644</v>
       </c>
       <c r="B495" s="2">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C495" s="2">
         <v>6.1</v>
@@ -81849,7 +81849,7 @@
         <v>42887</v>
       </c>
       <c r="B503" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="C503" s="2">
         <v>4.5999999999999996</v>
@@ -82565,7 +82565,7 @@
         <v>4.5</v>
       </c>
       <c r="Z507" s="2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AA507" s="2">
         <v>4.9000000000000004</v>
@@ -82650,7 +82650,165 @@
       </c>
     </row>
     <row r="508" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A508" s="6"/>
+      <c r="A508" s="6">
+        <v>43040</v>
+      </c>
+      <c r="B508" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C508" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D508" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E508" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="F508" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G508" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H508" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="I508" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J508" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="K508" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="L508" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="M508" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="N508" s="2">
+        <v>2</v>
+      </c>
+      <c r="O508" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="P508" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q508" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="R508" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="S508" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T508" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="U508" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="V508" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="W508" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="X508" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="Y508" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z508" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AA508" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AB508" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AC508" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD508" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AE508" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF508" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AG508" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AH508" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="AI508" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AJ508" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AK508" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AL508" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AM508" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AN508" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AO508" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AP508" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AQ508" s="2">
+        <v>4</v>
+      </c>
+      <c r="AR508" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AS508" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AT508" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AU508" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AV508" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AW508" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AX508" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AY508" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AZ508" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="BA508" s="2">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="509" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A509" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Historical\Employment\PUBLISHED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\1xpjNRTBak+Qba6voFvRkA==\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B508" sqref="B508"/>
+      <pane ySplit="5" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G510" sqref="G510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -82811,10 +82811,326 @@
       </c>
     </row>
     <row r="509" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A509" s="6"/>
+      <c r="A509" s="6">
+        <v>43070</v>
+      </c>
+      <c r="B509" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C509" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D509" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E509" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F509" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G509" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H509" s="2">
+        <v>3</v>
+      </c>
+      <c r="I509" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J509" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K509" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="L509" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="M509" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="N509" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="O509" s="2">
+        <v>3</v>
+      </c>
+      <c r="P509" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q509" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="R509" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="S509" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T509" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="U509" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="V509" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="W509" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X509" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="Y509" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="Z509" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AA509" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AB509" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AC509" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD509" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AE509" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF509" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AG509" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AH509" s="2">
+        <v>6</v>
+      </c>
+      <c r="AI509" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AJ509" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AK509" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AL509" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AM509" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AN509" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AO509" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AP509" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AQ509" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AR509" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AS509" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AT509" s="2">
+        <v>4</v>
+      </c>
+      <c r="AU509" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AV509" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AW509" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AX509" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AY509" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="AZ509" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="BA509" s="2">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="510" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A510" s="6"/>
+      <c r="A510" s="6">
+        <v>43101</v>
+      </c>
+      <c r="B510" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C510" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="D510" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="E510" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="F510" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G510" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H510" s="2">
+        <v>3</v>
+      </c>
+      <c r="I510" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J510" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K510" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="L510" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="M510" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="N510" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="O510" s="2">
+        <v>3</v>
+      </c>
+      <c r="P510" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="Q510" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="R510" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="S510" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T510" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="U510" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V510" s="2">
+        <v>3</v>
+      </c>
+      <c r="W510" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X510" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="Y510" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="Z510" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AA510" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB510" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AC510" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD510" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AE510" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF510" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AG510" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AH510" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="AI510" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AJ510" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AK510" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AL510" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AM510" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AN510" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AO510" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AP510" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AQ510" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AR510" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AS510" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AT510" s="2">
+        <v>4</v>
+      </c>
+      <c r="AU510" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AV510" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AW510" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AX510" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AY510" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="AZ510" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="BA510" s="2">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="511" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A511" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\+9IXqzwav0OnWQ0s8lSMqA==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\UiLrPuvAAESG8Bac1erE8w==\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- July 2018</t>
+    <t>Unemployment Rate: January 1976 -- August 2018</t>
   </si>
 </sst>
 </file>
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C518" sqref="C518"/>
+      <pane ySplit="5" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A518" sqref="A518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -84099,7 +84099,165 @@
       </c>
     </row>
     <row r="517" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A517" s="6"/>
+      <c r="A517" s="6">
+        <v>43313</v>
+      </c>
+      <c r="B517" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="C517" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D517" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="E517" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F517" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G517" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H517" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="I517" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="J517" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="K517" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="L517" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="M517" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="N517" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="O517" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="P517" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q517" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="R517" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="S517" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="T517" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U517" s="2">
+        <v>5</v>
+      </c>
+      <c r="V517" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="W517" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="X517" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="Y517" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z517" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AA517" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AB517" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AC517" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AD517" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AE517" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AF517" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AG517" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AH517" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AI517" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AJ517" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AK517" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AL517" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM517" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AN517" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AO517" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AP517" s="2">
+        <v>4</v>
+      </c>
+      <c r="AQ517" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AR517" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS517" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AT517" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AU517" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AV517" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AW517" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX517" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AY517" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AZ517" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA517" s="2">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="518" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A518" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\UiLrPuvAAESG8Bac1erE8w==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- August 2018</t>
+    <t>Unemployment Rate: January 1976 -- September 2018</t>
   </si>
 </sst>
 </file>
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A518" sqref="A518"/>
+      <pane ySplit="5" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -84184,7 +84184,7 @@
         <v>3.3</v>
       </c>
       <c r="AC517" s="2">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD517" s="2">
         <v>2.8</v>
@@ -84260,7 +84260,165 @@
       </c>
     </row>
     <row r="518" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A518" s="6"/>
+      <c r="A518" s="6">
+        <v>43344</v>
+      </c>
+      <c r="B518" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="C518" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D518" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E518" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F518" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G518" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H518" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="I518" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="J518" s="2">
+        <v>4</v>
+      </c>
+      <c r="K518" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="L518" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="M518" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="N518" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O518" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="P518" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q518" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="R518" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="S518" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="T518" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="U518" s="2">
+        <v>5</v>
+      </c>
+      <c r="V518" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="W518" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="X518" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="Y518" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z518" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AA518" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AB518" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AC518" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AD518" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AE518" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AF518" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AG518" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AH518" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AI518" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AJ518" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AK518" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AL518" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM518" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AN518" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AO518" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AP518" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AQ518" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AR518" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS518" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AT518" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AU518" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AV518" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AW518" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AX518" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AY518" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AZ518" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA518" s="2">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="519" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A519" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- September 2018</t>
+    <t>Unemployment Rate: January 1976 -- October 2018</t>
   </si>
 </sst>
 </file>
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="5" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -84273,7 +84273,7 @@
         <v>6.5</v>
       </c>
       <c r="E518" s="2">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F518" s="2">
         <v>3.5</v>
@@ -84421,7 +84421,165 @@
       </c>
     </row>
     <row r="519" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A519" s="6"/>
+      <c r="A519" s="6">
+        <v>43374</v>
+      </c>
+      <c r="B519" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="C519" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D519" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="E519" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F519" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G519" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H519" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I519" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="J519" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="K519" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="L519" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="M519" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="N519" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O519" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="P519" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="Q519" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="R519" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="S519" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="T519" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="U519" s="2">
+        <v>5</v>
+      </c>
+      <c r="V519" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="W519" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X519" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="Y519" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="Z519" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AA519" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AB519" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AC519" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AD519" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AE519" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF519" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AG519" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH519" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AI519" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ519" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AK519" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AL519" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM519" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AN519" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AO519" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AP519" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AQ519" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AR519" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS519" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AT519" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AU519" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AV519" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AW519" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AX519" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AY519" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AZ519" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA519" s="2">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="520" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A520" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- October 2018</t>
+    <t>Unemployment Rate: January 1976 -- November 2018</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1644,7 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -83619,160 +83619,160 @@
       <c r="A514" s="6">
         <v>43221</v>
       </c>
-      <c r="B514" s="2">
+      <c r="B514" s="7">
         <v>3.8</v>
       </c>
-      <c r="C514" s="2">
+      <c r="C514" s="7">
         <v>3.9</v>
       </c>
-      <c r="D514" s="2">
+      <c r="D514" s="7">
         <v>7.2</v>
       </c>
-      <c r="E514" s="2">
+      <c r="E514" s="7">
         <v>4.7</v>
       </c>
-      <c r="F514" s="2">
+      <c r="F514" s="7">
         <v>3.8</v>
       </c>
-      <c r="G514" s="2">
+      <c r="G514" s="7">
         <v>4.2</v>
       </c>
-      <c r="H514" s="2">
+      <c r="H514" s="7">
         <v>2.8</v>
       </c>
-      <c r="I514" s="2">
+      <c r="I514" s="7">
         <v>4.5</v>
       </c>
-      <c r="J514" s="2">
+      <c r="J514" s="7">
         <v>4</v>
       </c>
-      <c r="K514" s="2">
+      <c r="K514" s="7">
         <v>5.6</v>
       </c>
-      <c r="L514" s="2">
+      <c r="L514" s="7">
         <v>3.8</v>
       </c>
-      <c r="M514" s="2">
+      <c r="M514" s="7">
         <v>4.2</v>
       </c>
-      <c r="N514" s="2">
+      <c r="N514" s="7">
         <v>2</v>
       </c>
-      <c r="O514" s="2">
+      <c r="O514" s="7">
         <v>2.9</v>
       </c>
-      <c r="P514" s="2">
+      <c r="P514" s="7">
         <v>4.3</v>
       </c>
-      <c r="Q514" s="2">
+      <c r="Q514" s="7">
         <v>3.2</v>
       </c>
-      <c r="R514" s="2">
+      <c r="R514" s="7">
         <v>2.7</v>
       </c>
-      <c r="S514" s="2">
+      <c r="S514" s="7">
         <v>3.4</v>
       </c>
-      <c r="T514" s="2">
+      <c r="T514" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="U514" s="2">
+      <c r="U514" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V514" s="2">
+      <c r="V514" s="7">
         <v>2.8</v>
       </c>
-      <c r="W514" s="2">
+      <c r="W514" s="7">
         <v>4.3</v>
       </c>
-      <c r="X514" s="2">
+      <c r="X514" s="7">
         <v>3.5</v>
       </c>
-      <c r="Y514" s="2">
+      <c r="Y514" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Z514" s="2">
+      <c r="Z514" s="7">
         <v>3.1</v>
       </c>
-      <c r="AA514" s="2">
+      <c r="AA514" s="7">
         <v>4.7</v>
       </c>
-      <c r="AB514" s="2">
+      <c r="AB514" s="7">
         <v>3.6</v>
       </c>
-      <c r="AC514" s="2">
+      <c r="AC514" s="7">
         <v>3.9</v>
       </c>
-      <c r="AD514" s="2">
+      <c r="AD514" s="7">
         <v>2.8</v>
       </c>
-      <c r="AE514" s="2">
+      <c r="AE514" s="7">
         <v>4.8</v>
       </c>
-      <c r="AF514" s="2">
+      <c r="AF514" s="7">
         <v>2.7</v>
       </c>
-      <c r="AG514" s="2">
+      <c r="AG514" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AH514" s="2">
+      <c r="AH514" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AI514" s="2">
+      <c r="AI514" s="7">
         <v>4.5</v>
       </c>
-      <c r="AJ514" s="2">
+      <c r="AJ514" s="7">
         <v>4.3</v>
       </c>
-      <c r="AK514" s="2">
+      <c r="AK514" s="7">
         <v>2.6</v>
       </c>
-      <c r="AL514" s="2">
+      <c r="AL514" s="7">
         <v>4.3</v>
       </c>
-      <c r="AM514" s="2">
+      <c r="AM514" s="7">
         <v>4</v>
       </c>
-      <c r="AN514" s="2">
+      <c r="AN514" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AO514" s="2">
+      <c r="AO514" s="7">
         <v>4.5</v>
       </c>
-      <c r="AP514" s="2">
+      <c r="AP514" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AQ514" s="2">
+      <c r="AQ514" s="7">
         <v>4</v>
       </c>
-      <c r="AR514" s="2">
+      <c r="AR514" s="7">
         <v>3.3</v>
       </c>
-      <c r="AS514" s="2">
+      <c r="AS514" s="7">
         <v>3.5</v>
       </c>
-      <c r="AT514" s="2">
+      <c r="AT514" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AU514" s="2">
+      <c r="AU514" s="7">
         <v>3</v>
       </c>
-      <c r="AV514" s="2">
+      <c r="AV514" s="7">
         <v>2.8</v>
       </c>
-      <c r="AW514" s="2">
+      <c r="AW514" s="7">
         <v>3.2</v>
       </c>
-      <c r="AX514" s="2">
+      <c r="AX514" s="7">
         <v>4.7</v>
       </c>
-      <c r="AY514" s="2">
+      <c r="AY514" s="7">
         <v>5.4</v>
       </c>
-      <c r="AZ514" s="2">
+      <c r="AZ514" s="7">
         <v>2.8</v>
       </c>
-      <c r="BA514" s="2">
+      <c r="BA514" s="7">
         <v>3.7</v>
       </c>
     </row>
@@ -83941,160 +83941,160 @@
       <c r="A516" s="6">
         <v>43282</v>
       </c>
-      <c r="B516" s="2">
+      <c r="B516" s="7">
         <v>3.9</v>
       </c>
-      <c r="C516" s="2">
+      <c r="C516" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D516" s="2">
+      <c r="D516" s="7">
         <v>6.9</v>
       </c>
-      <c r="E516" s="2">
+      <c r="E516" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F516" s="2">
+      <c r="F516" s="7">
         <v>3.7</v>
       </c>
-      <c r="G516" s="2">
+      <c r="G516" s="7">
         <v>4.2</v>
       </c>
-      <c r="H516" s="2">
+      <c r="H516" s="7">
         <v>2.8</v>
       </c>
-      <c r="I516" s="2">
+      <c r="I516" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J516" s="2">
+      <c r="J516" s="7">
         <v>3.9</v>
       </c>
-      <c r="K516" s="2">
+      <c r="K516" s="7">
         <v>5.6</v>
       </c>
-      <c r="L516" s="2">
+      <c r="L516" s="7">
         <v>3.7</v>
       </c>
-      <c r="M516" s="2">
+      <c r="M516" s="7">
         <v>3.9</v>
       </c>
-      <c r="N516" s="2">
+      <c r="N516" s="7">
         <v>2.1</v>
       </c>
-      <c r="O516" s="2">
+      <c r="O516" s="7">
         <v>2.9</v>
       </c>
-      <c r="P516" s="2">
+      <c r="P516" s="7">
         <v>4.2</v>
       </c>
-      <c r="Q516" s="2">
+      <c r="Q516" s="7">
         <v>3.4</v>
       </c>
-      <c r="R516" s="2">
+      <c r="R516" s="7">
         <v>2.6</v>
       </c>
-      <c r="S516" s="2">
+      <c r="S516" s="7">
         <v>3.4</v>
       </c>
-      <c r="T516" s="2">
+      <c r="T516" s="7">
         <v>4.3</v>
       </c>
-      <c r="U516" s="2">
+      <c r="U516" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="V516" s="2">
+      <c r="V516" s="7">
         <v>3</v>
       </c>
-      <c r="W516" s="2">
+      <c r="W516" s="7">
         <v>4.3</v>
       </c>
-      <c r="X516" s="2">
+      <c r="X516" s="7">
         <v>3.6</v>
       </c>
-      <c r="Y516" s="2">
+      <c r="Y516" s="7">
         <v>4.3</v>
       </c>
-      <c r="Z516" s="2">
+      <c r="Z516" s="7">
         <v>3</v>
       </c>
-      <c r="AA516" s="2">
+      <c r="AA516" s="7">
         <v>4.8</v>
       </c>
-      <c r="AB516" s="2">
+      <c r="AB516" s="7">
         <v>3.4</v>
       </c>
-      <c r="AC516" s="2">
+      <c r="AC516" s="7">
         <v>3.7</v>
       </c>
-      <c r="AD516" s="2">
+      <c r="AD516" s="7">
         <v>2.9</v>
       </c>
-      <c r="AE516" s="2">
+      <c r="AE516" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AF516" s="2">
+      <c r="AF516" s="7">
         <v>2.7</v>
       </c>
-      <c r="AG516" s="2">
+      <c r="AG516" s="7">
         <v>4.2</v>
       </c>
-      <c r="AH516" s="2">
+      <c r="AH516" s="7">
         <v>4.7</v>
       </c>
-      <c r="AI516" s="2">
+      <c r="AI516" s="7">
         <v>4.3</v>
       </c>
-      <c r="AJ516" s="2">
+      <c r="AJ516" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AK516" s="2">
+      <c r="AK516" s="7">
         <v>2.6</v>
       </c>
-      <c r="AL516" s="2">
+      <c r="AL516" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AM516" s="2">
+      <c r="AM516" s="7">
         <v>3.8</v>
       </c>
-      <c r="AN516" s="2">
+      <c r="AN516" s="7">
         <v>3.9</v>
       </c>
-      <c r="AO516" s="2">
+      <c r="AO516" s="7">
         <v>4.2</v>
       </c>
-      <c r="AP516" s="2">
+      <c r="AP516" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AQ516" s="2">
+      <c r="AQ516" s="7">
         <v>3.6</v>
       </c>
-      <c r="AR516" s="2">
+      <c r="AR516" s="7">
         <v>3.1</v>
       </c>
-      <c r="AS516" s="2">
+      <c r="AS516" s="7">
         <v>3.5</v>
       </c>
-      <c r="AT516" s="2">
+      <c r="AT516" s="7">
         <v>4</v>
       </c>
-      <c r="AU516" s="2">
+      <c r="AU516" s="7">
         <v>3.1</v>
       </c>
-      <c r="AV516" s="2">
+      <c r="AV516" s="7">
         <v>2.8</v>
       </c>
-      <c r="AW516" s="2">
+      <c r="AW516" s="7">
         <v>3.1</v>
       </c>
-      <c r="AX516" s="2">
+      <c r="AX516" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AY516" s="2">
+      <c r="AY516" s="7">
         <v>5.4</v>
       </c>
-      <c r="AZ516" s="2">
+      <c r="AZ516" s="7">
         <v>2.9</v>
       </c>
-      <c r="BA516" s="2">
+      <c r="BA516" s="7">
         <v>3.8</v>
       </c>
     </row>
@@ -84102,160 +84102,160 @@
       <c r="A517" s="6">
         <v>43313</v>
       </c>
-      <c r="B517" s="2">
+      <c r="B517" s="7">
         <v>3.9</v>
       </c>
-      <c r="C517" s="2">
+      <c r="C517" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D517" s="2">
+      <c r="D517" s="7">
         <v>6.7</v>
       </c>
-      <c r="E517" s="2">
+      <c r="E517" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F517" s="2">
+      <c r="F517" s="7">
         <v>3.6</v>
       </c>
-      <c r="G517" s="2">
+      <c r="G517" s="7">
         <v>4.2</v>
       </c>
-      <c r="H517" s="2">
+      <c r="H517" s="7">
         <v>2.9</v>
       </c>
-      <c r="I517" s="2">
+      <c r="I517" s="7">
         <v>4.3</v>
       </c>
-      <c r="J517" s="2">
+      <c r="J517" s="7">
         <v>3.9</v>
       </c>
-      <c r="K517" s="2">
+      <c r="K517" s="7">
         <v>5.6</v>
       </c>
-      <c r="L517" s="2">
+      <c r="L517" s="7">
         <v>3.7</v>
       </c>
-      <c r="M517" s="2">
+      <c r="M517" s="7">
         <v>3.8</v>
       </c>
-      <c r="N517" s="2">
+      <c r="N517" s="7">
         <v>2.1</v>
       </c>
-      <c r="O517" s="2">
+      <c r="O517" s="7">
         <v>2.8</v>
       </c>
-      <c r="P517" s="2">
+      <c r="P517" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Q517" s="2">
+      <c r="Q517" s="7">
         <v>3.5</v>
       </c>
-      <c r="R517" s="2">
+      <c r="R517" s="7">
         <v>2.5</v>
       </c>
-      <c r="S517" s="2">
+      <c r="S517" s="7">
         <v>3.3</v>
       </c>
-      <c r="T517" s="2">
+      <c r="T517" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="U517" s="2">
+      <c r="U517" s="7">
         <v>5</v>
       </c>
-      <c r="V517" s="2">
+      <c r="V517" s="7">
         <v>3.2</v>
       </c>
-      <c r="W517" s="2">
+      <c r="W517" s="7">
         <v>4.2</v>
       </c>
-      <c r="X517" s="2">
+      <c r="X517" s="7">
         <v>3.6</v>
       </c>
-      <c r="Y517" s="2">
+      <c r="Y517" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Z517" s="2">
+      <c r="Z517" s="7">
         <v>2.9</v>
       </c>
-      <c r="AA517" s="2">
+      <c r="AA517" s="7">
         <v>4.8</v>
       </c>
-      <c r="AB517" s="2">
+      <c r="AB517" s="7">
         <v>3.3</v>
       </c>
-      <c r="AC517" s="2">
+      <c r="AC517" s="7">
         <v>3.7</v>
       </c>
-      <c r="AD517" s="2">
+      <c r="AD517" s="7">
         <v>2.8</v>
       </c>
-      <c r="AE517" s="2">
+      <c r="AE517" s="7">
         <v>4.5</v>
       </c>
-      <c r="AF517" s="2">
+      <c r="AF517" s="7">
         <v>2.7</v>
       </c>
-      <c r="AG517" s="2">
+      <c r="AG517" s="7">
         <v>4.2</v>
       </c>
-      <c r="AH517" s="2">
+      <c r="AH517" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AI517" s="2">
+      <c r="AI517" s="7">
         <v>4.2</v>
       </c>
-      <c r="AJ517" s="2">
+      <c r="AJ517" s="7">
         <v>3.9</v>
       </c>
-      <c r="AK517" s="2">
+      <c r="AK517" s="7">
         <v>2.6</v>
       </c>
-      <c r="AL517" s="2">
+      <c r="AL517" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AM517" s="2">
+      <c r="AM517" s="7">
         <v>3.7</v>
       </c>
-      <c r="AN517" s="2">
+      <c r="AN517" s="7">
         <v>3.8</v>
       </c>
-      <c r="AO517" s="2">
+      <c r="AO517" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AP517" s="2">
+      <c r="AP517" s="7">
         <v>4</v>
       </c>
-      <c r="AQ517" s="2">
+      <c r="AQ517" s="7">
         <v>3.4</v>
       </c>
-      <c r="AR517" s="2">
+      <c r="AR517" s="7">
         <v>3</v>
       </c>
-      <c r="AS517" s="2">
+      <c r="AS517" s="7">
         <v>3.6</v>
       </c>
-      <c r="AT517" s="2">
+      <c r="AT517" s="7">
         <v>3.9</v>
       </c>
-      <c r="AU517" s="2">
+      <c r="AU517" s="7">
         <v>3.1</v>
       </c>
-      <c r="AV517" s="2">
+      <c r="AV517" s="7">
         <v>2.8</v>
       </c>
-      <c r="AW517" s="2">
+      <c r="AW517" s="7">
         <v>3</v>
       </c>
-      <c r="AX517" s="2">
+      <c r="AX517" s="7">
         <v>4.5</v>
       </c>
-      <c r="AY517" s="2">
+      <c r="AY517" s="7">
         <v>5.3</v>
       </c>
-      <c r="AZ517" s="2">
+      <c r="AZ517" s="7">
         <v>3</v>
       </c>
-      <c r="BA517" s="2">
+      <c r="BA517" s="7">
         <v>3.9</v>
       </c>
     </row>
@@ -84263,160 +84263,160 @@
       <c r="A518" s="6">
         <v>43344</v>
       </c>
-      <c r="B518" s="2">
+      <c r="B518" s="7">
         <v>3.7</v>
       </c>
-      <c r="C518" s="2">
+      <c r="C518" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D518" s="2">
+      <c r="D518" s="7">
         <v>6.5</v>
       </c>
-      <c r="E518" s="2">
+      <c r="E518" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F518" s="2">
+      <c r="F518" s="7">
         <v>3.5</v>
       </c>
-      <c r="G518" s="2">
+      <c r="G518" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H518" s="2">
+      <c r="H518" s="7">
         <v>3.1</v>
       </c>
-      <c r="I518" s="2">
+      <c r="I518" s="7">
         <v>4.2</v>
       </c>
-      <c r="J518" s="2">
+      <c r="J518" s="7">
         <v>4</v>
       </c>
-      <c r="K518" s="2">
+      <c r="K518" s="7">
         <v>5.7</v>
       </c>
-      <c r="L518" s="2">
+      <c r="L518" s="7">
         <v>3.5</v>
       </c>
-      <c r="M518" s="2">
+      <c r="M518" s="7">
         <v>3.7</v>
       </c>
-      <c r="N518" s="2">
+      <c r="N518" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O518" s="2">
+      <c r="O518" s="7">
         <v>2.7</v>
       </c>
-      <c r="P518" s="2">
+      <c r="P518" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Q518" s="2">
+      <c r="Q518" s="7">
         <v>3.5</v>
       </c>
-      <c r="R518" s="2">
+      <c r="R518" s="7">
         <v>2.5</v>
       </c>
-      <c r="S518" s="2">
+      <c r="S518" s="7">
         <v>3.3</v>
       </c>
-      <c r="T518" s="2">
+      <c r="T518" s="7">
         <v>4.5</v>
       </c>
-      <c r="U518" s="2">
+      <c r="U518" s="7">
         <v>5</v>
       </c>
-      <c r="V518" s="2">
+      <c r="V518" s="7">
         <v>3.3</v>
       </c>
-      <c r="W518" s="2">
+      <c r="W518" s="7">
         <v>4.2</v>
       </c>
-      <c r="X518" s="2">
+      <c r="X518" s="7">
         <v>3.6</v>
       </c>
-      <c r="Y518" s="2">
+      <c r="Y518" s="7">
         <v>4</v>
       </c>
-      <c r="Z518" s="2">
+      <c r="Z518" s="7">
         <v>2.8</v>
       </c>
-      <c r="AA518" s="2">
+      <c r="AA518" s="7">
         <v>4.8</v>
       </c>
-      <c r="AB518" s="2">
+      <c r="AB518" s="7">
         <v>3.2</v>
       </c>
-      <c r="AC518" s="2">
+      <c r="AC518" s="7">
         <v>3.6</v>
       </c>
-      <c r="AD518" s="2">
+      <c r="AD518" s="7">
         <v>2.8</v>
       </c>
-      <c r="AE518" s="2">
+      <c r="AE518" s="7">
         <v>4.5</v>
       </c>
-      <c r="AF518" s="2">
+      <c r="AF518" s="7">
         <v>2.7</v>
       </c>
-      <c r="AG518" s="2">
+      <c r="AG518" s="7">
         <v>4.2</v>
       </c>
-      <c r="AH518" s="2">
+      <c r="AH518" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AI518" s="2">
+      <c r="AI518" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AJ518" s="2">
+      <c r="AJ518" s="7">
         <v>3.8</v>
       </c>
-      <c r="AK518" s="2">
+      <c r="AK518" s="7">
         <v>2.7</v>
       </c>
-      <c r="AL518" s="2">
+      <c r="AL518" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AM518" s="2">
+      <c r="AM518" s="7">
         <v>3.5</v>
       </c>
-      <c r="AN518" s="2">
+      <c r="AN518" s="7">
         <v>3.8</v>
       </c>
-      <c r="AO518" s="2">
+      <c r="AO518" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AP518" s="2">
+      <c r="AP518" s="7">
         <v>3.9</v>
       </c>
-      <c r="AQ518" s="2">
+      <c r="AQ518" s="7">
         <v>3.3</v>
       </c>
-      <c r="AR518" s="2">
+      <c r="AR518" s="7">
         <v>3</v>
       </c>
-      <c r="AS518" s="2">
+      <c r="AS518" s="7">
         <v>3.6</v>
       </c>
-      <c r="AT518" s="2">
+      <c r="AT518" s="7">
         <v>3.8</v>
       </c>
-      <c r="AU518" s="2">
+      <c r="AU518" s="7">
         <v>3.2</v>
       </c>
-      <c r="AV518" s="2">
+      <c r="AV518" s="7">
         <v>2.9</v>
       </c>
-      <c r="AW518" s="2">
+      <c r="AW518" s="7">
         <v>2.9</v>
       </c>
-      <c r="AX518" s="2">
+      <c r="AX518" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AY518" s="2">
+      <c r="AY518" s="7">
         <v>5.2</v>
       </c>
-      <c r="AZ518" s="2">
+      <c r="AZ518" s="7">
         <v>3</v>
       </c>
-      <c r="BA518" s="2">
+      <c r="BA518" s="7">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -84424,165 +84424,323 @@
       <c r="A519" s="6">
         <v>43374</v>
       </c>
-      <c r="B519" s="2">
+      <c r="B519" s="7">
         <v>3.7</v>
       </c>
-      <c r="C519" s="2">
+      <c r="C519" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D519" s="2">
+      <c r="D519" s="7">
         <v>6.4</v>
       </c>
-      <c r="E519" s="2">
+      <c r="E519" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F519" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="G519" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H519" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="I519" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="J519" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="K519" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="L519" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="M519" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="N519" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O519" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="P519" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="Q519" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="R519" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="S519" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="T519" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="U519" s="7">
+        <v>5</v>
+      </c>
+      <c r="V519" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="W519" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="X519" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="Y519" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="Z519" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AA519" s="7">
         <v>4.7</v>
       </c>
-      <c r="F519" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="G519" s="2">
+      <c r="AB519" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AC519" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="AD519" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AE519" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF519" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="AG519" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H519" s="2">
+      <c r="AH519" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AI519" s="7">
+        <v>4</v>
+      </c>
+      <c r="AJ519" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="AK519" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AL519" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM519" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="AN519" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="AO519" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AP519" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="AQ519" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="AR519" s="7">
+        <v>3</v>
+      </c>
+      <c r="AS519" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="AT519" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="AU519" s="7">
         <v>3.2</v>
       </c>
-      <c r="I519" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="J519" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="K519" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="L519" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="M519" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="N519" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O519" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="P519" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="Q519" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="R519" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="S519" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="T519" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="U519" s="2">
-        <v>5</v>
-      </c>
-      <c r="V519" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="W519" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="X519" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="Y519" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="Z519" s="2">
+      <c r="AV519" s="7">
         <v>2.8</v>
       </c>
-      <c r="AA519" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="AB519" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="AC519" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="AD519" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="AE519" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AF519" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="AG519" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AH519" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AI519" s="2">
-        <v>4</v>
-      </c>
-      <c r="AJ519" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="AK519" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="AL519" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AM519" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="AN519" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="AO519" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AP519" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="AQ519" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="AR519" s="2">
+      <c r="AW519" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="AX519" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="AY519" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ519" s="7">
         <v>3</v>
       </c>
-      <c r="AS519" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="AT519" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="AU519" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="AV519" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="AW519" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="AX519" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="AY519" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="AZ519" s="2">
-        <v>3</v>
-      </c>
-      <c r="BA519" s="2">
+      <c r="BA519" s="7">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="520" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A520" s="6"/>
+      <c r="A520" s="6">
+        <v>43405</v>
+      </c>
+      <c r="B520" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="C520" s="7">
+        <v>4</v>
+      </c>
+      <c r="D520" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="E520" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="F520" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="G520" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H520" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="I520" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J520" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="K520" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="L520" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="M520" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="N520" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="O520" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="P520" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="Q520" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="R520" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="S520" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="T520" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="U520" s="7">
+        <v>5</v>
+      </c>
+      <c r="V520" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="W520" s="7">
+        <v>4</v>
+      </c>
+      <c r="X520" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="Y520" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="Z520" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AA520" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="AB520" s="7">
+        <v>3</v>
+      </c>
+      <c r="AC520" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="AD520" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AE520" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF520" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="AG520" s="7">
+        <v>4</v>
+      </c>
+      <c r="AH520" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AI520" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="AJ520" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="AK520" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AL520" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM520" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="AN520" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="AO520" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="AP520" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="AQ520" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="AR520" s="7">
+        <v>3</v>
+      </c>
+      <c r="AS520" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="AT520" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="AU520" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AV520" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="AW520" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AX520" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="AY520" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="AZ520" s="7">
+        <v>3</v>
+      </c>
+      <c r="BA520" s="7">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="521" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A521" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- November 2018</t>
+    <t>Unemployment Rate: January 1976 -- December 2018</t>
   </si>
 </sst>
 </file>
@@ -79756,7 +79756,7 @@
         <v>42491</v>
       </c>
       <c r="B490" s="7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C490" s="7">
         <v>5.8</v>
@@ -80078,7 +80078,7 @@
         <v>42552</v>
       </c>
       <c r="B492" s="7">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="C492" s="7">
         <v>5.8</v>
@@ -80722,7 +80722,7 @@
         <v>42675</v>
       </c>
       <c r="B496" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="C496" s="7">
         <v>5.8</v>
@@ -81044,7 +81044,7 @@
         <v>42736</v>
       </c>
       <c r="B498" s="7">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C498" s="7">
         <v>5.5</v>
@@ -81366,7 +81366,7 @@
         <v>42795</v>
       </c>
       <c r="B500" s="7">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C500" s="7">
         <v>5</v>
@@ -81688,7 +81688,7 @@
         <v>42856</v>
       </c>
       <c r="B502" s="7">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C502" s="7">
         <v>4.5999999999999996</v>
@@ -82654,7 +82654,7 @@
         <v>43040</v>
       </c>
       <c r="B508" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="C508" s="7">
         <v>3.8</v>
@@ -83298,7 +83298,7 @@
         <v>43160</v>
       </c>
       <c r="B512" s="7">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C512" s="7">
         <v>3.8</v>
@@ -84103,7 +84103,7 @@
         <v>43313</v>
       </c>
       <c r="B517" s="7">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C517" s="7">
         <v>4.0999999999999996</v>
@@ -84425,7 +84425,7 @@
         <v>43374</v>
       </c>
       <c r="B519" s="7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C519" s="7">
         <v>4.0999999999999996</v>
@@ -84743,7 +84743,165 @@
       </c>
     </row>
     <row r="521" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A521" s="6"/>
+      <c r="A521" s="6">
+        <v>43435</v>
+      </c>
+      <c r="B521" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="C521" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="D521" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="E521" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="F521" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G521" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H521" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="I521" s="2">
+        <v>4</v>
+      </c>
+      <c r="J521" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="K521" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L521" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="M521" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="N521" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="O521" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="P521" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="Q521" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="R521" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="S521" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="T521" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U521" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V521" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="W521" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="X521" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="Y521" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z521" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AA521" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AB521" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="AC521" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AD521" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AE521" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF521" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AG521" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH521" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AI521" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AJ521" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AK521" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AL521" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AM521" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AN521" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AO521" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AP521" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AQ521" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AR521" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AS521" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AT521" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AU521" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AV521" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="AW521" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AX521" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AY521" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AZ521" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA521" s="2">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="522" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A522" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- February 2019</t>
+    <t>Unemployment Rate: January 1976 -- March 2019</t>
   </si>
 </sst>
 </file>
@@ -85068,165 +85068,323 @@
       <c r="A523" s="6">
         <v>43497</v>
       </c>
-      <c r="B523" s="2">
+      <c r="B523" s="7">
         <v>3.8</v>
       </c>
-      <c r="C523" s="2">
+      <c r="C523" s="7">
         <v>3.7</v>
       </c>
-      <c r="D523" s="2">
+      <c r="D523" s="7">
         <v>6.5</v>
       </c>
-      <c r="E523" s="2">
+      <c r="E523" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F523" s="2">
+      <c r="F523" s="7">
         <v>3.8</v>
       </c>
-      <c r="G523" s="2">
+      <c r="G523" s="7">
         <v>4.2</v>
       </c>
-      <c r="H523" s="2">
+      <c r="H523" s="7">
         <v>3.7</v>
       </c>
-      <c r="I523" s="2">
+      <c r="I523" s="7">
         <v>3.8</v>
       </c>
-      <c r="J523" s="2">
+      <c r="J523" s="7">
         <v>3.4</v>
       </c>
-      <c r="K523" s="2">
+      <c r="K523" s="7">
         <v>5.5</v>
       </c>
-      <c r="L523" s="2">
+      <c r="L523" s="7">
         <v>3.5</v>
       </c>
-      <c r="M523" s="2">
+      <c r="M523" s="7">
         <v>3.9</v>
       </c>
-      <c r="N523" s="2">
+      <c r="N523" s="7">
         <v>2.7</v>
       </c>
-      <c r="O523" s="2">
+      <c r="O523" s="7">
         <v>2.9</v>
       </c>
-      <c r="P523" s="2">
+      <c r="P523" s="7">
         <v>4.3</v>
       </c>
-      <c r="Q523" s="2">
+      <c r="Q523" s="7">
         <v>3.5</v>
       </c>
-      <c r="R523" s="2">
+      <c r="R523" s="7">
         <v>2.4</v>
       </c>
-      <c r="S523" s="2">
+      <c r="S523" s="7">
         <v>3.4</v>
       </c>
-      <c r="T523" s="2">
+      <c r="T523" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="U523" s="2">
+      <c r="U523" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="V523" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="W523" s="2">
+      <c r="V523" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="W523" s="7">
         <v>3.7</v>
       </c>
-      <c r="X523" s="2">
+      <c r="X523" s="7">
         <v>3</v>
       </c>
-      <c r="Y523" s="2">
+      <c r="Y523" s="7">
         <v>4</v>
       </c>
-      <c r="Z523" s="2">
+      <c r="Z523" s="7">
         <v>3.1</v>
       </c>
-      <c r="AA523" s="2">
+      <c r="AA523" s="7">
         <v>4.8</v>
       </c>
-      <c r="AB523" s="2">
+      <c r="AB523" s="7">
         <v>3.2</v>
       </c>
-      <c r="AC523" s="2">
+      <c r="AC523" s="7">
         <v>3.8</v>
       </c>
-      <c r="AD523" s="2">
+      <c r="AD523" s="7">
         <v>2.8</v>
       </c>
-      <c r="AE523" s="2">
+      <c r="AE523" s="7">
         <v>4.3</v>
       </c>
-      <c r="AF523" s="2">
+      <c r="AF523" s="7">
         <v>2.4</v>
       </c>
-      <c r="AG523" s="2">
+      <c r="AG523" s="7">
         <v>4</v>
       </c>
-      <c r="AH523" s="2">
+      <c r="AH523" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AI523" s="2">
+      <c r="AI523" s="7">
         <v>3.9</v>
       </c>
-      <c r="AJ523" s="2">
+      <c r="AJ523" s="7">
         <v>3.9</v>
       </c>
-      <c r="AK523" s="2">
+      <c r="AK523" s="7">
         <v>2.4</v>
       </c>
-      <c r="AL523" s="2">
+      <c r="AL523" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AM523" s="2">
+      <c r="AM523" s="7">
         <v>3.3</v>
       </c>
-      <c r="AN523" s="2">
+      <c r="AN523" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AO523" s="2">
+      <c r="AO523" s="7">
         <v>4</v>
       </c>
-      <c r="AP523" s="2">
+      <c r="AP523" s="7">
         <v>3.9</v>
       </c>
-      <c r="AQ523" s="2">
+      <c r="AQ523" s="7">
         <v>3.2</v>
       </c>
-      <c r="AR523" s="2">
+      <c r="AR523" s="7">
         <v>2.9</v>
       </c>
-      <c r="AS523" s="2">
+      <c r="AS523" s="7">
         <v>3.2</v>
       </c>
-      <c r="AT523" s="2">
+      <c r="AT523" s="7">
         <v>3.8</v>
       </c>
-      <c r="AU523" s="2">
+      <c r="AU523" s="7">
         <v>3</v>
       </c>
-      <c r="AV523" s="2">
+      <c r="AV523" s="7">
         <v>2.4</v>
       </c>
-      <c r="AW523" s="2">
+      <c r="AW523" s="7">
         <v>2.9</v>
       </c>
-      <c r="AX523" s="2">
+      <c r="AX523" s="7">
         <v>4.5</v>
       </c>
-      <c r="AY523" s="2">
+      <c r="AY523" s="7">
         <v>5.2</v>
       </c>
-      <c r="AZ523" s="2">
+      <c r="AZ523" s="7">
         <v>2.9</v>
       </c>
-      <c r="BA523" s="2">
+      <c r="BA523" s="7">
         <v>3.9</v>
       </c>
     </row>
     <row r="524" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A524" s="6"/>
+      <c r="A524" s="6">
+        <v>43525</v>
+      </c>
+      <c r="B524" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="C524" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="D524" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="E524" s="7">
+        <v>5</v>
+      </c>
+      <c r="F524" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="G524" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="H524" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="I524" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="J524" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="K524" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="L524" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="M524" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="N524" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="O524" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="P524" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q524" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="R524" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="S524" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="T524" s="7">
+        <v>4</v>
+      </c>
+      <c r="U524" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="V524" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="W524" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="X524" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y524" s="7">
+        <v>4</v>
+      </c>
+      <c r="Z524" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AA524" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB524" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="AC524" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="AD524" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AE524" s="7">
+        <v>4.2</v>
+      </c>
+      <c r="AF524" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="AG524" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH524" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AI524" s="7">
+        <v>4</v>
+      </c>
+      <c r="AJ524" s="7">
+        <v>4</v>
+      </c>
+      <c r="AK524" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AL524" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AM524" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="AN524" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AO524" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="AP524" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="AQ524" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AR524" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AS524" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AT524" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="AU524" s="7">
+        <v>3</v>
+      </c>
+      <c r="AV524" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AW524" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="AX524" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AY524" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AZ524" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="BA524" s="7">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="525" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A525" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- March 2019</t>
+    <t>Unemployment Rate: January 1976 -- April 2019</t>
   </si>
 </sst>
 </file>
@@ -85329,7 +85329,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AI524" s="7">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AJ524" s="7">
         <v>4</v>
@@ -85387,7 +85387,165 @@
       </c>
     </row>
     <row r="525" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A525" s="6"/>
+      <c r="A525" s="6">
+        <v>43556</v>
+      </c>
+      <c r="B525" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="C525" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D525" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E525" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F525" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G525" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="H525" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="I525" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="J525" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="K525" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="L525" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="M525" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="N525" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="O525" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="P525" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q525" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="R525" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="S525" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T525" s="2">
+        <v>4</v>
+      </c>
+      <c r="U525" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="V525" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="W525" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="X525" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="Y525" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Z525" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AA525" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AB525" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AC525" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AD525" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AE525" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF525" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="AG525" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AH525" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI525" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="AJ525" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK525" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AL525" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AM525" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AN525" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="AO525" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AP525" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AQ525" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="AR525" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="AS525" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AT525" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="AU525" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AV525" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AW525" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AX525" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AY525" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AZ525" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="BA525" s="2">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="526" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A526" s="6"/>

--- a/static/data/historical/source/unemployment_historical.xlsx
+++ b/static/data/historical/source/unemployment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Unemployment Rate: January 1976 -- April 2019</t>
+    <t>Unemployment Rate: January 1976 -- May 2019</t>
   </si>
 </sst>
 </file>
@@ -1644,8 +1644,8 @@
   <dimension ref="A1:BA713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="5" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B528" sqref="B528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -85409,7 +85409,7 @@
         <v>4.3</v>
       </c>
       <c r="H525" s="2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I525" s="2">
         <v>3.8</v>
@@ -85421,7 +85421,7 @@
         <v>5.6</v>
       </c>
       <c r="L525" s="2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M525" s="2">
         <v>3.8</v>
@@ -85472,7 +85472,7 @@
         <v>3.3</v>
       </c>
       <c r="AC525" s="2">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD525" s="2">
         <v>2.9</v>
@@ -85499,7 +85499,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AL525" s="2">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AM525" s="2">
         <v>3.3</v>
@@ -85548,7 +85548,165 @@
       </c>
     </row>
     <row r="526" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A526" s="6"/>
+      <c r="A526" s="6">
+        <v>43586</v>
+      </c>
+      <c r="B526" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="C526" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="D526" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="E526" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F526" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G526" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="H526" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I526" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="J526" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="K526" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="L526" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="M526" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="N526" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="O526" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="P526" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q526" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="R526" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="S526" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T526" s="2">
+        <v>4</v>
+      </c>
+      <c r="U526" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V526" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="W526" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="X526" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y526" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="Z526" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AA526" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB526" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AC526" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AD526" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE526" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF526" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="AG526" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AH526" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI526" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ526" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AK526" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AL526" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AM526" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AN526" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="AO526" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="AP526" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="AQ526" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AR526" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AS526" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="AT526" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="AU526" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="AV526" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="AW526" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX526" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="AY526" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="AZ526" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="BA526" s="2">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="527" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A527" s="6"/>
